--- a/analysis/test-dijkstra-dualascent.xlsx
+++ b/analysis/test-dijkstra-dualascent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Documents\GitHub\anaws\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB3D60F-ABD8-47CC-B926-7451B2BEC2EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455852F9-AE64-46A0-87AC-E98CB00CA7BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{4FF27154-4CE8-4227-97A9-9900F5A89FA9}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <sheet name="Banda EQ Dual Ascent" sheetId="4" r:id="rId3"/>
     <sheet name="Banda DIV Dijkstra" sheetId="5" r:id="rId4"/>
     <sheet name="Banda DIV Dual Ascent" sheetId="6" r:id="rId5"/>
+    <sheet name="Target" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="46">
   <si>
     <t>Mean</t>
   </si>
@@ -147,6 +148,36 @@
   <si>
     <t>Other</t>
   </si>
+  <si>
+    <t>DIJKSTRA</t>
+  </si>
+  <si>
+    <t>DUAL ASCENT</t>
+  </si>
+  <si>
+    <t>Nodes</t>
+  </si>
+  <si>
+    <t>h1-h14</t>
+  </si>
+  <si>
+    <t>h6-h14</t>
+  </si>
+  <si>
+    <t>h14-h1</t>
+  </si>
+  <si>
+    <t>h14-h6</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>St. dev</t>
+  </si>
+  <si>
+    <t>Aggregate mean</t>
+  </si>
 </sst>
 </file>
 
@@ -183,7 +214,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -271,11 +302,76 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -390,6 +486,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -418,6 +561,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1901,7 +2053,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT"/>
-              <a:t>Bandwith Dijkstra (equal links)</a:t>
+              <a:t>Bandwidth Dijkstra (equal links)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3683,7 +3835,8 @@
         <c:axId val="536259216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="40"/>
+          <c:max val="50"/>
+          <c:min val="39"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3722,7 +3875,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="it-IT"/>
-                  <a:t>Bandwith (Gbit/s)</a:t>
+                  <a:t>Bandwidth (Gbit/s)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3915,7 +4068,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT"/>
-              <a:t>Aggregate Bandwith Dijkstra - Dual Ascent (equal links)</a:t>
+              <a:t>Aggregate Bandwidth Dijkstra - Dual Ascent (equal links)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4414,7 +4567,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="it-IT"/>
-                  <a:t>Bandwith (Gbit/s)</a:t>
+                  <a:t>Bandwidth (Gbit/s)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4607,7 +4760,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT"/>
-              <a:t>Bandwith Dual Ascent (equal links)</a:t>
+              <a:t>Bandwidth Dual Ascent (equal links)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6429,7 +6582,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="it-IT"/>
-                  <a:t>Bandwith (Gbit/s)</a:t>
+                  <a:t>Bandwidth (Gbit/s)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -6623,7 +6776,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT"/>
-              <a:t>Bandwith Dijkstra (different links)</a:t>
+              <a:t>Bandwidth Dijkstra (different links)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -8444,7 +8597,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="it-IT"/>
-                  <a:t>Bandwith (Mbit/s)</a:t>
+                  <a:t>Bandwidth (Mbit/s)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -8638,7 +8791,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Aggregate bandwith Dijkstra</a:t>
+              <a:t>Aggregate bandwidth Dijkstra</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -8917,49 +9070,49 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>160.11510471111112</c:v>
+                  <c:v>182.86920391111107</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>153.4823992888889</c:v>
+                  <c:v>176.01513244444445</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>157.24562204444445</c:v>
+                  <c:v>179.63854506666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>156.93104924444444</c:v>
+                  <c:v>179.4055281777778</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>157.22232035555555</c:v>
+                  <c:v>179.38222648888885</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>156.56987306666667</c:v>
+                  <c:v>179.13755875555557</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>157.12911360000001</c:v>
+                  <c:v>179.52203662222223</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>157.18154239999998</c:v>
+                  <c:v>179.43465528888888</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>156.87279502222222</c:v>
+                  <c:v>179.23659093333333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>156.9951288888889</c:v>
+                  <c:v>179.16668586666665</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>157.12328817777777</c:v>
+                  <c:v>179.63854506666667</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>156.89609671111111</c:v>
+                  <c:v>179.11425706666668</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>157.15241528888888</c:v>
+                  <c:v>179.52786204444442</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>157.18154239999998</c:v>
+                  <c:v>179.38805191111109</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>156.95435093333333</c:v>
+                  <c:v>179.24241635555555</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9140,7 +9293,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="it-IT"/>
-                  <a:t>Bandwith (Mbit/s)</a:t>
+                  <a:t>Bandwidth (Mbit/s)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -9333,7 +9486,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT"/>
-              <a:t>Bandwith Dual Ascent</a:t>
+              <a:t>Bandwidth Dual Ascent</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="it-IT" baseline="0"/>
@@ -10762,49 +10915,49 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>41.516835930231252</c:v>
+                    <c:v>2.8761145646462354</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>40.858849415136518</c:v>
+                    <c:v>1.1756609997382543</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>41.018096913339392</c:v>
+                    <c:v>1.3679864387903726</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>40.825001316229503</c:v>
+                    <c:v>1.4606674378808073</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>40.792612822962838</c:v>
+                    <c:v>1.2986210807632332</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>40.948768725919109</c:v>
+                    <c:v>1.1871672186949991</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>40.693654289716051</c:v>
+                    <c:v>1.1606299849532302</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>40.868544001022691</c:v>
+                    <c:v>1.2257974248936494</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>40.684190501297344</c:v>
+                    <c:v>1.3856173720703187</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>40.912433916413924</c:v>
+                    <c:v>1.2752319166008557</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>40.809324807457067</c:v>
+                    <c:v>1.100291044101299</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>40.931753896358082</c:v>
+                    <c:v>1.3544334449732724</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>40.676433286117408</c:v>
+                    <c:v>1.2825079881728441</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>40.937314288053699</c:v>
+                    <c:v>1.3571190985401649</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>40.759209986133762</c:v>
+                    <c:v>1.3087378602391389</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -10816,49 +10969,49 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>41.516835930231252</c:v>
+                    <c:v>2.8761145646462354</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>40.858849415136518</c:v>
+                    <c:v>1.1756609997382543</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>41.018096913339392</c:v>
+                    <c:v>1.3679864387903726</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>40.825001316229503</c:v>
+                    <c:v>1.4606674378808073</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>40.792612822962838</c:v>
+                    <c:v>1.2986210807632332</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>40.948768725919109</c:v>
+                    <c:v>1.1871672186949991</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>40.693654289716051</c:v>
+                    <c:v>1.1606299849532302</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>40.868544001022691</c:v>
+                    <c:v>1.2257974248936494</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>40.684190501297344</c:v>
+                    <c:v>1.3856173720703187</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>40.912433916413924</c:v>
+                    <c:v>1.2752319166008557</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>40.809324807457067</c:v>
+                    <c:v>1.100291044101299</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>40.931753896358082</c:v>
+                    <c:v>1.3544334449732724</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>40.676433286117408</c:v>
+                    <c:v>1.2825079881728441</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>40.937314288053699</c:v>
+                    <c:v>1.3571190985401649</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>40.759209986133762</c:v>
+                    <c:v>1.3087378602391389</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -10934,49 +11087,49 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>178.11810986666666</c:v>
+                  <c:v>314.64270506666657</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>169.83435946666668</c:v>
+                  <c:v>305.03075840000008</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>170.21883733333331</c:v>
+                  <c:v>304.57637546666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>169.37997653333335</c:v>
+                  <c:v>304.22685013333336</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>170.53341013333335</c:v>
+                  <c:v>303.49284693333328</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>168.99549866666669</c:v>
+                  <c:v>304.40161280000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>169.86931200000001</c:v>
+                  <c:v>304.22685013333336</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>170.04407466666663</c:v>
+                  <c:v>303.56275200000005</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>169.4149290666667</c:v>
+                  <c:v>303.59770453333329</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>170.39359999999999</c:v>
+                  <c:v>303.42294186666663</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>169.58969173333335</c:v>
+                  <c:v>304.68123306666655</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>169.4498816</c:v>
+                  <c:v>302.75884373333332</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>169.62464426666668</c:v>
+                  <c:v>303.87732479999994</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>170.25378986666664</c:v>
+                  <c:v>303.49284693333328</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>170.14893226666669</c:v>
+                  <c:v>303.8773248</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11157,7 +11310,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="it-IT"/>
-                  <a:t>Bandwith (Mbit/s)</a:t>
+                  <a:t>Bandwidth (Mbit/s)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -15551,7 +15704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF34C271-DF05-470A-888F-D3E261F22D54}">
   <dimension ref="A1:H407"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
@@ -15565,16 +15718,16 @@
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="42" t="s">
+      <c r="C1" s="60"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="45"/>
-      <c r="G1" s="44"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="61"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
@@ -20119,7 +20272,7 @@
   <dimension ref="A1:CS46"/>
   <sheetViews>
     <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72"/>
+      <selection activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20143,114 +20296,114 @@
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="51" t="s">
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="49"/>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="49"/>
-      <c r="AD1" s="49"/>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="49"/>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="46" t="s">
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="66"/>
+      <c r="AA1" s="66"/>
+      <c r="AB1" s="66"/>
+      <c r="AC1" s="66"/>
+      <c r="AD1" s="66"/>
+      <c r="AE1" s="66"/>
+      <c r="AF1" s="66"/>
+      <c r="AG1" s="67"/>
+      <c r="AH1" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="AI1" s="47"/>
-      <c r="AJ1" s="47"/>
-      <c r="AK1" s="47"/>
-      <c r="AL1" s="47"/>
-      <c r="AM1" s="47"/>
-      <c r="AN1" s="47"/>
-      <c r="AO1" s="47"/>
-      <c r="AP1" s="47"/>
-      <c r="AQ1" s="47"/>
-      <c r="AR1" s="47"/>
-      <c r="AS1" s="47"/>
-      <c r="AT1" s="47"/>
-      <c r="AU1" s="47"/>
-      <c r="AV1" s="47"/>
-      <c r="AW1" s="48"/>
-      <c r="AX1" s="49" t="s">
+      <c r="AI1" s="64"/>
+      <c r="AJ1" s="64"/>
+      <c r="AK1" s="64"/>
+      <c r="AL1" s="64"/>
+      <c r="AM1" s="64"/>
+      <c r="AN1" s="64"/>
+      <c r="AO1" s="64"/>
+      <c r="AP1" s="64"/>
+      <c r="AQ1" s="64"/>
+      <c r="AR1" s="64"/>
+      <c r="AS1" s="64"/>
+      <c r="AT1" s="64"/>
+      <c r="AU1" s="64"/>
+      <c r="AV1" s="64"/>
+      <c r="AW1" s="65"/>
+      <c r="AX1" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="AY1" s="49"/>
-      <c r="AZ1" s="49"/>
-      <c r="BA1" s="49"/>
-      <c r="BB1" s="49"/>
-      <c r="BC1" s="49"/>
-      <c r="BD1" s="49"/>
-      <c r="BE1" s="49"/>
-      <c r="BF1" s="49"/>
-      <c r="BG1" s="49"/>
-      <c r="BH1" s="49"/>
-      <c r="BI1" s="49"/>
-      <c r="BJ1" s="49"/>
-      <c r="BK1" s="49"/>
-      <c r="BL1" s="49"/>
-      <c r="BM1" s="50"/>
-      <c r="BN1" s="49" t="s">
+      <c r="AY1" s="66"/>
+      <c r="AZ1" s="66"/>
+      <c r="BA1" s="66"/>
+      <c r="BB1" s="66"/>
+      <c r="BC1" s="66"/>
+      <c r="BD1" s="66"/>
+      <c r="BE1" s="66"/>
+      <c r="BF1" s="66"/>
+      <c r="BG1" s="66"/>
+      <c r="BH1" s="66"/>
+      <c r="BI1" s="66"/>
+      <c r="BJ1" s="66"/>
+      <c r="BK1" s="66"/>
+      <c r="BL1" s="66"/>
+      <c r="BM1" s="67"/>
+      <c r="BN1" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="BO1" s="49"/>
-      <c r="BP1" s="49"/>
-      <c r="BQ1" s="49"/>
-      <c r="BR1" s="49"/>
-      <c r="BS1" s="49"/>
-      <c r="BT1" s="49"/>
-      <c r="BU1" s="49"/>
-      <c r="BV1" s="49"/>
-      <c r="BW1" s="49"/>
-      <c r="BX1" s="49"/>
-      <c r="BY1" s="49"/>
-      <c r="BZ1" s="49"/>
-      <c r="CA1" s="49"/>
-      <c r="CB1" s="49"/>
-      <c r="CC1" s="50"/>
-      <c r="CD1" s="49" t="s">
+      <c r="BO1" s="66"/>
+      <c r="BP1" s="66"/>
+      <c r="BQ1" s="66"/>
+      <c r="BR1" s="66"/>
+      <c r="BS1" s="66"/>
+      <c r="BT1" s="66"/>
+      <c r="BU1" s="66"/>
+      <c r="BV1" s="66"/>
+      <c r="BW1" s="66"/>
+      <c r="BX1" s="66"/>
+      <c r="BY1" s="66"/>
+      <c r="BZ1" s="66"/>
+      <c r="CA1" s="66"/>
+      <c r="CB1" s="66"/>
+      <c r="CC1" s="67"/>
+      <c r="CD1" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="CE1" s="49"/>
-      <c r="CF1" s="49"/>
-      <c r="CG1" s="49"/>
-      <c r="CH1" s="49"/>
-      <c r="CI1" s="49"/>
-      <c r="CJ1" s="49"/>
-      <c r="CK1" s="49"/>
-      <c r="CL1" s="49"/>
-      <c r="CM1" s="49"/>
-      <c r="CN1" s="49"/>
-      <c r="CO1" s="49"/>
-      <c r="CP1" s="49"/>
-      <c r="CQ1" s="49"/>
-      <c r="CR1" s="49"/>
-      <c r="CS1" s="50"/>
+      <c r="CE1" s="66"/>
+      <c r="CF1" s="66"/>
+      <c r="CG1" s="66"/>
+      <c r="CH1" s="66"/>
+      <c r="CI1" s="66"/>
+      <c r="CJ1" s="66"/>
+      <c r="CK1" s="66"/>
+      <c r="CL1" s="66"/>
+      <c r="CM1" s="66"/>
+      <c r="CN1" s="66"/>
+      <c r="CO1" s="66"/>
+      <c r="CP1" s="66"/>
+      <c r="CQ1" s="66"/>
+      <c r="CR1" s="66"/>
+      <c r="CS1" s="67"/>
     </row>
     <row r="2" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A2" s="12"/>
@@ -30976,8 +31129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F24C38-3DA2-4AE0-B9BB-0958C9CC608A}">
   <dimension ref="A1:CS46"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="X56" sqref="X56"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="Y76" sqref="Y76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -31001,114 +31154,114 @@
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="51" t="s">
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="49"/>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="49"/>
-      <c r="AD1" s="49"/>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="49"/>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="46" t="s">
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="66"/>
+      <c r="AA1" s="66"/>
+      <c r="AB1" s="66"/>
+      <c r="AC1" s="66"/>
+      <c r="AD1" s="66"/>
+      <c r="AE1" s="66"/>
+      <c r="AF1" s="66"/>
+      <c r="AG1" s="67"/>
+      <c r="AH1" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="AI1" s="47"/>
-      <c r="AJ1" s="47"/>
-      <c r="AK1" s="47"/>
-      <c r="AL1" s="47"/>
-      <c r="AM1" s="47"/>
-      <c r="AN1" s="47"/>
-      <c r="AO1" s="47"/>
-      <c r="AP1" s="47"/>
-      <c r="AQ1" s="47"/>
-      <c r="AR1" s="47"/>
-      <c r="AS1" s="47"/>
-      <c r="AT1" s="47"/>
-      <c r="AU1" s="47"/>
-      <c r="AV1" s="47"/>
-      <c r="AW1" s="48"/>
-      <c r="AX1" s="49" t="s">
+      <c r="AI1" s="64"/>
+      <c r="AJ1" s="64"/>
+      <c r="AK1" s="64"/>
+      <c r="AL1" s="64"/>
+      <c r="AM1" s="64"/>
+      <c r="AN1" s="64"/>
+      <c r="AO1" s="64"/>
+      <c r="AP1" s="64"/>
+      <c r="AQ1" s="64"/>
+      <c r="AR1" s="64"/>
+      <c r="AS1" s="64"/>
+      <c r="AT1" s="64"/>
+      <c r="AU1" s="64"/>
+      <c r="AV1" s="64"/>
+      <c r="AW1" s="65"/>
+      <c r="AX1" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="AY1" s="49"/>
-      <c r="AZ1" s="49"/>
-      <c r="BA1" s="49"/>
-      <c r="BB1" s="49"/>
-      <c r="BC1" s="49"/>
-      <c r="BD1" s="49"/>
-      <c r="BE1" s="49"/>
-      <c r="BF1" s="49"/>
-      <c r="BG1" s="49"/>
-      <c r="BH1" s="49"/>
-      <c r="BI1" s="49"/>
-      <c r="BJ1" s="49"/>
-      <c r="BK1" s="49"/>
-      <c r="BL1" s="49"/>
-      <c r="BM1" s="50"/>
-      <c r="BN1" s="49" t="s">
+      <c r="AY1" s="66"/>
+      <c r="AZ1" s="66"/>
+      <c r="BA1" s="66"/>
+      <c r="BB1" s="66"/>
+      <c r="BC1" s="66"/>
+      <c r="BD1" s="66"/>
+      <c r="BE1" s="66"/>
+      <c r="BF1" s="66"/>
+      <c r="BG1" s="66"/>
+      <c r="BH1" s="66"/>
+      <c r="BI1" s="66"/>
+      <c r="BJ1" s="66"/>
+      <c r="BK1" s="66"/>
+      <c r="BL1" s="66"/>
+      <c r="BM1" s="67"/>
+      <c r="BN1" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="BO1" s="49"/>
-      <c r="BP1" s="49"/>
-      <c r="BQ1" s="49"/>
-      <c r="BR1" s="49"/>
-      <c r="BS1" s="49"/>
-      <c r="BT1" s="49"/>
-      <c r="BU1" s="49"/>
-      <c r="BV1" s="49"/>
-      <c r="BW1" s="49"/>
-      <c r="BX1" s="49"/>
-      <c r="BY1" s="49"/>
-      <c r="BZ1" s="49"/>
-      <c r="CA1" s="49"/>
-      <c r="CB1" s="49"/>
-      <c r="CC1" s="50"/>
-      <c r="CD1" s="49" t="s">
+      <c r="BO1" s="66"/>
+      <c r="BP1" s="66"/>
+      <c r="BQ1" s="66"/>
+      <c r="BR1" s="66"/>
+      <c r="BS1" s="66"/>
+      <c r="BT1" s="66"/>
+      <c r="BU1" s="66"/>
+      <c r="BV1" s="66"/>
+      <c r="BW1" s="66"/>
+      <c r="BX1" s="66"/>
+      <c r="BY1" s="66"/>
+      <c r="BZ1" s="66"/>
+      <c r="CA1" s="66"/>
+      <c r="CB1" s="66"/>
+      <c r="CC1" s="67"/>
+      <c r="CD1" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="CE1" s="49"/>
-      <c r="CF1" s="49"/>
-      <c r="CG1" s="49"/>
-      <c r="CH1" s="49"/>
-      <c r="CI1" s="49"/>
-      <c r="CJ1" s="49"/>
-      <c r="CK1" s="49"/>
-      <c r="CL1" s="49"/>
-      <c r="CM1" s="49"/>
-      <c r="CN1" s="49"/>
-      <c r="CO1" s="49"/>
-      <c r="CP1" s="49"/>
-      <c r="CQ1" s="49"/>
-      <c r="CR1" s="49"/>
-      <c r="CS1" s="50"/>
+      <c r="CE1" s="66"/>
+      <c r="CF1" s="66"/>
+      <c r="CG1" s="66"/>
+      <c r="CH1" s="66"/>
+      <c r="CI1" s="66"/>
+      <c r="CJ1" s="66"/>
+      <c r="CK1" s="66"/>
+      <c r="CL1" s="66"/>
+      <c r="CM1" s="66"/>
+      <c r="CN1" s="66"/>
+      <c r="CO1" s="66"/>
+      <c r="CP1" s="66"/>
+      <c r="CQ1" s="66"/>
+      <c r="CR1" s="66"/>
+      <c r="CS1" s="67"/>
     </row>
     <row r="2" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A2" s="16"/>
@@ -42007,8 +42160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD29032-954F-457A-A856-7615B2A12CA7}">
   <dimension ref="A1:CS43"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScale="99" workbookViewId="0">
-      <selection activeCell="S43" sqref="S43"/>
+    <sheetView topLeftCell="B41" zoomScale="99" workbookViewId="0">
+      <selection activeCell="AF68" sqref="AF68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -42032,114 +42185,114 @@
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="51" t="s">
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="49"/>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="49"/>
-      <c r="AD1" s="49"/>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="49"/>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="46" t="s">
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="66"/>
+      <c r="AA1" s="66"/>
+      <c r="AB1" s="66"/>
+      <c r="AC1" s="66"/>
+      <c r="AD1" s="66"/>
+      <c r="AE1" s="66"/>
+      <c r="AF1" s="66"/>
+      <c r="AG1" s="67"/>
+      <c r="AH1" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="AI1" s="47"/>
-      <c r="AJ1" s="47"/>
-      <c r="AK1" s="47"/>
-      <c r="AL1" s="47"/>
-      <c r="AM1" s="47"/>
-      <c r="AN1" s="47"/>
-      <c r="AO1" s="47"/>
-      <c r="AP1" s="47"/>
-      <c r="AQ1" s="47"/>
-      <c r="AR1" s="47"/>
-      <c r="AS1" s="47"/>
-      <c r="AT1" s="47"/>
-      <c r="AU1" s="47"/>
-      <c r="AV1" s="47"/>
-      <c r="AW1" s="48"/>
-      <c r="AX1" s="49" t="s">
+      <c r="AI1" s="64"/>
+      <c r="AJ1" s="64"/>
+      <c r="AK1" s="64"/>
+      <c r="AL1" s="64"/>
+      <c r="AM1" s="64"/>
+      <c r="AN1" s="64"/>
+      <c r="AO1" s="64"/>
+      <c r="AP1" s="64"/>
+      <c r="AQ1" s="64"/>
+      <c r="AR1" s="64"/>
+      <c r="AS1" s="64"/>
+      <c r="AT1" s="64"/>
+      <c r="AU1" s="64"/>
+      <c r="AV1" s="64"/>
+      <c r="AW1" s="65"/>
+      <c r="AX1" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="AY1" s="49"/>
-      <c r="AZ1" s="49"/>
-      <c r="BA1" s="49"/>
-      <c r="BB1" s="49"/>
-      <c r="BC1" s="49"/>
-      <c r="BD1" s="49"/>
-      <c r="BE1" s="49"/>
-      <c r="BF1" s="49"/>
-      <c r="BG1" s="49"/>
-      <c r="BH1" s="49"/>
-      <c r="BI1" s="49"/>
-      <c r="BJ1" s="49"/>
-      <c r="BK1" s="49"/>
-      <c r="BL1" s="49"/>
-      <c r="BM1" s="50"/>
-      <c r="BN1" s="49" t="s">
+      <c r="AY1" s="66"/>
+      <c r="AZ1" s="66"/>
+      <c r="BA1" s="66"/>
+      <c r="BB1" s="66"/>
+      <c r="BC1" s="66"/>
+      <c r="BD1" s="66"/>
+      <c r="BE1" s="66"/>
+      <c r="BF1" s="66"/>
+      <c r="BG1" s="66"/>
+      <c r="BH1" s="66"/>
+      <c r="BI1" s="66"/>
+      <c r="BJ1" s="66"/>
+      <c r="BK1" s="66"/>
+      <c r="BL1" s="66"/>
+      <c r="BM1" s="67"/>
+      <c r="BN1" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="BO1" s="49"/>
-      <c r="BP1" s="49"/>
-      <c r="BQ1" s="49"/>
-      <c r="BR1" s="49"/>
-      <c r="BS1" s="49"/>
-      <c r="BT1" s="49"/>
-      <c r="BU1" s="49"/>
-      <c r="BV1" s="49"/>
-      <c r="BW1" s="49"/>
-      <c r="BX1" s="49"/>
-      <c r="BY1" s="49"/>
-      <c r="BZ1" s="49"/>
-      <c r="CA1" s="49"/>
-      <c r="CB1" s="49"/>
-      <c r="CC1" s="50"/>
-      <c r="CD1" s="49" t="s">
+      <c r="BO1" s="66"/>
+      <c r="BP1" s="66"/>
+      <c r="BQ1" s="66"/>
+      <c r="BR1" s="66"/>
+      <c r="BS1" s="66"/>
+      <c r="BT1" s="66"/>
+      <c r="BU1" s="66"/>
+      <c r="BV1" s="66"/>
+      <c r="BW1" s="66"/>
+      <c r="BX1" s="66"/>
+      <c r="BY1" s="66"/>
+      <c r="BZ1" s="66"/>
+      <c r="CA1" s="66"/>
+      <c r="CB1" s="66"/>
+      <c r="CC1" s="67"/>
+      <c r="CD1" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="CE1" s="49"/>
-      <c r="CF1" s="49"/>
-      <c r="CG1" s="49"/>
-      <c r="CH1" s="49"/>
-      <c r="CI1" s="49"/>
-      <c r="CJ1" s="49"/>
-      <c r="CK1" s="49"/>
-      <c r="CL1" s="49"/>
-      <c r="CM1" s="49"/>
-      <c r="CN1" s="49"/>
-      <c r="CO1" s="49"/>
-      <c r="CP1" s="49"/>
-      <c r="CQ1" s="49"/>
-      <c r="CR1" s="49"/>
-      <c r="CS1" s="50"/>
+      <c r="CE1" s="66"/>
+      <c r="CF1" s="66"/>
+      <c r="CG1" s="66"/>
+      <c r="CH1" s="66"/>
+      <c r="CI1" s="66"/>
+      <c r="CJ1" s="66"/>
+      <c r="CK1" s="66"/>
+      <c r="CL1" s="66"/>
+      <c r="CM1" s="66"/>
+      <c r="CN1" s="66"/>
+      <c r="CO1" s="66"/>
+      <c r="CP1" s="66"/>
+      <c r="CQ1" s="66"/>
+      <c r="CR1" s="66"/>
+      <c r="CS1" s="67"/>
     </row>
     <row r="2" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A2" s="40"/>
@@ -52964,12 +53117,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="CD1:CS1"/>
     <mergeCell ref="B1:Q1"/>
     <mergeCell ref="R1:AG1"/>
     <mergeCell ref="AH1:AW1"/>
     <mergeCell ref="AX1:BM1"/>
     <mergeCell ref="BN1:CC1"/>
-    <mergeCell ref="CD1:CS1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -52981,8 +53134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03D66B45-AFBB-4B54-AE1B-19D8BA58799A}">
   <dimension ref="A1:CS43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="S54" sqref="S54"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -53006,114 +53159,114 @@
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="51" t="s">
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="49"/>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="49"/>
-      <c r="AD1" s="49"/>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="49"/>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="46" t="s">
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="66"/>
+      <c r="AA1" s="66"/>
+      <c r="AB1" s="66"/>
+      <c r="AC1" s="66"/>
+      <c r="AD1" s="66"/>
+      <c r="AE1" s="66"/>
+      <c r="AF1" s="66"/>
+      <c r="AG1" s="67"/>
+      <c r="AH1" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="AI1" s="47"/>
-      <c r="AJ1" s="47"/>
-      <c r="AK1" s="47"/>
-      <c r="AL1" s="47"/>
-      <c r="AM1" s="47"/>
-      <c r="AN1" s="47"/>
-      <c r="AO1" s="47"/>
-      <c r="AP1" s="47"/>
-      <c r="AQ1" s="47"/>
-      <c r="AR1" s="47"/>
-      <c r="AS1" s="47"/>
-      <c r="AT1" s="47"/>
-      <c r="AU1" s="47"/>
-      <c r="AV1" s="47"/>
-      <c r="AW1" s="48"/>
-      <c r="AX1" s="49" t="s">
+      <c r="AI1" s="64"/>
+      <c r="AJ1" s="64"/>
+      <c r="AK1" s="64"/>
+      <c r="AL1" s="64"/>
+      <c r="AM1" s="64"/>
+      <c r="AN1" s="64"/>
+      <c r="AO1" s="64"/>
+      <c r="AP1" s="64"/>
+      <c r="AQ1" s="64"/>
+      <c r="AR1" s="64"/>
+      <c r="AS1" s="64"/>
+      <c r="AT1" s="64"/>
+      <c r="AU1" s="64"/>
+      <c r="AV1" s="64"/>
+      <c r="AW1" s="65"/>
+      <c r="AX1" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="AY1" s="49"/>
-      <c r="AZ1" s="49"/>
-      <c r="BA1" s="49"/>
-      <c r="BB1" s="49"/>
-      <c r="BC1" s="49"/>
-      <c r="BD1" s="49"/>
-      <c r="BE1" s="49"/>
-      <c r="BF1" s="49"/>
-      <c r="BG1" s="49"/>
-      <c r="BH1" s="49"/>
-      <c r="BI1" s="49"/>
-      <c r="BJ1" s="49"/>
-      <c r="BK1" s="49"/>
-      <c r="BL1" s="49"/>
-      <c r="BM1" s="50"/>
-      <c r="BN1" s="49" t="s">
+      <c r="AY1" s="66"/>
+      <c r="AZ1" s="66"/>
+      <c r="BA1" s="66"/>
+      <c r="BB1" s="66"/>
+      <c r="BC1" s="66"/>
+      <c r="BD1" s="66"/>
+      <c r="BE1" s="66"/>
+      <c r="BF1" s="66"/>
+      <c r="BG1" s="66"/>
+      <c r="BH1" s="66"/>
+      <c r="BI1" s="66"/>
+      <c r="BJ1" s="66"/>
+      <c r="BK1" s="66"/>
+      <c r="BL1" s="66"/>
+      <c r="BM1" s="67"/>
+      <c r="BN1" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="BO1" s="49"/>
-      <c r="BP1" s="49"/>
-      <c r="BQ1" s="49"/>
-      <c r="BR1" s="49"/>
-      <c r="BS1" s="49"/>
-      <c r="BT1" s="49"/>
-      <c r="BU1" s="49"/>
-      <c r="BV1" s="49"/>
-      <c r="BW1" s="49"/>
-      <c r="BX1" s="49"/>
-      <c r="BY1" s="49"/>
-      <c r="BZ1" s="49"/>
-      <c r="CA1" s="49"/>
-      <c r="CB1" s="49"/>
-      <c r="CC1" s="50"/>
-      <c r="CD1" s="49" t="s">
+      <c r="BO1" s="66"/>
+      <c r="BP1" s="66"/>
+      <c r="BQ1" s="66"/>
+      <c r="BR1" s="66"/>
+      <c r="BS1" s="66"/>
+      <c r="BT1" s="66"/>
+      <c r="BU1" s="66"/>
+      <c r="BV1" s="66"/>
+      <c r="BW1" s="66"/>
+      <c r="BX1" s="66"/>
+      <c r="BY1" s="66"/>
+      <c r="BZ1" s="66"/>
+      <c r="CA1" s="66"/>
+      <c r="CB1" s="66"/>
+      <c r="CC1" s="67"/>
+      <c r="CD1" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="CE1" s="49"/>
-      <c r="CF1" s="49"/>
-      <c r="CG1" s="49"/>
-      <c r="CH1" s="49"/>
-      <c r="CI1" s="49"/>
-      <c r="CJ1" s="49"/>
-      <c r="CK1" s="49"/>
-      <c r="CL1" s="49"/>
-      <c r="CM1" s="49"/>
-      <c r="CN1" s="49"/>
-      <c r="CO1" s="49"/>
-      <c r="CP1" s="49"/>
-      <c r="CQ1" s="49"/>
-      <c r="CR1" s="49"/>
-      <c r="CS1" s="50"/>
+      <c r="CE1" s="66"/>
+      <c r="CF1" s="66"/>
+      <c r="CG1" s="66"/>
+      <c r="CH1" s="66"/>
+      <c r="CI1" s="66"/>
+      <c r="CJ1" s="66"/>
+      <c r="CK1" s="66"/>
+      <c r="CL1" s="66"/>
+      <c r="CM1" s="66"/>
+      <c r="CN1" s="66"/>
+      <c r="CO1" s="66"/>
+      <c r="CP1" s="66"/>
+      <c r="CQ1" s="66"/>
+      <c r="CR1" s="66"/>
+      <c r="CS1" s="67"/>
     </row>
     <row r="2" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A2" s="40"/>
@@ -53212,7 +53365,7 @@
       <c r="CP2" s="41"/>
       <c r="CQ2" s="41"/>
       <c r="CR2" s="41"/>
-      <c r="CS2" s="20"/>
+      <c r="CS2" s="58"/>
     </row>
     <row r="3" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -53849,52 +54002,52 @@
         <v>94.943173000000002</v>
       </c>
       <c r="CD5" s="5">
-        <v>75.497472000000002</v>
+        <v>310.37849599999998</v>
       </c>
       <c r="CE5" s="5">
-        <v>73.400319999999994</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CF5" s="5">
-        <v>70.254592000000002</v>
+        <v>299.89273600000001</v>
       </c>
       <c r="CG5" s="5">
-        <v>73.400319999999994</v>
+        <v>299.89273600000001</v>
       </c>
       <c r="CH5" s="5">
-        <v>71.303167999999999</v>
+        <v>300.94131199999998</v>
       </c>
       <c r="CI5" s="5">
-        <v>70.254592000000002</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CJ5" s="5">
-        <v>73.400319999999994</v>
+        <v>304.08704</v>
       </c>
       <c r="CK5" s="5">
-        <v>70.254592000000002</v>
+        <v>300.94131199999998</v>
       </c>
       <c r="CL5" s="5">
-        <v>71.303167999999999</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CM5" s="5">
-        <v>73.400319999999994</v>
+        <v>304.08704</v>
       </c>
       <c r="CN5" s="5">
-        <v>70.254592000000002</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CO5" s="5">
-        <v>73.400319999999994</v>
+        <v>300.94131199999998</v>
       </c>
       <c r="CP5" s="5">
-        <v>70.254592000000002</v>
+        <v>299.89273600000001</v>
       </c>
       <c r="CQ5" s="5">
-        <v>71.303167999999999</v>
+        <v>299.89273600000001</v>
       </c>
       <c r="CR5" s="5">
-        <v>73.400319999999994</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CS5" s="23">
-        <v>71.969480000000004</v>
+        <v>302.95150000000001</v>
       </c>
     </row>
     <row r="6" spans="1:97" x14ac:dyDescent="0.3">
@@ -54140,52 +54293,52 @@
         <v>95.28322</v>
       </c>
       <c r="CD6" s="5">
-        <v>76.546047999999999</v>
+        <v>314.57279999999997</v>
       </c>
       <c r="CE6" s="5">
-        <v>72.351743999999997</v>
+        <v>301.98988800000001</v>
       </c>
       <c r="CF6" s="5">
-        <v>71.303167999999999</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CG6" s="5">
-        <v>70.254592000000002</v>
+        <v>299.89273600000001</v>
       </c>
       <c r="CH6" s="5">
-        <v>73.400319999999994</v>
+        <v>299.89273600000001</v>
       </c>
       <c r="CI6" s="5">
-        <v>71.303167999999999</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CJ6" s="5">
-        <v>72.351743999999997</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CK6" s="5">
-        <v>71.303167999999999</v>
+        <v>299.89273600000001</v>
       </c>
       <c r="CL6" s="5">
-        <v>71.303167999999999</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CM6" s="5">
-        <v>72.351743999999997</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CN6" s="5">
-        <v>71.303167999999999</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CO6" s="5">
-        <v>70.254592000000002</v>
+        <v>299.89273600000001</v>
       </c>
       <c r="CP6" s="5">
-        <v>73.400319999999994</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CQ6" s="5">
-        <v>71.303167999999999</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CR6" s="5">
-        <v>72.351743999999997</v>
+        <v>299.89273600000001</v>
       </c>
       <c r="CS6" s="23">
-        <v>71.942684</v>
+        <v>303.65846499999998</v>
       </c>
     </row>
     <row r="7" spans="1:97" x14ac:dyDescent="0.3">
@@ -54431,52 +54584,52 @@
         <v>95.374667000000002</v>
       </c>
       <c r="CD7" s="5">
-        <v>76.546047999999999</v>
+        <v>327.15571199999999</v>
       </c>
       <c r="CE7" s="5">
-        <v>71.303167999999999</v>
+        <v>309.32992000000002</v>
       </c>
       <c r="CF7" s="5">
-        <v>72.351743999999997</v>
+        <v>298.84415999999999</v>
       </c>
       <c r="CG7" s="5">
-        <v>71.303167999999999</v>
+        <v>309.32992000000002</v>
       </c>
       <c r="CH7" s="5">
-        <v>71.303167999999999</v>
+        <v>297.79558400000002</v>
       </c>
       <c r="CI7" s="5">
-        <v>72.351743999999997</v>
+        <v>298.84415999999999</v>
       </c>
       <c r="CJ7" s="5">
-        <v>71.303167999999999</v>
+        <v>309.32992000000002</v>
       </c>
       <c r="CK7" s="5">
-        <v>72.351743999999997</v>
+        <v>297.79558400000002</v>
       </c>
       <c r="CL7" s="5">
-        <v>71.303167999999999</v>
+        <v>298.84415999999999</v>
       </c>
       <c r="CM7" s="5">
-        <v>71.303167999999999</v>
+        <v>297.79558400000002</v>
       </c>
       <c r="CN7" s="5">
-        <v>72.351743999999997</v>
+        <v>309.32992000000002</v>
       </c>
       <c r="CO7" s="5">
-        <v>71.303167999999999</v>
+        <v>298.84415999999999</v>
       </c>
       <c r="CP7" s="5">
-        <v>70.254592000000002</v>
+        <v>297.79558400000002</v>
       </c>
       <c r="CQ7" s="5">
-        <v>73.400319999999994</v>
+        <v>297.79558400000002</v>
       </c>
       <c r="CR7" s="5">
-        <v>71.303167999999999</v>
+        <v>310.37849599999998</v>
       </c>
       <c r="CS7" s="23">
-        <v>71.964834999999994</v>
+        <v>303.56633499999998</v>
       </c>
     </row>
     <row r="8" spans="1:97" x14ac:dyDescent="0.3">
@@ -54722,52 +54875,52 @@
         <v>71.949296000000004</v>
       </c>
       <c r="CD8" s="5">
-        <v>75.497472000000002</v>
+        <v>341.83577600000001</v>
       </c>
       <c r="CE8" s="5">
-        <v>72.351743999999997</v>
+        <v>309.32992000000002</v>
       </c>
       <c r="CF8" s="5">
-        <v>71.303167999999999</v>
+        <v>310.37849599999998</v>
       </c>
       <c r="CG8" s="5">
-        <v>71.303167999999999</v>
+        <v>309.32992000000002</v>
       </c>
       <c r="CH8" s="5">
-        <v>72.351743999999997</v>
+        <v>297.79558400000002</v>
       </c>
       <c r="CI8" s="5">
-        <v>71.303167999999999</v>
+        <v>298.84415999999999</v>
       </c>
       <c r="CJ8" s="5">
-        <v>72.351743999999997</v>
+        <v>309.32992000000002</v>
       </c>
       <c r="CK8" s="5">
-        <v>71.303167999999999</v>
+        <v>297.79558400000002</v>
       </c>
       <c r="CL8" s="5">
-        <v>73.400319999999994</v>
+        <v>298.84415999999999</v>
       </c>
       <c r="CM8" s="5">
-        <v>70.254592000000002</v>
+        <v>297.79558400000002</v>
       </c>
       <c r="CN8" s="5">
-        <v>71.303167999999999</v>
+        <v>309.32992000000002</v>
       </c>
       <c r="CO8" s="5">
-        <v>72.351743999999997</v>
+        <v>298.84415999999999</v>
       </c>
       <c r="CP8" s="5">
-        <v>71.303167999999999</v>
+        <v>309.32992000000002</v>
       </c>
       <c r="CQ8" s="5">
-        <v>71.303167999999999</v>
+        <v>297.79558400000002</v>
       </c>
       <c r="CR8" s="5">
-        <v>72.351743999999997</v>
+        <v>298.84415999999999</v>
       </c>
       <c r="CS8" s="23">
-        <v>71.909301999999997</v>
+        <v>305.54707300000001</v>
       </c>
     </row>
     <row r="9" spans="1:97" x14ac:dyDescent="0.3">
@@ -55013,52 +55166,52 @@
         <v>72.550899999999999</v>
       </c>
       <c r="CD9" s="5">
-        <v>76.546047999999999</v>
+        <v>314.57279999999997</v>
       </c>
       <c r="CE9" s="5">
-        <v>72.351743999999997</v>
+        <v>300.94131199999998</v>
       </c>
       <c r="CF9" s="5">
-        <v>71.303167999999999</v>
+        <v>304.08704</v>
       </c>
       <c r="CG9" s="5">
-        <v>70.254592000000002</v>
+        <v>300.94131199999998</v>
       </c>
       <c r="CH9" s="5">
-        <v>73.400319999999994</v>
+        <v>309.32992000000002</v>
       </c>
       <c r="CI9" s="5">
-        <v>71.303167999999999</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CJ9" s="5">
-        <v>72.351743999999997</v>
+        <v>309.32992000000002</v>
       </c>
       <c r="CK9" s="5">
-        <v>71.303167999999999</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CL9" s="5">
-        <v>71.303167999999999</v>
+        <v>299.89273600000001</v>
       </c>
       <c r="CM9" s="5">
-        <v>72.351743999999997</v>
+        <v>310.37849599999998</v>
       </c>
       <c r="CN9" s="5">
-        <v>71.303167999999999</v>
+        <v>304.08704</v>
       </c>
       <c r="CO9" s="5">
-        <v>70.254592000000002</v>
+        <v>310.37849599999998</v>
       </c>
       <c r="CP9" s="5">
-        <v>73.400319999999994</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CQ9" s="5">
-        <v>71.303167999999999</v>
+        <v>309.32992000000002</v>
       </c>
       <c r="CR9" s="5">
-        <v>72.351743999999997</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CS9" s="23">
-        <v>71.950272999999996</v>
+        <v>306.01970599999999</v>
       </c>
     </row>
     <row r="10" spans="1:97" x14ac:dyDescent="0.3">
@@ -55304,52 +55457,52 @@
         <v>71.968129000000005</v>
       </c>
       <c r="CD10" s="5">
-        <v>75.497472000000002</v>
+        <v>306.184192</v>
       </c>
       <c r="CE10" s="5">
-        <v>72.351743999999997</v>
+        <v>310.37849599999998</v>
       </c>
       <c r="CF10" s="5">
-        <v>70.254592000000002</v>
+        <v>300.94131199999998</v>
       </c>
       <c r="CG10" s="5">
-        <v>72.351743999999997</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CH10" s="5">
-        <v>71.303167999999999</v>
+        <v>304.08704</v>
       </c>
       <c r="CI10" s="5">
-        <v>72.351743999999997</v>
+        <v>310.37849599999998</v>
       </c>
       <c r="CJ10" s="5">
-        <v>72.351743999999997</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CK10" s="5">
-        <v>71.303167999999999</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CL10" s="5">
-        <v>72.351743999999997</v>
+        <v>299.89273600000001</v>
       </c>
       <c r="CM10" s="5">
-        <v>70.254592000000002</v>
+        <v>300.94131199999998</v>
       </c>
       <c r="CN10" s="5">
-        <v>73.400319999999994</v>
+        <v>304.08704</v>
       </c>
       <c r="CO10" s="5">
-        <v>71.303167999999999</v>
+        <v>300.94131199999998</v>
       </c>
       <c r="CP10" s="5">
-        <v>73.400319999999994</v>
+        <v>299.89273600000001</v>
       </c>
       <c r="CQ10" s="5">
-        <v>70.254592000000002</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CR10" s="5">
-        <v>71.303167999999999</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CS10" s="23">
-        <v>71.941490000000002</v>
+        <v>304.03158000000002</v>
       </c>
     </row>
     <row r="11" spans="1:97" x14ac:dyDescent="0.3">
@@ -55595,52 +55748,52 @@
         <v>95.039939000000004</v>
       </c>
       <c r="CD11" s="5">
-        <v>75.497472000000002</v>
+        <v>312.47564799999998</v>
       </c>
       <c r="CE11" s="5">
-        <v>72.351743999999997</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CF11" s="5">
-        <v>71.303167999999999</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CG11" s="5">
-        <v>72.351743999999997</v>
+        <v>299.89273600000001</v>
       </c>
       <c r="CH11" s="5">
-        <v>71.303167999999999</v>
+        <v>310.37849599999998</v>
       </c>
       <c r="CI11" s="5">
-        <v>71.303167999999999</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CJ11" s="5">
-        <v>71.303167999999999</v>
+        <v>304.08704</v>
       </c>
       <c r="CK11" s="5">
-        <v>72.351743999999997</v>
+        <v>300.94131199999998</v>
       </c>
       <c r="CL11" s="5">
-        <v>72.351743999999997</v>
+        <v>309.32992000000002</v>
       </c>
       <c r="CM11" s="5">
-        <v>71.303167999999999</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CN11" s="5">
-        <v>73.400319999999994</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CO11" s="5">
-        <v>70.254592000000002</v>
+        <v>309.32992000000002</v>
       </c>
       <c r="CP11" s="5">
-        <v>73.400319999999994</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CQ11" s="5">
-        <v>70.254592000000002</v>
+        <v>299.89273600000001</v>
       </c>
       <c r="CR11" s="5">
-        <v>71.303167999999999</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CS11" s="23">
-        <v>71.979980999999995</v>
+        <v>305.236312</v>
       </c>
     </row>
     <row r="12" spans="1:97" x14ac:dyDescent="0.3">
@@ -55886,52 +56039,52 @@
         <v>95.236316000000002</v>
       </c>
       <c r="CD12" s="5">
-        <v>76.546047999999999</v>
+        <v>311.42707200000001</v>
       </c>
       <c r="CE12" s="5">
-        <v>72.351743999999997</v>
+        <v>306.184192</v>
       </c>
       <c r="CF12" s="5">
-        <v>71.303167999999999</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CG12" s="5">
-        <v>70.254592000000002</v>
+        <v>309.32992000000002</v>
       </c>
       <c r="CH12" s="5">
-        <v>73.400319999999994</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CI12" s="5">
-        <v>71.303167999999999</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CJ12" s="5">
-        <v>72.351743999999997</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CK12" s="5">
-        <v>71.303167999999999</v>
+        <v>309.32992000000002</v>
       </c>
       <c r="CL12" s="5">
-        <v>71.303167999999999</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CM12" s="5">
-        <v>72.351743999999997</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CN12" s="5">
-        <v>71.303167999999999</v>
+        <v>299.89273600000001</v>
       </c>
       <c r="CO12" s="5">
-        <v>72.351743999999997</v>
+        <v>299.89273600000001</v>
       </c>
       <c r="CP12" s="5">
-        <v>71.303167999999999</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CQ12" s="5">
-        <v>71.303167999999999</v>
+        <v>310.37849599999998</v>
       </c>
       <c r="CR12" s="5">
-        <v>72.351743999999997</v>
+        <v>309.32992000000002</v>
       </c>
       <c r="CS12" s="23">
-        <v>71.954256999999998</v>
+        <v>305.80094200000002</v>
       </c>
     </row>
     <row r="13" spans="1:97" x14ac:dyDescent="0.3">
@@ -56177,52 +56330,52 @@
         <v>95.164012999999997</v>
       </c>
       <c r="CD13" s="5">
-        <v>91.226112000000001</v>
+        <v>313.524224</v>
       </c>
       <c r="CE13" s="5">
-        <v>67.108863999999997</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CF13" s="5">
-        <v>74.448896000000005</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CG13" s="5">
-        <v>68.157439999999994</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CH13" s="5">
-        <v>74.448896000000005</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CI13" s="5">
-        <v>68.157439999999994</v>
+        <v>304.08704</v>
       </c>
       <c r="CJ13" s="5">
-        <v>74.448896000000005</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CK13" s="5">
-        <v>74.448896000000005</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CL13" s="5">
-        <v>67.108863999999997</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CM13" s="5">
-        <v>75.497472000000002</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CN13" s="5">
-        <v>67.108863999999997</v>
+        <v>309.32992000000002</v>
       </c>
       <c r="CO13" s="5">
-        <v>74.448896000000005</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CP13" s="5">
-        <v>68.157439999999994</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CQ13" s="5">
-        <v>74.448896000000005</v>
+        <v>309.32992000000002</v>
       </c>
       <c r="CR13" s="5">
-        <v>74.448896000000005</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CS13" s="23">
-        <v>71.987196999999995</v>
+        <v>305.898054</v>
       </c>
     </row>
     <row r="14" spans="1:97" x14ac:dyDescent="0.3">
@@ -56468,52 +56621,52 @@
         <v>95.178883999999996</v>
       </c>
       <c r="CD14" s="5">
-        <v>76.546047999999999</v>
+        <v>311.42707200000001</v>
       </c>
       <c r="CE14" s="5">
-        <v>71.303167999999999</v>
+        <v>299.89273600000001</v>
       </c>
       <c r="CF14" s="5">
-        <v>72.351743999999997</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CG14" s="5">
-        <v>71.303167999999999</v>
+        <v>299.89273600000001</v>
       </c>
       <c r="CH14" s="5">
-        <v>73.400319999999994</v>
+        <v>300.94131199999998</v>
       </c>
       <c r="CI14" s="5">
-        <v>70.254592000000002</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CJ14" s="5">
-        <v>71.303167999999999</v>
+        <v>299.89273600000001</v>
       </c>
       <c r="CK14" s="5">
-        <v>72.351743999999997</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CL14" s="5">
-        <v>71.303167999999999</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CM14" s="5">
-        <v>71.303167999999999</v>
+        <v>299.89273600000001</v>
       </c>
       <c r="CN14" s="5">
-        <v>72.351743999999997</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CO14" s="5">
-        <v>71.303167999999999</v>
+        <v>299.89273600000001</v>
       </c>
       <c r="CP14" s="5">
-        <v>72.351743999999997</v>
+        <v>299.89273600000001</v>
       </c>
       <c r="CQ14" s="5">
-        <v>71.303167999999999</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CR14" s="5">
-        <v>71.303167999999999</v>
+        <v>300.94131199999998</v>
       </c>
       <c r="CS14" s="23">
-        <v>71.927259000000006</v>
+        <v>302.86873000000003</v>
       </c>
     </row>
     <row r="15" spans="1:97" x14ac:dyDescent="0.3">
@@ -56759,52 +56912,52 @@
         <v>95.355872000000005</v>
       </c>
       <c r="CD15" s="5">
-        <v>75.497472000000002</v>
+        <v>329.25286399999999</v>
       </c>
       <c r="CE15" s="5">
-        <v>71.303167999999999</v>
+        <v>309.32992000000002</v>
       </c>
       <c r="CF15" s="5">
-        <v>73.400319999999994</v>
+        <v>297.79558400000002</v>
       </c>
       <c r="CG15" s="5">
-        <v>70.254592000000002</v>
+        <v>309.32992000000002</v>
       </c>
       <c r="CH15" s="5">
-        <v>73.400319999999994</v>
+        <v>310.37849599999998</v>
       </c>
       <c r="CI15" s="5">
-        <v>70.254592000000002</v>
+        <v>309.32992000000002</v>
       </c>
       <c r="CJ15" s="5">
-        <v>71.303167999999999</v>
+        <v>297.79558400000002</v>
       </c>
       <c r="CK15" s="5">
-        <v>73.400319999999994</v>
+        <v>298.84415999999999</v>
       </c>
       <c r="CL15" s="5">
-        <v>70.254592000000002</v>
+        <v>309.32992000000002</v>
       </c>
       <c r="CM15" s="5">
-        <v>73.400319999999994</v>
+        <v>297.79558400000002</v>
       </c>
       <c r="CN15" s="5">
-        <v>71.303167999999999</v>
+        <v>298.84415999999999</v>
       </c>
       <c r="CO15" s="5">
-        <v>70.254592000000002</v>
+        <v>297.79558400000002</v>
       </c>
       <c r="CP15" s="5">
-        <v>73.400319999999994</v>
+        <v>309.32992000000002</v>
       </c>
       <c r="CQ15" s="5">
-        <v>70.254592000000002</v>
+        <v>298.84415999999999</v>
       </c>
       <c r="CR15" s="5">
-        <v>71.303167999999999</v>
+        <v>309.32992000000002</v>
       </c>
       <c r="CS15" s="23">
-        <v>72.016075999999998</v>
+        <v>305.01665100000002</v>
       </c>
     </row>
     <row r="16" spans="1:97" x14ac:dyDescent="0.3">
@@ -57050,52 +57203,52 @@
         <v>71.988769000000005</v>
       </c>
       <c r="CD16" s="5">
-        <v>77.594623999999996</v>
+        <v>310.37849599999998</v>
       </c>
       <c r="CE16" s="5">
-        <v>70.254592000000002</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CF16" s="5">
-        <v>71.303167999999999</v>
+        <v>299.89273600000001</v>
       </c>
       <c r="CG16" s="5">
-        <v>72.351743999999997</v>
+        <v>308.28134399999999</v>
       </c>
       <c r="CH16" s="5">
-        <v>71.303167999999999</v>
+        <v>303.03846399999998</v>
       </c>
       <c r="CI16" s="5">
-        <v>73.400319999999994</v>
+        <v>307.23276800000002</v>
       </c>
       <c r="CJ16" s="5">
-        <v>70.254592000000002</v>
+        <v>301.98988800000001</v>
       </c>
       <c r="CK16" s="5">
-        <v>71.303167999999999</v>
+        <v>303.03846399999998</v>
       </c>
       <c r="CL16" s="5">
-        <v>73.400319999999994</v>
+        <v>310.37849599999998</v>
       </c>
       <c r="CM16" s="5">
-        <v>70.254592000000002</v>
+        <v>306.184192</v>
       </c>
       <c r="CN16" s="5">
-        <v>73.400319999999994</v>
+        <v>307.23276800000002</v>
       </c>
       <c r="CO16" s="5">
-        <v>70.254592000000002</v>
+        <v>306.184192</v>
       </c>
       <c r="CP16" s="5">
-        <v>71.303167999999999</v>
+        <v>299.89273600000001</v>
       </c>
       <c r="CQ16" s="5">
-        <v>73.400319999999994</v>
+        <v>307.23276800000002</v>
       </c>
       <c r="CR16" s="5">
-        <v>71.303167999999999</v>
+        <v>306.184192</v>
       </c>
       <c r="CS16" s="23">
-        <v>71.947350999999998</v>
+        <v>305.11692599999998</v>
       </c>
     </row>
     <row r="17" spans="1:97" x14ac:dyDescent="0.3">
@@ -57341,52 +57494,52 @@
         <v>95.281216000000001</v>
       </c>
       <c r="CD17" s="5">
-        <v>92.274687999999998</v>
+        <v>312.47564799999998</v>
       </c>
       <c r="CE17" s="5">
-        <v>70.254592000000002</v>
+        <v>299.89273600000001</v>
       </c>
       <c r="CF17" s="5">
-        <v>70.254592000000002</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CG17" s="5">
-        <v>72.351743999999997</v>
+        <v>299.89273600000001</v>
       </c>
       <c r="CH17" s="5">
-        <v>73.400319999999994</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CI17" s="5">
-        <v>66.060288</v>
+        <v>299.89273600000001</v>
       </c>
       <c r="CJ17" s="5">
-        <v>72.351743999999997</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CK17" s="5">
-        <v>72.351743999999997</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CL17" s="5">
-        <v>72.351743999999997</v>
+        <v>299.89273600000001</v>
       </c>
       <c r="CM17" s="5">
-        <v>72.351743999999997</v>
+        <v>300.94131199999998</v>
       </c>
       <c r="CN17" s="5">
-        <v>71.303167999999999</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CO17" s="5">
-        <v>71.303167999999999</v>
+        <v>299.89273600000001</v>
       </c>
       <c r="CP17" s="5">
-        <v>72.351743999999997</v>
+        <v>309.32992000000002</v>
       </c>
       <c r="CQ17" s="5">
-        <v>73.400319999999994</v>
+        <v>306.184192</v>
       </c>
       <c r="CR17" s="5">
-        <v>73.400319999999994</v>
+        <v>309.32992000000002</v>
       </c>
       <c r="CS17" s="23">
-        <v>71.917590000000004</v>
+        <v>303.96305000000001</v>
       </c>
     </row>
     <row r="18" spans="1:97" x14ac:dyDescent="0.3">
@@ -57632,52 +57785,52 @@
         <v>95.221763999999993</v>
       </c>
       <c r="CD18" s="5">
-        <v>76.546047999999999</v>
+        <v>313.524224</v>
       </c>
       <c r="CE18" s="5">
-        <v>71.303167999999999</v>
+        <v>303.03846399999998</v>
       </c>
       <c r="CF18" s="5">
-        <v>72.351743999999997</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CG18" s="5">
-        <v>71.303167999999999</v>
+        <v>304.08704</v>
       </c>
       <c r="CH18" s="5">
-        <v>71.303167999999999</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CI18" s="5">
-        <v>72.351743999999997</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CJ18" s="5">
-        <v>71.303167999999999</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CK18" s="5">
-        <v>70.254592000000002</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CL18" s="5">
-        <v>73.400319999999994</v>
+        <v>299.89273600000001</v>
       </c>
       <c r="CM18" s="5">
-        <v>71.303167999999999</v>
+        <v>299.89273600000001</v>
       </c>
       <c r="CN18" s="5">
-        <v>72.351743999999997</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CO18" s="5">
-        <v>71.303167999999999</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CP18" s="5">
-        <v>71.303167999999999</v>
+        <v>299.89273600000001</v>
       </c>
       <c r="CQ18" s="5">
-        <v>72.351743999999997</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CR18" s="5">
-        <v>71.303167999999999</v>
+        <v>299.89273600000001</v>
       </c>
       <c r="CS18" s="23">
-        <v>71.939137000000002</v>
+        <v>303.93904099999997</v>
       </c>
     </row>
     <row r="19" spans="1:97" x14ac:dyDescent="0.3">
@@ -57923,52 +58076,52 @@
         <v>95.154736999999997</v>
       </c>
       <c r="CD19" s="5">
-        <v>85.983232000000001</v>
+        <v>311.42707200000001</v>
       </c>
       <c r="CE19" s="5">
-        <v>72.351743999999997</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CF19" s="5">
-        <v>73.400319999999994</v>
+        <v>299.89273600000001</v>
       </c>
       <c r="CG19" s="5">
-        <v>73.400319999999994</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CH19" s="5">
-        <v>72.351743999999997</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CI19" s="5">
-        <v>66.060288</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CJ19" s="5">
-        <v>72.351743999999997</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CK19" s="5">
-        <v>73.400319999999994</v>
+        <v>299.89273600000001</v>
       </c>
       <c r="CL19" s="5">
-        <v>73.400319999999994</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CM19" s="5">
-        <v>72.351743999999997</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CN19" s="5">
-        <v>73.400319999999994</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CO19" s="5">
-        <v>65.011712000000003</v>
+        <v>299.89273600000001</v>
       </c>
       <c r="CP19" s="5">
-        <v>73.400319999999994</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CQ19" s="5">
-        <v>73.400319999999994</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CR19" s="5">
-        <v>72.351743999999997</v>
+        <v>304.08704</v>
       </c>
       <c r="CS19" s="23">
-        <v>298.73482300000001</v>
+        <v>304.25157999999999</v>
       </c>
     </row>
     <row r="20" spans="1:97" x14ac:dyDescent="0.3">
@@ -58214,52 +58367,52 @@
         <v>96.027992999999995</v>
       </c>
       <c r="CD20" s="5">
-        <v>75.497472000000002</v>
+        <v>314.57279999999997</v>
       </c>
       <c r="CE20" s="5">
-        <v>72.351743999999997</v>
+        <v>299.89273600000001</v>
       </c>
       <c r="CF20" s="5">
-        <v>71.303167999999999</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CG20" s="5">
-        <v>70.254592000000002</v>
+        <v>299.89273600000001</v>
       </c>
       <c r="CH20" s="5">
-        <v>72.351743999999997</v>
+        <v>300.94131199999998</v>
       </c>
       <c r="CI20" s="5">
-        <v>72.351743999999997</v>
+        <v>309.32992000000002</v>
       </c>
       <c r="CJ20" s="5">
-        <v>71.303167999999999</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CK20" s="5">
-        <v>72.351743999999997</v>
+        <v>299.89273600000001</v>
       </c>
       <c r="CL20" s="5">
-        <v>71.303167999999999</v>
+        <v>300.94131199999998</v>
       </c>
       <c r="CM20" s="5">
-        <v>72.351743999999997</v>
+        <v>306.184192</v>
       </c>
       <c r="CN20" s="5">
-        <v>70.254592000000002</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CO20" s="5">
-        <v>72.351743999999997</v>
+        <v>298.84415999999999</v>
       </c>
       <c r="CP20" s="5">
-        <v>71.303167999999999</v>
+        <v>304.08704</v>
       </c>
       <c r="CQ20" s="5">
-        <v>72.351743999999997</v>
+        <v>298.84415999999999</v>
       </c>
       <c r="CR20" s="5">
-        <v>72.351743999999997</v>
+        <v>297.79558400000002</v>
       </c>
       <c r="CS20" s="23">
-        <v>298.51210099999997</v>
+        <v>303.10186199999998</v>
       </c>
     </row>
     <row r="21" spans="1:97" x14ac:dyDescent="0.3">
@@ -58505,52 +58658,52 @@
         <v>95.127115000000003</v>
       </c>
       <c r="CD21" s="5">
-        <v>75.497472000000002</v>
+        <v>314.57279999999997</v>
       </c>
       <c r="CE21" s="5">
-        <v>73.400319999999994</v>
+        <v>300.94131199999998</v>
       </c>
       <c r="CF21" s="5">
-        <v>70.254592000000002</v>
+        <v>304.08704</v>
       </c>
       <c r="CG21" s="5">
-        <v>71.303167999999999</v>
+        <v>300.94131199999998</v>
       </c>
       <c r="CH21" s="5">
-        <v>73.400319999999994</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CI21" s="5">
-        <v>70.254592000000002</v>
+        <v>299.89273600000001</v>
       </c>
       <c r="CJ21" s="5">
-        <v>73.400319999999994</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CK21" s="5">
-        <v>70.254592000000002</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CL21" s="5">
-        <v>71.303167999999999</v>
+        <v>299.89273600000001</v>
       </c>
       <c r="CM21" s="5">
-        <v>73.400319999999994</v>
+        <v>299.89273600000001</v>
       </c>
       <c r="CN21" s="5">
-        <v>70.254592000000002</v>
+        <v>300.94131199999998</v>
       </c>
       <c r="CO21" s="5">
-        <v>71.303167999999999</v>
+        <v>299.89273600000001</v>
       </c>
       <c r="CP21" s="5">
-        <v>72.351743999999997</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CQ21" s="5">
-        <v>71.303167999999999</v>
+        <v>299.89273600000001</v>
       </c>
       <c r="CR21" s="5">
-        <v>73.400319999999994</v>
+        <v>299.89273600000001</v>
       </c>
       <c r="CS21" s="23">
-        <v>299.47947399999998</v>
+        <v>302.64156000000003</v>
       </c>
     </row>
     <row r="22" spans="1:97" x14ac:dyDescent="0.3">
@@ -58796,52 +58949,52 @@
         <v>95.163122999999999</v>
       </c>
       <c r="CD22" s="5">
+        <v>309.32992000000002</v>
+      </c>
+      <c r="CE22" s="5">
+        <v>299.89273600000001</v>
+      </c>
+      <c r="CF22" s="5">
+        <v>303.03846399999998</v>
+      </c>
+      <c r="CG22" s="5">
+        <v>298.84415999999999</v>
+      </c>
+      <c r="CH22" s="5">
+        <v>298.84415999999999</v>
+      </c>
+      <c r="CI22" s="5">
+        <v>303.03846399999998</v>
+      </c>
+      <c r="CJ22" s="5">
+        <v>303.03846399999998</v>
+      </c>
+      <c r="CK22" s="5">
+        <v>303.03846399999998</v>
+      </c>
+      <c r="CL22" s="5">
+        <v>306.184192</v>
+      </c>
+      <c r="CM22" s="5">
+        <v>303.03846399999998</v>
+      </c>
+      <c r="CN22" s="5">
+        <v>306.184192</v>
+      </c>
+      <c r="CO22" s="5">
         <v>307.23276800000002</v>
       </c>
-      <c r="CE22" s="5">
-        <v>294.649856</v>
-      </c>
-      <c r="CF22" s="5">
-        <v>300.94131199999998</v>
-      </c>
-      <c r="CG22" s="5">
-        <v>295.69843200000003</v>
-      </c>
-      <c r="CH22" s="5">
-        <v>299.89273600000001</v>
-      </c>
-      <c r="CI22" s="5">
-        <v>295.69843200000003</v>
-      </c>
-      <c r="CJ22" s="5">
-        <v>299.89273600000001</v>
-      </c>
-      <c r="CK22" s="5">
-        <v>295.69843200000003</v>
-      </c>
-      <c r="CL22" s="5">
-        <v>299.89273600000001</v>
-      </c>
-      <c r="CM22" s="5">
-        <v>295.69843200000003</v>
-      </c>
-      <c r="CN22" s="5">
-        <v>300.94131199999998</v>
-      </c>
-      <c r="CO22" s="5">
-        <v>299.89273600000001</v>
-      </c>
       <c r="CP22" s="5">
-        <v>299.89273600000001</v>
+        <v>301.98988800000001</v>
       </c>
       <c r="CQ22" s="5">
-        <v>300.94131199999998</v>
+        <v>307.23276800000002</v>
       </c>
       <c r="CR22" s="5">
-        <v>295.69843200000003</v>
+        <v>303.03846399999998</v>
       </c>
       <c r="CS22" s="23">
-        <v>297.95524699999999</v>
+        <v>303.365993</v>
       </c>
     </row>
     <row r="23" spans="1:97" x14ac:dyDescent="0.3">
@@ -59087,52 +59240,52 @@
         <v>95.161984000000004</v>
       </c>
       <c r="CD23" s="5">
-        <v>307.23276800000002</v>
+        <v>319.81567999999999</v>
       </c>
       <c r="CE23" s="5">
-        <v>295.69843200000003</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CF23" s="5">
-        <v>300.94131199999998</v>
+        <v>309.32992000000002</v>
       </c>
       <c r="CG23" s="5">
-        <v>294.649856</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CH23" s="5">
-        <v>300.94131199999998</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CI23" s="5">
-        <v>299.89273600000001</v>
+        <v>304.08704</v>
       </c>
       <c r="CJ23" s="5">
-        <v>295.69843200000003</v>
+        <v>310.37849599999998</v>
       </c>
       <c r="CK23" s="5">
-        <v>299.89273600000001</v>
+        <v>309.32992000000002</v>
       </c>
       <c r="CL23" s="5">
-        <v>295.69843200000003</v>
+        <v>309.32992000000002</v>
       </c>
       <c r="CM23" s="5">
-        <v>300.94131199999998</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CN23" s="5">
-        <v>299.89273600000001</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CO23" s="5">
-        <v>295.69843200000003</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CP23" s="5">
-        <v>299.89273600000001</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CQ23" s="5">
-        <v>295.69843200000003</v>
+        <v>304.08704</v>
       </c>
       <c r="CR23" s="5">
-        <v>295.69843200000003</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CS23" s="23">
-        <v>298.58562799999999</v>
+        <v>307.122998</v>
       </c>
     </row>
     <row r="24" spans="1:97" x14ac:dyDescent="0.3">
@@ -59378,52 +59531,52 @@
         <v>95.303970000000007</v>
       </c>
       <c r="CD24" s="5">
-        <v>320.86425600000001</v>
+        <v>314.57279999999997</v>
       </c>
       <c r="CE24" s="5">
-        <v>298.84415999999999</v>
+        <v>309.32992000000002</v>
       </c>
       <c r="CF24" s="5">
-        <v>297.79558400000002</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CG24" s="5">
-        <v>297.79558400000002</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CH24" s="5">
-        <v>298.84415999999999</v>
+        <v>309.32992000000002</v>
       </c>
       <c r="CI24" s="5">
-        <v>297.79558400000002</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CJ24" s="5">
-        <v>297.79558400000002</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CK24" s="5">
-        <v>298.84415999999999</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CL24" s="5">
-        <v>297.79558400000002</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CM24" s="5">
-        <v>298.84415999999999</v>
+        <v>299.89273600000001</v>
       </c>
       <c r="CN24" s="5">
-        <v>297.79558400000002</v>
+        <v>299.89273600000001</v>
       </c>
       <c r="CO24" s="5">
-        <v>297.79558400000002</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CP24" s="5">
-        <v>298.84415999999999</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CQ24" s="5">
-        <v>297.79558400000002</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CR24" s="5">
-        <v>297.79558400000002</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CS24" s="23">
-        <v>298.39087599999999</v>
+        <v>305.40546599999999</v>
       </c>
     </row>
     <row r="25" spans="1:97" x14ac:dyDescent="0.3">
@@ -59669,52 +59822,52 @@
         <v>95.215793000000005</v>
       </c>
       <c r="CD25" s="5">
+        <v>309.32992000000002</v>
+      </c>
+      <c r="CE25" s="5">
+        <v>305.13561600000003</v>
+      </c>
+      <c r="CF25" s="5">
+        <v>305.13561600000003</v>
+      </c>
+      <c r="CG25" s="5">
+        <v>305.13561600000003</v>
+      </c>
+      <c r="CH25" s="5">
+        <v>304.08704</v>
+      </c>
+      <c r="CI25" s="5">
+        <v>305.13561600000003</v>
+      </c>
+      <c r="CJ25" s="5">
         <v>300.94131199999998</v>
-      </c>
-      <c r="CE25" s="5">
-        <v>299.89273600000001</v>
-      </c>
-      <c r="CF25" s="5">
-        <v>299.89273600000001</v>
-      </c>
-      <c r="CG25" s="5">
-        <v>295.69843200000003</v>
-      </c>
-      <c r="CH25" s="5">
-        <v>299.89273600000001</v>
-      </c>
-      <c r="CI25" s="5">
-        <v>295.69843200000003</v>
-      </c>
-      <c r="CJ25" s="5">
-        <v>295.69843200000003</v>
       </c>
       <c r="CK25" s="5">
         <v>299.89273600000001</v>
       </c>
       <c r="CL25" s="5">
-        <v>295.69843200000003</v>
+        <v>299.89273600000001</v>
       </c>
       <c r="CM25" s="5">
-        <v>300.94131199999998</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CN25" s="5">
-        <v>294.649856</v>
+        <v>299.89273600000001</v>
       </c>
       <c r="CO25" s="5">
         <v>300.94131199999998</v>
       </c>
       <c r="CP25" s="5">
-        <v>295.69843200000003</v>
+        <v>299.89273600000001</v>
       </c>
       <c r="CQ25" s="5">
         <v>299.89273600000001</v>
       </c>
       <c r="CR25" s="5">
-        <v>295.69843200000003</v>
+        <v>300.94131199999998</v>
       </c>
       <c r="CS25" s="23">
-        <v>299.00658499999997</v>
+        <v>302.68591600000002</v>
       </c>
     </row>
     <row r="26" spans="1:97" x14ac:dyDescent="0.3">
@@ -59960,52 +60113,52 @@
         <v>95.366180999999997</v>
       </c>
       <c r="CD26" s="5">
-        <v>300.94131199999998</v>
+        <v>316.66995200000002</v>
       </c>
       <c r="CE26" s="5">
-        <v>299.89273600000001</v>
+        <v>307.23276800000002</v>
       </c>
       <c r="CF26" s="5">
-        <v>299.89273600000001</v>
+        <v>313.524224</v>
       </c>
       <c r="CG26" s="5">
-        <v>300.94131199999998</v>
+        <v>307.23276800000002</v>
       </c>
       <c r="CH26" s="5">
-        <v>300.94131199999998</v>
+        <v>307.23276800000002</v>
       </c>
       <c r="CI26" s="5">
-        <v>294.649856</v>
+        <v>303.03846399999998</v>
       </c>
       <c r="CJ26" s="5">
-        <v>300.94131199999998</v>
+        <v>307.23276800000002</v>
       </c>
       <c r="CK26" s="5">
-        <v>299.89273600000001</v>
+        <v>307.23276800000002</v>
       </c>
       <c r="CL26" s="5">
-        <v>295.69843200000003</v>
+        <v>303.03846399999998</v>
       </c>
       <c r="CM26" s="5">
-        <v>299.89273600000001</v>
+        <v>307.23276800000002</v>
       </c>
       <c r="CN26" s="5">
-        <v>295.69843200000003</v>
+        <v>307.23276800000002</v>
       </c>
       <c r="CO26" s="5">
-        <v>295.69843200000003</v>
+        <v>307.23276800000002</v>
       </c>
       <c r="CP26" s="5">
-        <v>299.89273600000001</v>
+        <v>308.28134399999999</v>
       </c>
       <c r="CQ26" s="5">
-        <v>295.69843200000003</v>
+        <v>301.98988800000001</v>
       </c>
       <c r="CR26" s="5">
-        <v>300.94131199999998</v>
+        <v>307.23276800000002</v>
       </c>
       <c r="CS26" s="23">
-        <v>298.25991599999998</v>
+        <v>307.194413</v>
       </c>
     </row>
     <row r="27" spans="1:97" x14ac:dyDescent="0.3">
@@ -60251,52 +60404,52 @@
         <v>95.331603000000001</v>
       </c>
       <c r="CD27" s="5">
+        <v>313.524224</v>
+      </c>
+      <c r="CE27" s="5">
+        <v>308.28134399999999</v>
+      </c>
+      <c r="CF27" s="5">
         <v>305.13561600000003</v>
       </c>
-      <c r="CE27" s="5">
-        <v>300.94131199999998</v>
-      </c>
-      <c r="CF27" s="5">
-        <v>299.89273600000001</v>
-      </c>
       <c r="CG27" s="5">
-        <v>295.69843200000003</v>
+        <v>304.08704</v>
       </c>
       <c r="CH27" s="5">
-        <v>295.69843200000003</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CI27" s="5">
-        <v>299.89273600000001</v>
+        <v>310.37849599999998</v>
       </c>
       <c r="CJ27" s="5">
-        <v>300.94131199999998</v>
+        <v>304.08704</v>
       </c>
       <c r="CK27" s="5">
-        <v>294.649856</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CL27" s="5">
-        <v>298.84415999999999</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CM27" s="5">
-        <v>299.89273600000001</v>
+        <v>309.32992000000002</v>
       </c>
       <c r="CN27" s="5">
-        <v>295.69843200000003</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CO27" s="5">
-        <v>299.89273600000001</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CP27" s="5">
-        <v>295.69843200000003</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CQ27" s="5">
-        <v>300.94131199999998</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CR27" s="5">
-        <v>294.649856</v>
+        <v>304.08704</v>
       </c>
       <c r="CS27" s="23">
-        <v>299.21409199999999</v>
+        <v>306.28077500000001</v>
       </c>
     </row>
     <row r="28" spans="1:97" x14ac:dyDescent="0.3">
@@ -60542,52 +60695,52 @@
         <v>95.203464999999994</v>
       </c>
       <c r="CD28" s="5">
-        <v>321.91283199999998</v>
+        <v>331.35001599999998</v>
       </c>
       <c r="CE28" s="5">
-        <v>297.79558400000002</v>
+        <v>310.37849599999998</v>
       </c>
       <c r="CF28" s="5">
+        <v>309.32992000000002</v>
+      </c>
+      <c r="CG28" s="5">
+        <v>309.32992000000002</v>
+      </c>
+      <c r="CH28" s="5">
         <v>298.84415999999999</v>
       </c>
-      <c r="CG28" s="5">
-        <v>297.79558400000002</v>
-      </c>
-      <c r="CH28" s="5">
-        <v>297.79558400000002</v>
-      </c>
       <c r="CI28" s="5">
-        <v>298.84415999999999</v>
+        <v>309.32992000000002</v>
       </c>
       <c r="CJ28" s="5">
         <v>297.79558400000002</v>
       </c>
       <c r="CK28" s="5">
+        <v>310.37849599999998</v>
+      </c>
+      <c r="CL28" s="5">
         <v>297.79558400000002</v>
       </c>
-      <c r="CL28" s="5">
-        <v>298.84415999999999</v>
-      </c>
       <c r="CM28" s="5">
-        <v>297.79558400000002</v>
+        <v>309.32992000000002</v>
       </c>
       <c r="CN28" s="5">
-        <v>297.79558400000002</v>
+        <v>309.32992000000002</v>
       </c>
       <c r="CO28" s="5">
         <v>298.84415999999999</v>
       </c>
       <c r="CP28" s="5">
-        <v>286.26124800000002</v>
+        <v>309.32992000000002</v>
       </c>
       <c r="CQ28" s="5">
         <v>309.32992000000002</v>
       </c>
       <c r="CR28" s="5">
-        <v>298.84415999999999</v>
+        <v>310.37849599999998</v>
       </c>
       <c r="CS28" s="23">
-        <v>298.16490800000003</v>
+        <v>307.57104600000002</v>
       </c>
     </row>
     <row r="29" spans="1:97" x14ac:dyDescent="0.3">
@@ -60833,52 +60986,52 @@
         <v>95.052422000000007</v>
       </c>
       <c r="CD29" s="5">
+        <v>314.57279999999997</v>
+      </c>
+      <c r="CE29" s="5">
+        <v>306.184192</v>
+      </c>
+      <c r="CF29" s="5">
+        <v>309.32992000000002</v>
+      </c>
+      <c r="CG29" s="5">
+        <v>314.57279999999997</v>
+      </c>
+      <c r="CH29" s="5">
         <v>305.13561600000003</v>
       </c>
-      <c r="CE29" s="5">
-        <v>298.84415999999999</v>
-      </c>
-      <c r="CF29" s="5">
-        <v>295.69843200000003</v>
-      </c>
-      <c r="CG29" s="5">
-        <v>299.89273600000001</v>
-      </c>
-      <c r="CH29" s="5">
-        <v>295.69843200000003</v>
-      </c>
       <c r="CI29" s="5">
-        <v>299.89273600000001</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CJ29" s="5">
-        <v>295.69843200000003</v>
+        <v>304.08704</v>
       </c>
       <c r="CK29" s="5">
-        <v>299.89273600000001</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CL29" s="5">
-        <v>295.69843200000003</v>
+        <v>310.37849599999998</v>
       </c>
       <c r="CM29" s="5">
-        <v>300.94131199999998</v>
+        <v>304.08704</v>
       </c>
       <c r="CN29" s="5">
-        <v>295.69843200000003</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CO29" s="5">
-        <v>299.89273600000001</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CP29" s="5">
-        <v>295.69843200000003</v>
+        <v>309.32992000000002</v>
       </c>
       <c r="CQ29" s="5">
-        <v>299.89273600000001</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CR29" s="5">
         <v>299.89273600000001</v>
       </c>
       <c r="CS29" s="23">
-        <v>298.31923999999998</v>
+        <v>306.85073599999998</v>
       </c>
     </row>
     <row r="30" spans="1:97" x14ac:dyDescent="0.3">
@@ -61124,52 +61277,52 @@
         <v>95.675612999999998</v>
       </c>
       <c r="CD30" s="5">
-        <v>320.86425600000001</v>
+        <v>306.184192</v>
       </c>
       <c r="CE30" s="5">
-        <v>297.79558400000002</v>
+        <v>304.08704</v>
       </c>
       <c r="CF30" s="5">
-        <v>297.79558400000002</v>
+        <v>299.89273600000001</v>
       </c>
       <c r="CG30" s="5">
-        <v>298.84415999999999</v>
+        <v>299.89273600000001</v>
       </c>
       <c r="CH30" s="5">
-        <v>297.79558400000002</v>
+        <v>300.94131199999998</v>
       </c>
       <c r="CI30" s="5">
-        <v>298.84415999999999</v>
+        <v>304.08704</v>
       </c>
       <c r="CJ30" s="5">
-        <v>297.79558400000002</v>
+        <v>300.94131199999998</v>
       </c>
       <c r="CK30" s="5">
-        <v>297.79558400000002</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CL30" s="5">
-        <v>298.84415999999999</v>
+        <v>299.89273600000001</v>
       </c>
       <c r="CM30" s="5">
-        <v>297.79558400000002</v>
+        <v>299.89273600000001</v>
       </c>
       <c r="CN30" s="5">
-        <v>297.79558400000002</v>
+        <v>300.94131199999998</v>
       </c>
       <c r="CO30" s="5">
-        <v>298.84415999999999</v>
+        <v>299.89273600000001</v>
       </c>
       <c r="CP30" s="5">
-        <v>297.79558400000002</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CQ30" s="5">
-        <v>297.79558400000002</v>
+        <v>299.89273600000001</v>
       </c>
       <c r="CR30" s="5">
-        <v>298.84415999999999</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CS30" s="23">
-        <v>298.35886099999999</v>
+        <v>301.82429200000001</v>
       </c>
     </row>
     <row r="31" spans="1:97" x14ac:dyDescent="0.3">
@@ -61418,49 +61571,49 @@
         <v>305.13561600000003</v>
       </c>
       <c r="CE31" s="5">
+        <v>305.13561600000003</v>
+      </c>
+      <c r="CF31" s="5">
+        <v>305.13561600000003</v>
+      </c>
+      <c r="CG31" s="5">
+        <v>304.08704</v>
+      </c>
+      <c r="CH31" s="5">
+        <v>300.94131199999998</v>
+      </c>
+      <c r="CI31" s="5">
         <v>299.89273600000001</v>
       </c>
-      <c r="CF31" s="5">
-        <v>295.69843200000003</v>
-      </c>
-      <c r="CG31" s="5">
+      <c r="CJ31" s="5">
+        <v>299.89273600000001</v>
+      </c>
+      <c r="CK31" s="5">
         <v>300.94131199999998</v>
-      </c>
-      <c r="CH31" s="5">
-        <v>294.649856</v>
-      </c>
-      <c r="CI31" s="5">
-        <v>295.69843200000003</v>
-      </c>
-      <c r="CJ31" s="5">
-        <v>300.94131199999998</v>
-      </c>
-      <c r="CK31" s="5">
-        <v>295.69843200000003</v>
       </c>
       <c r="CL31" s="5">
         <v>299.89273600000001</v>
       </c>
       <c r="CM31" s="5">
-        <v>295.69843200000003</v>
+        <v>300.94131199999998</v>
       </c>
       <c r="CN31" s="5">
-        <v>299.89273600000001</v>
+        <v>304.08704</v>
       </c>
       <c r="CO31" s="5">
-        <v>295.69843200000003</v>
+        <v>300.94131199999998</v>
       </c>
       <c r="CP31" s="5">
         <v>299.89273600000001</v>
       </c>
       <c r="CQ31" s="5">
-        <v>295.69843200000003</v>
+        <v>299.89273600000001</v>
       </c>
       <c r="CR31" s="5">
         <v>300.94131199999998</v>
       </c>
       <c r="CS31" s="23">
-        <v>298.35261800000001</v>
+        <v>301.76717200000002</v>
       </c>
     </row>
     <row r="32" spans="1:97" x14ac:dyDescent="0.3">
@@ -61706,52 +61859,52 @@
         <v>95.597729000000001</v>
       </c>
       <c r="CD32" s="5">
-        <v>308.28134399999999</v>
+        <v>311.42707200000001</v>
       </c>
       <c r="CE32" s="5">
-        <v>295.69843200000003</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CF32" s="5">
+        <v>305.13561600000003</v>
+      </c>
+      <c r="CG32" s="5">
         <v>299.89273600000001</v>
       </c>
-      <c r="CG32" s="5">
-        <v>295.69843200000003</v>
-      </c>
       <c r="CH32" s="5">
-        <v>305.13561600000003</v>
+        <v>299.89273600000001</v>
       </c>
       <c r="CI32" s="5">
-        <v>295.69843200000003</v>
+        <v>300.94131199999998</v>
       </c>
       <c r="CJ32" s="5">
-        <v>295.69843200000003</v>
+        <v>299.89273600000001</v>
       </c>
       <c r="CK32" s="5">
         <v>299.89273600000001</v>
       </c>
       <c r="CL32" s="5">
-        <v>295.69843200000003</v>
+        <v>300.94131199999998</v>
       </c>
       <c r="CM32" s="5">
-        <v>295.69843200000003</v>
+        <v>299.89273600000001</v>
       </c>
       <c r="CN32" s="5">
+        <v>300.94131199999998</v>
+      </c>
+      <c r="CO32" s="5">
         <v>299.89273600000001</v>
-      </c>
-      <c r="CO32" s="5">
-        <v>295.69843200000003</v>
       </c>
       <c r="CP32" s="5">
         <v>299.89273600000001</v>
       </c>
       <c r="CQ32" s="5">
-        <v>295.69843200000003</v>
+        <v>300.94131199999998</v>
       </c>
       <c r="CR32" s="5">
-        <v>300.94131199999998</v>
+        <v>299.89273600000001</v>
       </c>
       <c r="CS32" s="23">
-        <v>72.524809000000005</v>
+        <v>301.61774100000002</v>
       </c>
     </row>
     <row r="33" spans="1:97" x14ac:dyDescent="0.3">
@@ -61997,10 +62150,10 @@
         <v>96.544933999999998</v>
       </c>
       <c r="CD33" s="5">
+        <v>307.23276800000002</v>
+      </c>
+      <c r="CE33" s="5">
         <v>301.98988800000001</v>
-      </c>
-      <c r="CE33" s="5">
-        <v>298.84415999999999</v>
       </c>
       <c r="CF33" s="5">
         <v>299.89273600000001</v>
@@ -62012,37 +62165,37 @@
         <v>299.89273600000001</v>
       </c>
       <c r="CI33" s="5">
-        <v>295.69843200000003</v>
+        <v>299.89273600000001</v>
       </c>
       <c r="CJ33" s="5">
-        <v>295.69843200000003</v>
+        <v>305.13561600000003</v>
       </c>
       <c r="CK33" s="5">
+        <v>305.13561600000003</v>
+      </c>
+      <c r="CL33" s="5">
+        <v>305.13561600000003</v>
+      </c>
+      <c r="CM33" s="5">
+        <v>305.13561600000003</v>
+      </c>
+      <c r="CN33" s="5">
+        <v>309.32992000000002</v>
+      </c>
+      <c r="CO33" s="5">
+        <v>305.13561600000003</v>
+      </c>
+      <c r="CP33" s="5">
         <v>299.89273600000001</v>
       </c>
-      <c r="CL33" s="5">
-        <v>295.69843200000003</v>
-      </c>
-      <c r="CM33" s="5">
-        <v>301.98988800000001</v>
-      </c>
-      <c r="CN33" s="5">
+      <c r="CQ33" s="5">
+        <v>305.13561600000003</v>
+      </c>
+      <c r="CR33" s="5">
         <v>299.89273600000001</v>
       </c>
-      <c r="CO33" s="5">
-        <v>295.69843200000003</v>
-      </c>
-      <c r="CP33" s="5">
-        <v>295.69843200000003</v>
-      </c>
-      <c r="CQ33" s="5">
-        <v>299.89273600000001</v>
-      </c>
-      <c r="CR33" s="5">
-        <v>295.69843200000003</v>
-      </c>
       <c r="CS33" s="23">
-        <v>72.593100000000007</v>
+        <v>303.30316099999999</v>
       </c>
     </row>
     <row r="34" spans="1:97" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -62287,53 +62440,53 @@
       <c r="CC34" s="24">
         <v>96.349615</v>
       </c>
-      <c r="CD34" s="7">
+      <c r="CD34" s="25">
+        <v>310.37849599999998</v>
+      </c>
+      <c r="CE34" s="7">
+        <v>306.184192</v>
+      </c>
+      <c r="CF34" s="7">
+        <v>310.37849599999998</v>
+      </c>
+      <c r="CG34" s="7">
+        <v>306.184192</v>
+      </c>
+      <c r="CH34" s="7">
         <v>303.03846399999998</v>
       </c>
-      <c r="CE34" s="7">
-        <v>297.79558400000002</v>
-      </c>
-      <c r="CF34" s="7">
-        <v>300.94131199999998</v>
-      </c>
-      <c r="CG34" s="7">
-        <v>294.649856</v>
-      </c>
-      <c r="CH34" s="7">
-        <v>295.69843200000003</v>
-      </c>
       <c r="CI34" s="7">
-        <v>300.94131199999998</v>
+        <v>303.03846399999998</v>
       </c>
       <c r="CJ34" s="7">
-        <v>295.69843200000003</v>
+        <v>306.184192</v>
       </c>
       <c r="CK34" s="7">
+        <v>306.184192</v>
+      </c>
+      <c r="CL34" s="7">
+        <v>307.23276800000002</v>
+      </c>
+      <c r="CM34" s="7">
+        <v>306.184192</v>
+      </c>
+      <c r="CN34" s="7">
+        <v>303.03846399999998</v>
+      </c>
+      <c r="CO34" s="7">
+        <v>310.37849599999998</v>
+      </c>
+      <c r="CP34" s="7">
+        <v>301.98988800000001</v>
+      </c>
+      <c r="CQ34" s="7">
         <v>299.89273600000001</v>
       </c>
-      <c r="CL34" s="7">
-        <v>295.69843200000003</v>
-      </c>
-      <c r="CM34" s="7">
-        <v>299.89273600000001</v>
-      </c>
-      <c r="CN34" s="7">
-        <v>295.69843200000003</v>
-      </c>
-      <c r="CO34" s="7">
-        <v>299.89273600000001</v>
-      </c>
-      <c r="CP34" s="7">
-        <v>300.94131199999998</v>
-      </c>
-      <c r="CQ34" s="7">
-        <v>295.69843200000003</v>
-      </c>
       <c r="CR34" s="7">
-        <v>300.94131199999998</v>
+        <v>303.03846399999998</v>
       </c>
       <c r="CS34" s="24">
-        <v>72.538848000000002</v>
+        <v>305.41420900000003</v>
       </c>
     </row>
     <row r="35" spans="1:97" x14ac:dyDescent="0.3">
@@ -62662,67 +62815,67 @@
       </c>
       <c r="CD35" s="5">
         <f t="shared" si="1"/>
-        <v>178.11810986666666</v>
+        <v>314.64270506666657</v>
       </c>
       <c r="CE35" s="5">
         <f t="shared" si="1"/>
-        <v>169.83435946666668</v>
+        <v>305.03075840000008</v>
       </c>
       <c r="CF35" s="5">
         <f t="shared" si="1"/>
-        <v>170.21883733333331</v>
+        <v>304.57637546666666</v>
       </c>
       <c r="CG35" s="5">
         <f t="shared" si="1"/>
-        <v>169.37997653333335</v>
+        <v>304.22685013333336</v>
       </c>
       <c r="CH35" s="5">
         <f t="shared" si="1"/>
-        <v>170.53341013333335</v>
+        <v>303.49284693333328</v>
       </c>
       <c r="CI35" s="5">
         <f t="shared" si="1"/>
-        <v>168.99549866666669</v>
+        <v>304.40161280000001</v>
       </c>
       <c r="CJ35" s="5">
         <f t="shared" si="1"/>
-        <v>169.86931200000001</v>
+        <v>304.22685013333336</v>
       </c>
       <c r="CK35" s="5">
         <f t="shared" si="1"/>
-        <v>170.04407466666663</v>
+        <v>303.56275200000005</v>
       </c>
       <c r="CL35" s="5">
         <f t="shared" si="1"/>
-        <v>169.4149290666667</v>
+        <v>303.59770453333329</v>
       </c>
       <c r="CM35" s="5">
         <f t="shared" si="1"/>
-        <v>170.39359999999999</v>
+        <v>303.42294186666663</v>
       </c>
       <c r="CN35" s="5">
         <f t="shared" si="1"/>
-        <v>169.58969173333335</v>
+        <v>304.68123306666655</v>
       </c>
       <c r="CO35" s="5">
         <f t="shared" si="1"/>
-        <v>169.4498816</v>
+        <v>302.75884373333332</v>
       </c>
       <c r="CP35" s="5">
         <f t="shared" si="1"/>
-        <v>169.62464426666668</v>
+        <v>303.87732479999994</v>
       </c>
       <c r="CQ35" s="5">
         <f t="shared" si="1"/>
-        <v>170.25378986666664</v>
+        <v>303.49284693333328</v>
       </c>
       <c r="CR35" s="5">
         <f t="shared" si="1"/>
-        <v>170.14893226666669</v>
+        <v>303.8773248</v>
       </c>
       <c r="CS35" s="23">
         <f t="shared" si="1"/>
-        <v>170.21126793333332</v>
+        <v>304.46710950000005</v>
       </c>
     </row>
     <row r="36" spans="1:97" x14ac:dyDescent="0.3">
@@ -63150,67 +63303,67 @@
       </c>
       <c r="CD37" s="5">
         <f t="shared" si="3"/>
-        <v>116.02104801208876</v>
+        <v>8.0374580219420384</v>
       </c>
       <c r="CE37" s="5">
         <f t="shared" si="3"/>
-        <v>114.18226903607521</v>
+        <v>3.2854483787202353</v>
       </c>
       <c r="CF37" s="5">
         <f t="shared" si="3"/>
-        <v>114.62729480022182</v>
+        <v>3.8229122412291709</v>
       </c>
       <c r="CG37" s="5">
         <f t="shared" si="3"/>
-        <v>114.08767868928173</v>
+        <v>4.0819143160344362</v>
       </c>
       <c r="CH37" s="5">
         <f t="shared" si="3"/>
-        <v>113.99716728955352</v>
+        <v>3.6290669889665277</v>
       </c>
       <c r="CI37" s="5">
         <f t="shared" si="3"/>
-        <v>114.43355342323449</v>
+        <v>3.3176031311744318</v>
       </c>
       <c r="CJ37" s="5">
         <f t="shared" si="3"/>
-        <v>113.72062230533736</v>
+        <v>3.2434433932975901</v>
       </c>
       <c r="CK37" s="5">
         <f t="shared" si="3"/>
-        <v>114.20936108173223</v>
+        <v>3.4255573359607099</v>
       </c>
       <c r="CL37" s="5">
         <f t="shared" si="3"/>
-        <v>113.69417523571124</v>
+        <v>3.8721828397884663</v>
       </c>
       <c r="CM37" s="5">
         <f t="shared" si="3"/>
-        <v>114.33201382890715</v>
+        <v>3.5637047021389354</v>
       </c>
       <c r="CN37" s="5">
         <f t="shared" si="3"/>
-        <v>114.0438698359287</v>
+        <v>3.0748229530177742</v>
       </c>
       <c r="CO37" s="5">
         <f t="shared" si="3"/>
-        <v>114.38600455990745</v>
+        <v>3.7850376655027409</v>
       </c>
       <c r="CP37" s="5">
         <f t="shared" si="3"/>
-        <v>113.6724972774886</v>
+        <v>3.5840380784735801</v>
       </c>
       <c r="CQ37" s="5">
         <f t="shared" si="3"/>
-        <v>114.40154337584632</v>
+        <v>3.7925428699444255</v>
       </c>
       <c r="CR37" s="5">
         <f t="shared" si="3"/>
-        <v>113.90382125176784</v>
+        <v>3.6573388774908424</v>
       </c>
       <c r="CS37" s="23">
         <f t="shared" si="3"/>
-        <v>114.16064373114658</v>
+        <v>1.7020288166928716</v>
       </c>
     </row>
     <row r="38" spans="1:97" x14ac:dyDescent="0.3">
@@ -63638,67 +63791,67 @@
       </c>
       <c r="CD39" s="7">
         <f t="shared" si="5"/>
-        <v>41.516835930231252</v>
+        <v>2.8761145646462354</v>
       </c>
       <c r="CE39" s="7">
         <f t="shared" si="5"/>
-        <v>40.858849415136518</v>
+        <v>1.1756609997382543</v>
       </c>
       <c r="CF39" s="7">
         <f t="shared" si="5"/>
-        <v>41.018096913339392</v>
+        <v>1.3679864387903726</v>
       </c>
       <c r="CG39" s="7">
         <f t="shared" si="5"/>
-        <v>40.825001316229503</v>
+        <v>1.4606674378808073</v>
       </c>
       <c r="CH39" s="7">
         <f t="shared" si="5"/>
-        <v>40.792612822962838</v>
+        <v>1.2986210807632332</v>
       </c>
       <c r="CI39" s="7">
         <f t="shared" si="5"/>
-        <v>40.948768725919109</v>
+        <v>1.1871672186949991</v>
       </c>
       <c r="CJ39" s="7">
         <f t="shared" si="5"/>
-        <v>40.693654289716051</v>
+        <v>1.1606299849532302</v>
       </c>
       <c r="CK39" s="7">
         <f t="shared" si="5"/>
-        <v>40.868544001022691</v>
+        <v>1.2257974248936494</v>
       </c>
       <c r="CL39" s="7">
         <f t="shared" si="5"/>
-        <v>40.684190501297344</v>
+        <v>1.3856173720703187</v>
       </c>
       <c r="CM39" s="7">
         <f t="shared" si="5"/>
-        <v>40.912433916413924</v>
+        <v>1.2752319166008557</v>
       </c>
       <c r="CN39" s="7">
         <f t="shared" si="5"/>
-        <v>40.809324807457067</v>
+        <v>1.100291044101299</v>
       </c>
       <c r="CO39" s="7">
         <f t="shared" si="5"/>
-        <v>40.931753896358082</v>
+        <v>1.3544334449732724</v>
       </c>
       <c r="CP39" s="7">
         <f t="shared" si="5"/>
-        <v>40.676433286117408</v>
+        <v>1.2825079881728441</v>
       </c>
       <c r="CQ39" s="7">
         <f t="shared" si="5"/>
-        <v>40.937314288053699</v>
+        <v>1.3571190985401649</v>
       </c>
       <c r="CR39" s="7">
         <f t="shared" si="5"/>
-        <v>40.759209986133762</v>
+        <v>1.3087378602391389</v>
       </c>
       <c r="CS39" s="24">
         <f t="shared" si="5"/>
-        <v>40.85111104134964</v>
+        <v>0.60905199825294565</v>
       </c>
     </row>
     <row r="40" spans="1:97" x14ac:dyDescent="0.3">
@@ -63798,67 +63951,67 @@
       </c>
       <c r="B43" s="28">
         <f>AVERAGE(B35,R35,AH35,AX35,BN35,CD35)</f>
-        <v>160.11510471111112</v>
+        <v>182.86920391111107</v>
       </c>
       <c r="C43" s="28">
         <f>AVERAGE(C35,S35,AI35,AY35,BO35,CE35)</f>
-        <v>153.4823992888889</v>
+        <v>176.01513244444445</v>
       </c>
       <c r="D43" s="28">
         <f t="shared" ref="D43:Q43" si="6">AVERAGE(D35,T35,AJ35,AZ35,BP35,CF35)</f>
-        <v>157.24562204444445</v>
+        <v>179.63854506666667</v>
       </c>
       <c r="E43" s="28">
         <f t="shared" si="6"/>
-        <v>156.93104924444444</v>
+        <v>179.4055281777778</v>
       </c>
       <c r="F43" s="28">
         <f t="shared" si="6"/>
-        <v>157.22232035555555</v>
+        <v>179.38222648888885</v>
       </c>
       <c r="G43" s="28">
         <f t="shared" si="6"/>
-        <v>156.56987306666667</v>
+        <v>179.13755875555557</v>
       </c>
       <c r="H43" s="28">
         <f t="shared" si="6"/>
-        <v>157.12911360000001</v>
+        <v>179.52203662222223</v>
       </c>
       <c r="I43" s="28">
         <f t="shared" si="6"/>
-        <v>157.18154239999998</v>
+        <v>179.43465528888888</v>
       </c>
       <c r="J43" s="28">
         <f t="shared" si="6"/>
-        <v>156.87279502222222</v>
+        <v>179.23659093333333</v>
       </c>
       <c r="K43" s="28">
         <f t="shared" si="6"/>
-        <v>156.9951288888889</v>
+        <v>179.16668586666665</v>
       </c>
       <c r="L43" s="28">
         <f t="shared" si="6"/>
-        <v>157.12328817777777</v>
+        <v>179.63854506666667</v>
       </c>
       <c r="M43" s="28">
         <f t="shared" si="6"/>
-        <v>156.89609671111111</v>
+        <v>179.11425706666668</v>
       </c>
       <c r="N43" s="28">
         <f t="shared" si="6"/>
-        <v>157.15241528888888</v>
+        <v>179.52786204444442</v>
       </c>
       <c r="O43" s="28">
         <f t="shared" si="6"/>
-        <v>157.18154239999998</v>
+        <v>179.38805191111109</v>
       </c>
       <c r="P43" s="28">
         <f t="shared" si="6"/>
-        <v>156.95435093333333</v>
+        <v>179.24241635555555</v>
       </c>
       <c r="Q43" s="24">
         <f t="shared" si="6"/>
-        <v>156.86438452777779</v>
+        <v>179.24035812222223</v>
       </c>
       <c r="R43" s="31"/>
       <c r="S43" s="13"/>
@@ -63938,14 +64091,2015 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="CD1:CS1"/>
     <mergeCell ref="B1:Q1"/>
     <mergeCell ref="R1:AG1"/>
     <mergeCell ref="AH1:AW1"/>
     <mergeCell ref="AX1:BM1"/>
     <mergeCell ref="BN1:CC1"/>
-    <mergeCell ref="CD1:CS1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3F1448B-9046-4895-AF26-0705232310C8}">
+  <dimension ref="A1:P52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="69" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="71"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="71"/>
+    </row>
+    <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="44"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="3"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="3"/>
+    </row>
+    <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="13"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" s="49" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="50"/>
+      <c r="B4" s="51">
+        <v>75</v>
+      </c>
+      <c r="C4" s="29">
+        <v>52</v>
+      </c>
+      <c r="D4" s="43">
+        <v>136</v>
+      </c>
+      <c r="E4" s="51">
+        <v>61</v>
+      </c>
+      <c r="F4" s="29">
+        <v>75</v>
+      </c>
+      <c r="G4" s="29">
+        <v>23</v>
+      </c>
+      <c r="I4" s="35"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="52">
+        <v>310</v>
+      </c>
+      <c r="L4" s="42">
+        <v>153</v>
+      </c>
+      <c r="M4" s="42">
+        <v>135</v>
+      </c>
+      <c r="N4" s="42">
+        <v>135</v>
+      </c>
+      <c r="O4" s="42">
+        <v>0</v>
+      </c>
+      <c r="P4" s="42">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="50"/>
+      <c r="B5" s="52">
+        <v>77</v>
+      </c>
+      <c r="C5" s="42">
+        <v>52</v>
+      </c>
+      <c r="D5" s="42">
+        <v>136</v>
+      </c>
+      <c r="E5" s="42">
+        <v>61</v>
+      </c>
+      <c r="F5" s="42">
+        <v>75</v>
+      </c>
+      <c r="G5" s="42">
+        <v>25</v>
+      </c>
+      <c r="I5" s="35"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="52">
+        <v>310</v>
+      </c>
+      <c r="L5" s="42">
+        <v>153</v>
+      </c>
+      <c r="M5" s="42">
+        <v>135</v>
+      </c>
+      <c r="N5" s="42">
+        <v>135</v>
+      </c>
+      <c r="O5" s="42">
+        <v>0</v>
+      </c>
+      <c r="P5" s="42">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="50"/>
+      <c r="B6" s="52">
+        <v>77</v>
+      </c>
+      <c r="C6" s="42">
+        <v>52</v>
+      </c>
+      <c r="D6" s="42">
+        <v>70</v>
+      </c>
+      <c r="E6" s="42">
+        <v>61</v>
+      </c>
+      <c r="F6" s="42">
+        <v>9</v>
+      </c>
+      <c r="G6" s="42">
+        <v>25</v>
+      </c>
+      <c r="I6" s="35"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="52">
+        <v>310</v>
+      </c>
+      <c r="L6" s="42">
+        <v>153</v>
+      </c>
+      <c r="M6" s="42">
+        <v>135</v>
+      </c>
+      <c r="N6" s="42">
+        <v>135</v>
+      </c>
+      <c r="O6" s="42">
+        <v>0</v>
+      </c>
+      <c r="P6" s="42">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="50"/>
+      <c r="B7" s="52">
+        <v>21</v>
+      </c>
+      <c r="C7" s="42">
+        <v>10</v>
+      </c>
+      <c r="D7" s="42">
+        <v>30</v>
+      </c>
+      <c r="E7" s="42">
+        <v>21</v>
+      </c>
+      <c r="F7" s="42">
+        <v>9</v>
+      </c>
+      <c r="G7" s="42">
+        <v>11</v>
+      </c>
+      <c r="I7" s="35"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="52">
+        <v>90</v>
+      </c>
+      <c r="L7" s="42">
+        <v>68</v>
+      </c>
+      <c r="M7" s="42">
+        <v>218</v>
+      </c>
+      <c r="N7" s="42">
+        <v>26</v>
+      </c>
+      <c r="O7" s="42">
+        <v>192</v>
+      </c>
+      <c r="P7" s="42">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="20"/>
+      <c r="B8" s="52">
+        <v>25</v>
+      </c>
+      <c r="C8" s="42">
+        <v>14</v>
+      </c>
+      <c r="D8" s="42">
+        <v>30</v>
+      </c>
+      <c r="E8" s="42">
+        <v>21</v>
+      </c>
+      <c r="F8" s="42">
+        <v>9</v>
+      </c>
+      <c r="G8" s="42">
+        <v>11</v>
+      </c>
+      <c r="I8" s="35"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="52">
+        <v>63</v>
+      </c>
+      <c r="L8" s="42">
+        <v>102</v>
+      </c>
+      <c r="M8" s="42">
+        <v>127</v>
+      </c>
+      <c r="N8" s="42">
+        <v>55</v>
+      </c>
+      <c r="O8" s="42">
+        <v>64</v>
+      </c>
+      <c r="P8" s="42">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="20"/>
+      <c r="B9" s="52">
+        <v>36</v>
+      </c>
+      <c r="C9" s="42">
+        <v>16</v>
+      </c>
+      <c r="D9" s="42">
+        <v>52</v>
+      </c>
+      <c r="E9" s="42">
+        <v>21</v>
+      </c>
+      <c r="F9" s="42">
+        <v>31</v>
+      </c>
+      <c r="G9" s="42">
+        <v>20</v>
+      </c>
+      <c r="I9" s="35"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="52">
+        <v>63</v>
+      </c>
+      <c r="L9" s="42">
+        <v>87</v>
+      </c>
+      <c r="M9" s="42">
+        <v>73</v>
+      </c>
+      <c r="N9" s="42">
+        <v>40</v>
+      </c>
+      <c r="O9" s="42">
+        <v>86</v>
+      </c>
+      <c r="P9" s="42">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="20"/>
+      <c r="B10" s="52">
+        <v>66</v>
+      </c>
+      <c r="C10" s="42">
+        <v>39</v>
+      </c>
+      <c r="D10" s="42">
+        <v>70</v>
+      </c>
+      <c r="E10" s="42">
+        <v>29</v>
+      </c>
+      <c r="F10" s="42">
+        <v>41</v>
+      </c>
+      <c r="G10" s="42">
+        <v>27</v>
+      </c>
+      <c r="I10" s="35"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="52">
+        <v>63</v>
+      </c>
+      <c r="L10" s="42">
+        <v>76</v>
+      </c>
+      <c r="M10" s="42">
+        <v>73</v>
+      </c>
+      <c r="N10" s="42">
+        <v>40</v>
+      </c>
+      <c r="O10" s="42">
+        <v>86</v>
+      </c>
+      <c r="P10" s="42">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="20"/>
+      <c r="B11" s="52">
+        <v>75</v>
+      </c>
+      <c r="C11" s="42">
+        <v>48</v>
+      </c>
+      <c r="D11" s="42">
+        <v>79</v>
+      </c>
+      <c r="E11" s="42">
+        <v>29</v>
+      </c>
+      <c r="F11" s="42">
+        <v>50</v>
+      </c>
+      <c r="G11" s="42">
+        <v>27</v>
+      </c>
+      <c r="I11" s="35"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="52">
+        <v>63</v>
+      </c>
+      <c r="L11" s="42">
+        <v>79</v>
+      </c>
+      <c r="M11" s="42">
+        <v>73</v>
+      </c>
+      <c r="N11" s="42">
+        <v>43</v>
+      </c>
+      <c r="O11" s="42">
+        <v>101</v>
+      </c>
+      <c r="P11" s="42">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="20"/>
+      <c r="B12" s="52">
+        <v>82</v>
+      </c>
+      <c r="C12" s="42">
+        <v>51</v>
+      </c>
+      <c r="D12" s="42">
+        <v>100</v>
+      </c>
+      <c r="E12" s="42">
+        <v>34</v>
+      </c>
+      <c r="F12" s="42">
+        <v>66</v>
+      </c>
+      <c r="G12" s="42">
+        <v>31</v>
+      </c>
+      <c r="I12" s="35"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="52">
+        <v>41</v>
+      </c>
+      <c r="L12" s="42">
+        <v>68</v>
+      </c>
+      <c r="M12" s="42">
+        <v>52</v>
+      </c>
+      <c r="N12" s="42">
+        <v>43</v>
+      </c>
+      <c r="O12" s="42">
+        <v>80</v>
+      </c>
+      <c r="P12" s="42">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="20"/>
+      <c r="B13" s="52">
+        <v>103</v>
+      </c>
+      <c r="C13" s="42">
+        <v>67</v>
+      </c>
+      <c r="D13" s="42">
+        <v>114</v>
+      </c>
+      <c r="E13" s="42">
+        <v>41</v>
+      </c>
+      <c r="F13" s="42">
+        <v>73</v>
+      </c>
+      <c r="G13" s="42">
+        <v>36</v>
+      </c>
+      <c r="I13" s="35"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="52">
+        <v>41</v>
+      </c>
+      <c r="L13" s="42">
+        <v>68</v>
+      </c>
+      <c r="M13" s="42">
+        <v>52</v>
+      </c>
+      <c r="N13" s="42">
+        <v>43</v>
+      </c>
+      <c r="O13" s="42">
+        <v>80</v>
+      </c>
+      <c r="P13" s="42">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="20"/>
+      <c r="B14" s="52">
+        <v>118</v>
+      </c>
+      <c r="C14" s="42">
+        <v>77</v>
+      </c>
+      <c r="D14" s="42">
+        <v>114</v>
+      </c>
+      <c r="E14" s="42">
+        <v>41</v>
+      </c>
+      <c r="F14" s="42">
+        <v>73</v>
+      </c>
+      <c r="G14" s="42">
+        <v>41</v>
+      </c>
+      <c r="I14" s="35"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="52">
+        <v>69</v>
+      </c>
+      <c r="L14" s="42">
+        <v>89</v>
+      </c>
+      <c r="M14" s="42">
+        <v>61</v>
+      </c>
+      <c r="N14" s="42">
+        <v>50</v>
+      </c>
+      <c r="O14" s="42">
+        <v>99</v>
+      </c>
+      <c r="P14" s="42">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="20"/>
+      <c r="B15" s="52">
+        <v>130</v>
+      </c>
+      <c r="C15" s="42">
+        <v>77</v>
+      </c>
+      <c r="D15" s="42">
+        <v>125</v>
+      </c>
+      <c r="E15" s="42">
+        <v>52</v>
+      </c>
+      <c r="F15" s="42">
+        <v>73</v>
+      </c>
+      <c r="G15" s="42">
+        <v>53</v>
+      </c>
+      <c r="I15" s="35"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="52">
+        <v>69</v>
+      </c>
+      <c r="L15" s="42">
+        <v>89</v>
+      </c>
+      <c r="M15" s="42">
+        <v>61</v>
+      </c>
+      <c r="N15" s="42">
+        <v>50</v>
+      </c>
+      <c r="O15" s="42">
+        <v>99</v>
+      </c>
+      <c r="P15" s="42">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="20"/>
+      <c r="B16" s="52">
+        <v>130</v>
+      </c>
+      <c r="C16" s="42">
+        <v>77</v>
+      </c>
+      <c r="D16" s="42">
+        <v>125</v>
+      </c>
+      <c r="E16" s="42">
+        <v>52</v>
+      </c>
+      <c r="F16" s="42">
+        <v>73</v>
+      </c>
+      <c r="G16" s="42">
+        <v>53</v>
+      </c>
+      <c r="I16" s="35"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="52">
+        <v>69</v>
+      </c>
+      <c r="L16" s="42">
+        <v>89</v>
+      </c>
+      <c r="M16" s="42">
+        <v>61</v>
+      </c>
+      <c r="N16" s="42">
+        <v>50</v>
+      </c>
+      <c r="O16" s="42">
+        <v>85</v>
+      </c>
+      <c r="P16" s="42">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="20"/>
+      <c r="B17" s="52">
+        <v>137</v>
+      </c>
+      <c r="C17" s="42">
+        <v>84</v>
+      </c>
+      <c r="D17" s="42">
+        <v>148</v>
+      </c>
+      <c r="E17" s="42">
+        <v>62</v>
+      </c>
+      <c r="F17" s="42">
+        <v>86</v>
+      </c>
+      <c r="G17" s="42">
+        <v>53</v>
+      </c>
+      <c r="I17" s="35"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="52">
+        <v>69</v>
+      </c>
+      <c r="L17" s="42">
+        <v>89</v>
+      </c>
+      <c r="M17" s="42">
+        <v>66</v>
+      </c>
+      <c r="N17" s="42">
+        <v>50</v>
+      </c>
+      <c r="O17" s="42">
+        <v>85</v>
+      </c>
+      <c r="P17" s="42">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="20"/>
+      <c r="B18" s="52">
+        <v>137</v>
+      </c>
+      <c r="C18" s="42">
+        <v>84</v>
+      </c>
+      <c r="D18" s="42">
+        <v>148</v>
+      </c>
+      <c r="E18" s="42">
+        <v>62</v>
+      </c>
+      <c r="F18" s="42">
+        <v>86</v>
+      </c>
+      <c r="G18" s="42">
+        <v>53</v>
+      </c>
+      <c r="I18" s="35"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="52">
+        <v>82</v>
+      </c>
+      <c r="L18" s="42">
+        <v>75</v>
+      </c>
+      <c r="M18" s="42">
+        <v>61</v>
+      </c>
+      <c r="N18" s="42">
+        <v>50</v>
+      </c>
+      <c r="O18" s="42">
+        <v>85</v>
+      </c>
+      <c r="P18" s="42">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="20"/>
+      <c r="B19" s="52">
+        <v>142</v>
+      </c>
+      <c r="C19" s="42">
+        <v>89</v>
+      </c>
+      <c r="D19" s="42">
+        <v>148</v>
+      </c>
+      <c r="E19" s="42">
+        <v>62</v>
+      </c>
+      <c r="F19" s="42">
+        <v>86</v>
+      </c>
+      <c r="G19" s="42">
+        <v>53</v>
+      </c>
+      <c r="I19" s="35"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="52">
+        <v>82</v>
+      </c>
+      <c r="L19" s="42">
+        <v>75</v>
+      </c>
+      <c r="M19" s="42">
+        <v>61</v>
+      </c>
+      <c r="N19" s="42">
+        <v>50</v>
+      </c>
+      <c r="O19" s="42">
+        <v>85</v>
+      </c>
+      <c r="P19" s="42">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="20"/>
+      <c r="B20" s="52">
+        <v>142</v>
+      </c>
+      <c r="C20" s="42">
+        <v>89</v>
+      </c>
+      <c r="D20" s="42">
+        <v>148</v>
+      </c>
+      <c r="E20" s="42">
+        <v>62</v>
+      </c>
+      <c r="F20" s="42">
+        <v>86</v>
+      </c>
+      <c r="G20" s="42">
+        <v>53</v>
+      </c>
+      <c r="I20" s="35"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="52">
+        <v>82</v>
+      </c>
+      <c r="L20" s="42">
+        <v>85</v>
+      </c>
+      <c r="M20" s="42">
+        <v>88</v>
+      </c>
+      <c r="N20" s="42">
+        <v>55</v>
+      </c>
+      <c r="O20" s="42">
+        <v>89</v>
+      </c>
+      <c r="P20" s="42">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="20"/>
+      <c r="B21" s="52">
+        <v>147</v>
+      </c>
+      <c r="C21" s="42">
+        <v>89</v>
+      </c>
+      <c r="D21" s="42">
+        <v>148</v>
+      </c>
+      <c r="E21" s="42">
+        <v>62</v>
+      </c>
+      <c r="F21" s="42">
+        <v>86</v>
+      </c>
+      <c r="G21" s="42">
+        <v>58</v>
+      </c>
+      <c r="I21" s="35"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="52">
+        <v>53</v>
+      </c>
+      <c r="L21" s="42">
+        <v>86</v>
+      </c>
+      <c r="M21" s="42">
+        <v>61</v>
+      </c>
+      <c r="N21" s="42">
+        <v>61</v>
+      </c>
+      <c r="O21" s="42">
+        <v>95</v>
+      </c>
+      <c r="P21" s="42">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="20"/>
+      <c r="B22" s="52">
+        <v>137</v>
+      </c>
+      <c r="C22" s="42">
+        <v>79</v>
+      </c>
+      <c r="D22" s="42">
+        <v>137</v>
+      </c>
+      <c r="E22" s="42">
+        <v>62</v>
+      </c>
+      <c r="F22" s="42">
+        <v>75</v>
+      </c>
+      <c r="G22" s="42">
+        <v>58</v>
+      </c>
+      <c r="I22" s="35"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="52">
+        <v>53</v>
+      </c>
+      <c r="L22" s="42">
+        <v>86</v>
+      </c>
+      <c r="M22" s="42">
+        <v>61</v>
+      </c>
+      <c r="N22" s="42">
+        <v>64</v>
+      </c>
+      <c r="O22" s="42">
+        <v>95</v>
+      </c>
+      <c r="P22" s="42">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="20"/>
+      <c r="B23" s="52">
+        <v>137</v>
+      </c>
+      <c r="C23" s="42">
+        <v>79</v>
+      </c>
+      <c r="D23" s="42">
+        <v>125</v>
+      </c>
+      <c r="E23" s="42">
+        <v>50</v>
+      </c>
+      <c r="F23" s="42">
+        <v>75</v>
+      </c>
+      <c r="G23" s="42">
+        <v>58</v>
+      </c>
+      <c r="I23" s="35"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="52">
+        <v>53</v>
+      </c>
+      <c r="L23" s="42">
+        <v>91</v>
+      </c>
+      <c r="M23" s="42">
+        <v>61</v>
+      </c>
+      <c r="N23" s="42">
+        <v>64</v>
+      </c>
+      <c r="O23" s="42">
+        <v>131</v>
+      </c>
+      <c r="P23" s="42">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="20"/>
+      <c r="B24" s="52">
+        <v>137</v>
+      </c>
+      <c r="C24" s="42">
+        <v>79</v>
+      </c>
+      <c r="D24" s="42">
+        <v>130</v>
+      </c>
+      <c r="E24" s="42">
+        <v>50</v>
+      </c>
+      <c r="F24" s="42">
+        <v>80</v>
+      </c>
+      <c r="G24" s="42">
+        <v>58</v>
+      </c>
+      <c r="I24" s="35"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="52">
+        <v>53</v>
+      </c>
+      <c r="L24" s="42">
+        <v>91</v>
+      </c>
+      <c r="M24" s="42">
+        <v>61</v>
+      </c>
+      <c r="N24" s="42">
+        <v>64</v>
+      </c>
+      <c r="O24" s="42">
+        <v>109</v>
+      </c>
+      <c r="P24" s="42">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="20"/>
+      <c r="B25" s="52">
+        <v>137</v>
+      </c>
+      <c r="C25" s="42">
+        <v>79</v>
+      </c>
+      <c r="D25" s="42">
+        <v>135</v>
+      </c>
+      <c r="E25" s="42">
+        <v>55</v>
+      </c>
+      <c r="F25" s="42">
+        <v>80</v>
+      </c>
+      <c r="G25" s="42">
+        <v>58</v>
+      </c>
+      <c r="I25" s="35"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="52">
+        <v>53</v>
+      </c>
+      <c r="L25" s="42">
+        <v>91</v>
+      </c>
+      <c r="M25" s="42">
+        <v>61</v>
+      </c>
+      <c r="N25" s="42">
+        <v>64</v>
+      </c>
+      <c r="O25" s="42">
+        <v>114</v>
+      </c>
+      <c r="P25" s="42">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="20"/>
+      <c r="B26" s="52">
+        <v>127</v>
+      </c>
+      <c r="C26" s="42">
+        <v>69</v>
+      </c>
+      <c r="D26" s="42">
+        <v>135</v>
+      </c>
+      <c r="E26" s="42">
+        <v>55</v>
+      </c>
+      <c r="F26" s="42">
+        <v>80</v>
+      </c>
+      <c r="G26" s="42">
+        <v>58</v>
+      </c>
+      <c r="I26" s="35"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="52">
+        <v>53</v>
+      </c>
+      <c r="L26" s="42">
+        <v>105</v>
+      </c>
+      <c r="M26" s="42">
+        <v>41</v>
+      </c>
+      <c r="N26" s="42">
+        <v>64</v>
+      </c>
+      <c r="O26" s="42">
+        <v>94</v>
+      </c>
+      <c r="P26" s="42">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="20"/>
+      <c r="B27" s="52">
+        <v>115</v>
+      </c>
+      <c r="C27" s="42">
+        <v>57</v>
+      </c>
+      <c r="D27" s="42">
+        <v>135</v>
+      </c>
+      <c r="E27" s="42">
+        <v>55</v>
+      </c>
+      <c r="F27" s="42">
+        <v>80</v>
+      </c>
+      <c r="G27" s="42">
+        <v>58</v>
+      </c>
+      <c r="I27" s="35"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="52">
+        <v>53</v>
+      </c>
+      <c r="L27" s="42">
+        <v>112</v>
+      </c>
+      <c r="M27" s="42">
+        <v>41</v>
+      </c>
+      <c r="N27" s="42">
+        <v>66</v>
+      </c>
+      <c r="O27" s="42">
+        <v>105</v>
+      </c>
+      <c r="P27" s="42">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="20"/>
+      <c r="B28" s="52">
+        <v>108</v>
+      </c>
+      <c r="C28" s="42">
+        <v>50</v>
+      </c>
+      <c r="D28" s="42">
+        <v>124</v>
+      </c>
+      <c r="E28" s="42">
+        <v>55</v>
+      </c>
+      <c r="F28" s="42">
+        <v>69</v>
+      </c>
+      <c r="G28" s="42">
+        <v>58</v>
+      </c>
+      <c r="I28" s="35"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="52">
+        <v>53</v>
+      </c>
+      <c r="L28" s="42">
+        <v>112</v>
+      </c>
+      <c r="M28" s="42">
+        <v>41</v>
+      </c>
+      <c r="N28" s="42">
+        <v>66</v>
+      </c>
+      <c r="O28" s="42">
+        <v>105</v>
+      </c>
+      <c r="P28" s="42">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="20"/>
+      <c r="B29" s="52">
+        <v>108</v>
+      </c>
+      <c r="C29" s="42">
+        <v>50</v>
+      </c>
+      <c r="D29" s="42">
+        <v>115</v>
+      </c>
+      <c r="E29" s="42">
+        <v>55</v>
+      </c>
+      <c r="F29" s="42">
+        <v>60</v>
+      </c>
+      <c r="G29" s="42">
+        <v>58</v>
+      </c>
+      <c r="I29" s="35"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="52">
+        <v>53</v>
+      </c>
+      <c r="L29" s="42">
+        <v>121</v>
+      </c>
+      <c r="M29" s="42">
+        <v>49</v>
+      </c>
+      <c r="N29" s="42">
+        <v>71</v>
+      </c>
+      <c r="O29" s="42">
+        <v>119</v>
+      </c>
+      <c r="P29" s="42">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="20"/>
+      <c r="B30" s="52">
+        <v>96</v>
+      </c>
+      <c r="C30" s="42">
+        <v>45</v>
+      </c>
+      <c r="D30" s="42">
+        <v>84</v>
+      </c>
+      <c r="E30" s="42">
+        <v>48</v>
+      </c>
+      <c r="F30" s="42">
+        <v>36</v>
+      </c>
+      <c r="G30" s="42">
+        <v>51</v>
+      </c>
+      <c r="I30" s="35"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="52">
+        <v>53</v>
+      </c>
+      <c r="L30" s="42">
+        <v>121</v>
+      </c>
+      <c r="M30" s="42">
+        <v>49</v>
+      </c>
+      <c r="N30" s="42">
+        <v>71</v>
+      </c>
+      <c r="O30" s="42">
+        <v>119</v>
+      </c>
+      <c r="P30" s="42">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" s="20"/>
+      <c r="B31" s="52">
+        <v>96</v>
+      </c>
+      <c r="C31" s="42">
+        <v>45</v>
+      </c>
+      <c r="D31" s="42">
+        <v>84</v>
+      </c>
+      <c r="E31" s="42">
+        <v>48</v>
+      </c>
+      <c r="F31" s="42">
+        <v>36</v>
+      </c>
+      <c r="G31" s="42">
+        <v>51</v>
+      </c>
+      <c r="I31" s="35"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="52">
+        <v>53</v>
+      </c>
+      <c r="L31" s="42">
+        <v>121</v>
+      </c>
+      <c r="M31" s="42">
+        <v>49</v>
+      </c>
+      <c r="N31" s="42">
+        <v>71</v>
+      </c>
+      <c r="O31" s="42">
+        <v>119</v>
+      </c>
+      <c r="P31" s="42">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="20"/>
+      <c r="B32" s="52">
+        <v>100</v>
+      </c>
+      <c r="C32" s="42">
+        <v>49</v>
+      </c>
+      <c r="D32" s="42">
+        <v>87</v>
+      </c>
+      <c r="E32" s="42">
+        <v>48</v>
+      </c>
+      <c r="F32" s="42">
+        <v>39</v>
+      </c>
+      <c r="G32" s="42">
+        <v>51</v>
+      </c>
+      <c r="I32" s="35"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="52">
+        <v>53</v>
+      </c>
+      <c r="L32" s="42">
+        <v>121</v>
+      </c>
+      <c r="M32" s="42">
+        <v>49</v>
+      </c>
+      <c r="N32" s="42">
+        <v>71</v>
+      </c>
+      <c r="O32" s="42">
+        <v>95</v>
+      </c>
+      <c r="P32" s="42">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33" s="20"/>
+      <c r="B33" s="52">
+        <v>100</v>
+      </c>
+      <c r="C33" s="42">
+        <v>49</v>
+      </c>
+      <c r="D33" s="42">
+        <v>87</v>
+      </c>
+      <c r="E33" s="42">
+        <v>48</v>
+      </c>
+      <c r="F33" s="42">
+        <v>39</v>
+      </c>
+      <c r="G33" s="42">
+        <v>51</v>
+      </c>
+      <c r="I33" s="35"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="52">
+        <v>53</v>
+      </c>
+      <c r="L33" s="42">
+        <v>121</v>
+      </c>
+      <c r="M33" s="42">
+        <v>49</v>
+      </c>
+      <c r="N33" s="42">
+        <v>71</v>
+      </c>
+      <c r="O33" s="42">
+        <v>83</v>
+      </c>
+      <c r="P33" s="42">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34" s="20"/>
+      <c r="B34" s="52">
+        <v>100</v>
+      </c>
+      <c r="C34" s="42">
+        <v>49</v>
+      </c>
+      <c r="D34" s="42">
+        <v>90</v>
+      </c>
+      <c r="E34" s="42">
+        <v>48</v>
+      </c>
+      <c r="F34" s="42">
+        <v>42</v>
+      </c>
+      <c r="G34" s="42">
+        <v>51</v>
+      </c>
+      <c r="I34" s="35"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="52">
+        <v>53</v>
+      </c>
+      <c r="L34" s="42">
+        <v>124</v>
+      </c>
+      <c r="M34" s="42">
+        <v>89</v>
+      </c>
+      <c r="N34" s="42">
+        <v>71</v>
+      </c>
+      <c r="O34" s="42">
+        <v>83</v>
+      </c>
+      <c r="P34" s="42">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A35" s="20"/>
+      <c r="B35" s="52">
+        <v>100</v>
+      </c>
+      <c r="C35" s="42">
+        <v>49</v>
+      </c>
+      <c r="D35" s="42">
+        <v>99</v>
+      </c>
+      <c r="E35" s="42">
+        <v>52</v>
+      </c>
+      <c r="F35" s="42">
+        <v>47</v>
+      </c>
+      <c r="G35" s="42">
+        <v>51</v>
+      </c>
+      <c r="I35" s="35"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="52">
+        <v>53</v>
+      </c>
+      <c r="L35" s="42">
+        <v>124</v>
+      </c>
+      <c r="M35" s="42">
+        <v>89</v>
+      </c>
+      <c r="N35" s="42">
+        <v>71</v>
+      </c>
+      <c r="O35" s="42">
+        <v>83</v>
+      </c>
+      <c r="P35" s="42">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A36" s="20"/>
+      <c r="B36" s="52">
+        <v>104</v>
+      </c>
+      <c r="C36" s="42">
+        <v>53</v>
+      </c>
+      <c r="D36" s="42">
+        <v>99</v>
+      </c>
+      <c r="E36" s="42">
+        <v>52</v>
+      </c>
+      <c r="F36" s="42">
+        <v>47</v>
+      </c>
+      <c r="G36" s="42">
+        <v>51</v>
+      </c>
+      <c r="I36" s="35"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="52">
+        <v>53</v>
+      </c>
+      <c r="L36" s="42">
+        <v>137</v>
+      </c>
+      <c r="M36" s="42">
+        <v>89</v>
+      </c>
+      <c r="N36" s="42">
+        <v>84</v>
+      </c>
+      <c r="O36" s="42">
+        <v>83</v>
+      </c>
+      <c r="P36" s="42">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A37" s="20"/>
+      <c r="B37" s="52">
+        <v>107</v>
+      </c>
+      <c r="C37" s="42">
+        <v>53</v>
+      </c>
+      <c r="D37" s="42">
+        <v>99</v>
+      </c>
+      <c r="E37" s="42">
+        <v>52</v>
+      </c>
+      <c r="F37" s="42">
+        <v>47</v>
+      </c>
+      <c r="G37" s="42">
+        <v>54</v>
+      </c>
+      <c r="I37" s="35"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="52">
+        <v>53</v>
+      </c>
+      <c r="L37" s="42">
+        <v>137</v>
+      </c>
+      <c r="M37" s="42">
+        <v>89</v>
+      </c>
+      <c r="N37" s="42">
+        <v>84</v>
+      </c>
+      <c r="O37" s="42">
+        <v>77</v>
+      </c>
+      <c r="P37" s="42">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A38" s="20"/>
+      <c r="B38" s="52">
+        <v>107</v>
+      </c>
+      <c r="C38" s="42">
+        <v>53</v>
+      </c>
+      <c r="D38" s="42">
+        <v>92</v>
+      </c>
+      <c r="E38" s="42">
+        <v>45</v>
+      </c>
+      <c r="F38" s="42">
+        <v>47</v>
+      </c>
+      <c r="G38" s="42">
+        <v>54</v>
+      </c>
+      <c r="I38" s="35"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="52">
+        <v>53</v>
+      </c>
+      <c r="L38" s="42">
+        <v>137</v>
+      </c>
+      <c r="M38" s="42">
+        <v>89</v>
+      </c>
+      <c r="N38" s="42">
+        <v>84</v>
+      </c>
+      <c r="O38" s="42">
+        <v>77</v>
+      </c>
+      <c r="P38" s="42">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="22"/>
+      <c r="B39" s="53">
+        <v>107</v>
+      </c>
+      <c r="C39" s="3">
+        <v>53</v>
+      </c>
+      <c r="D39" s="3">
+        <v>92</v>
+      </c>
+      <c r="E39" s="3">
+        <v>45</v>
+      </c>
+      <c r="F39" s="3">
+        <v>47</v>
+      </c>
+      <c r="G39" s="3">
+        <v>54</v>
+      </c>
+      <c r="I39" s="35"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="52">
+        <v>53</v>
+      </c>
+      <c r="L39" s="42">
+        <v>137</v>
+      </c>
+      <c r="M39" s="42">
+        <v>89</v>
+      </c>
+      <c r="N39" s="42">
+        <v>84</v>
+      </c>
+      <c r="O39" s="42">
+        <v>77</v>
+      </c>
+      <c r="P39" s="42">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A40" s="20"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="52">
+        <v>53</v>
+      </c>
+      <c r="L40" s="42">
+        <v>137</v>
+      </c>
+      <c r="M40" s="42">
+        <v>89</v>
+      </c>
+      <c r="N40" s="42">
+        <v>84</v>
+      </c>
+      <c r="O40" s="42">
+        <v>77</v>
+      </c>
+      <c r="P40" s="42">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A41" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="54">
+        <f t="shared" ref="B41:G41" si="0">AVERAGE(B4:B39)</f>
+        <v>103.97222222222223</v>
+      </c>
+      <c r="C41" s="54">
+        <f t="shared" si="0"/>
+        <v>58.527777777777779</v>
+      </c>
+      <c r="D41" s="54">
+        <f t="shared" si="0"/>
+        <v>107.5</v>
+      </c>
+      <c r="E41" s="54">
+        <f t="shared" si="0"/>
+        <v>48.805555555555557</v>
+      </c>
+      <c r="F41" s="6">
+        <f t="shared" si="0"/>
+        <v>58.694444444444443</v>
+      </c>
+      <c r="G41" s="6">
+        <f t="shared" si="0"/>
+        <v>45.444444444444443</v>
+      </c>
+      <c r="I41" s="35"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="52">
+        <v>53</v>
+      </c>
+      <c r="L41" s="42">
+        <v>72</v>
+      </c>
+      <c r="M41" s="42">
+        <v>72</v>
+      </c>
+      <c r="N41" s="42">
+        <v>119</v>
+      </c>
+      <c r="O41" s="42">
+        <v>77</v>
+      </c>
+      <c r="P41" s="42">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A42" s="23"/>
+      <c r="B42" s="54"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="52">
+        <v>53</v>
+      </c>
+      <c r="L42" s="42">
+        <v>72</v>
+      </c>
+      <c r="M42" s="42">
+        <v>72</v>
+      </c>
+      <c r="N42" s="42">
+        <v>119</v>
+      </c>
+      <c r="O42" s="42">
+        <v>77</v>
+      </c>
+      <c r="P42" s="42">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A43" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="54">
+        <f t="shared" ref="B43:G43" si="1">_xlfn.STDEV.S(B4:B39)</f>
+        <v>32.312302929920072</v>
+      </c>
+      <c r="C43" s="54">
+        <f t="shared" si="1"/>
+        <v>20.554437979057482</v>
+      </c>
+      <c r="D43" s="54">
+        <f t="shared" si="1"/>
+        <v>32.304356185682273</v>
+      </c>
+      <c r="E43" s="54">
+        <f t="shared" si="1"/>
+        <v>12.204962560823821</v>
+      </c>
+      <c r="F43" s="6">
+        <f t="shared" si="1"/>
+        <v>23.249970131402559</v>
+      </c>
+      <c r="G43" s="6">
+        <f t="shared" si="1"/>
+        <v>14.691969515826267</v>
+      </c>
+      <c r="I43" s="35"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="52">
+        <v>37</v>
+      </c>
+      <c r="L43" s="42">
+        <v>72</v>
+      </c>
+      <c r="M43" s="42">
+        <v>49</v>
+      </c>
+      <c r="N43" s="42">
+        <v>121</v>
+      </c>
+      <c r="O43" s="42">
+        <v>77</v>
+      </c>
+      <c r="P43" s="42">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="23"/>
+      <c r="B44" s="54"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="54"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="I44" s="35"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="53">
+        <v>37</v>
+      </c>
+      <c r="L44" s="3">
+        <v>72</v>
+      </c>
+      <c r="M44" s="3">
+        <v>49</v>
+      </c>
+      <c r="N44" s="3">
+        <v>90</v>
+      </c>
+      <c r="O44" s="3">
+        <v>77</v>
+      </c>
+      <c r="P44" s="3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" s="55">
+        <f>_xlfn.CONFIDENCE.NORM(0.05,B43,35)</f>
+        <v>10.70488436973214</v>
+      </c>
+      <c r="C45" s="55">
+        <f t="shared" ref="C45:G45" si="2">_xlfn.CONFIDENCE.NORM(0.05,C43,35)</f>
+        <v>6.8095697891869635</v>
+      </c>
+      <c r="D45" s="55">
+        <f t="shared" si="2"/>
+        <v>10.702251658025828</v>
+      </c>
+      <c r="E45" s="55">
+        <f t="shared" si="2"/>
+        <v>4.0434355060947702</v>
+      </c>
+      <c r="F45" s="55">
+        <f t="shared" si="2"/>
+        <v>7.7025844427179004</v>
+      </c>
+      <c r="G45" s="55">
+        <f t="shared" si="2"/>
+        <v>4.8673669336306489</v>
+      </c>
+      <c r="I45" s="35"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="52"/>
+      <c r="L45" s="52"/>
+      <c r="M45" s="52"/>
+      <c r="N45" s="52"/>
+      <c r="O45" s="42"/>
+      <c r="P45" s="42"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A46" s="23"/>
+      <c r="B46" s="56"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="57"/>
+      <c r="J46" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="K46" s="54">
+        <f>AVERAGE(K4:K44)</f>
+        <v>76</v>
+      </c>
+      <c r="L46" s="54">
+        <f t="shared" ref="L46:P46" si="3">AVERAGE(L4:L44)</f>
+        <v>102.39024390243902</v>
+      </c>
+      <c r="M46" s="54">
+        <f t="shared" si="3"/>
+        <v>74.878048780487802</v>
+      </c>
+      <c r="N46" s="54">
+        <f t="shared" si="3"/>
+        <v>71.439024390243901</v>
+      </c>
+      <c r="O46" s="6">
+        <f t="shared" si="3"/>
+        <v>86.926829268292678</v>
+      </c>
+      <c r="P46" s="6">
+        <f t="shared" si="3"/>
+        <v>92.341463414634148</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="8">
+        <f>AVERAGE(B41:G41)</f>
+        <v>70.490740740740748</v>
+      </c>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="57"/>
+      <c r="J47" s="23"/>
+      <c r="K47" s="54"/>
+      <c r="L47" s="54"/>
+      <c r="M47" s="54"/>
+      <c r="N47" s="54"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="57"/>
+      <c r="J48" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="K48" s="54">
+        <f>_xlfn.STDEV.S(K4:K44)</f>
+        <v>67.559973357010733</v>
+      </c>
+      <c r="L48" s="54">
+        <f t="shared" ref="L48:P48" si="4">_xlfn.STDEV.S(L4:L44)</f>
+        <v>26.786076652601153</v>
+      </c>
+      <c r="M48" s="54">
+        <f t="shared" si="4"/>
+        <v>34.213444084125193</v>
+      </c>
+      <c r="N48" s="54">
+        <f t="shared" si="4"/>
+        <v>27.588991265075101</v>
+      </c>
+      <c r="O48" s="6">
+        <f t="shared" si="4"/>
+        <v>32.725670538510322</v>
+      </c>
+      <c r="P48" s="6">
+        <f t="shared" si="4"/>
+        <v>37.540384758348942</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="57"/>
+      <c r="J49" s="23"/>
+      <c r="K49" s="54"/>
+      <c r="L49" s="54"/>
+      <c r="M49" s="54"/>
+      <c r="N49" s="54"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
+    </row>
+    <row r="50" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="57"/>
+      <c r="J50" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="K50" s="55">
+        <f>_xlfn.CONFIDENCE.NORM(0.05,K48,40)</f>
+        <v>20.936667934651886</v>
+      </c>
+      <c r="L50" s="55">
+        <f t="shared" ref="L50:P50" si="5">_xlfn.CONFIDENCE.NORM(0.05,L48,40)</f>
+        <v>8.3009386221056936</v>
+      </c>
+      <c r="M50" s="55">
+        <f t="shared" si="5"/>
+        <v>10.602661340685339</v>
+      </c>
+      <c r="N50" s="55">
+        <f t="shared" si="5"/>
+        <v>8.5497598661937424</v>
+      </c>
+      <c r="O50" s="8">
+        <f t="shared" si="5"/>
+        <v>10.141604014302219</v>
+      </c>
+      <c r="P50" s="8">
+        <f t="shared" si="5"/>
+        <v>11.633671992013273</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="57"/>
+      <c r="J51" s="23"/>
+      <c r="K51" s="56"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="5"/>
+    </row>
+    <row r="52" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="57"/>
+      <c r="J52" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="K52" s="8">
+        <f>AVERAGE(K46:P46)</f>
+        <v>83.995934959349597</v>
+      </c>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="J1:P1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/analysis/test-dijkstra-dualascent.xlsx
+++ b/analysis/test-dijkstra-dualascent.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Documents\GitHub\anaws\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455852F9-AE64-46A0-87AC-E98CB00CA7BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC023198-B3DB-4610-8029-4626A5C78D47}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{4FF27154-4CE8-4227-97A9-9900F5A89FA9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{4FF27154-4CE8-4227-97A9-9900F5A89FA9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Latenza" sheetId="1" r:id="rId1"/>
-    <sheet name="Banda EQ Dijkstra" sheetId="3" r:id="rId2"/>
-    <sheet name="Banda EQ Dual Ascent" sheetId="4" r:id="rId3"/>
-    <sheet name="Banda DIV Dijkstra" sheetId="5" r:id="rId4"/>
-    <sheet name="Banda DIV Dual Ascent" sheetId="6" r:id="rId5"/>
-    <sheet name="Target" sheetId="7" r:id="rId6"/>
+    <sheet name="Latenza all" sheetId="1" r:id="rId1"/>
+    <sheet name="Latenza Target" sheetId="7" r:id="rId2"/>
+    <sheet name="Banda EQ Dijkstra" sheetId="3" r:id="rId3"/>
+    <sheet name="Banda EQ Dual Ascent" sheetId="4" r:id="rId4"/>
+    <sheet name="Banda DIV Dijkstra" sheetId="5" r:id="rId5"/>
+    <sheet name="Banda DIV Dual Ascent" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="42">
   <si>
     <t>Mean</t>
   </si>
@@ -156,18 +156,6 @@
   </si>
   <si>
     <t>Nodes</t>
-  </si>
-  <si>
-    <t>h1-h14</t>
-  </si>
-  <si>
-    <t>h6-h14</t>
-  </si>
-  <si>
-    <t>h14-h1</t>
-  </si>
-  <si>
-    <t>h14-h6</t>
   </si>
   <si>
     <t>Average</t>
@@ -371,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -489,9 +477,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -533,6 +518,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -570,6 +561,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -752,7 +747,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Latenza!$B$5</c:f>
+              <c:f>'Latenza all'!$B$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -862,7 +857,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Latenza!$E$5</c:f>
+              <c:f>'Latenza all'!$E$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -972,7 +967,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Latenza!$C$5</c:f>
+              <c:f>'Latenza all'!$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1082,7 +1077,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Latenza!$F$5</c:f>
+              <c:f>'Latenza all'!$F$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1192,7 +1187,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Latenza!$D$5</c:f>
+              <c:f>'Latenza all'!$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1302,7 +1297,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Latenza!$G$5</c:f>
+              <c:f>'Latenza all'!$G$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1593,7 +1588,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Latenza!$B$7</c:f>
+              <c:f>'Latenza all'!$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1640,7 +1635,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Latenza!$E$7</c:f>
+              <c:f>'Latenza all'!$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1687,7 +1682,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Latenza!$C$7</c:f>
+              <c:f>'Latenza all'!$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1734,7 +1729,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Latenza!$F$7</c:f>
+              <c:f>'Latenza all'!$F$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1781,7 +1776,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Latenza!$D$7</c:f>
+              <c:f>'Latenza all'!$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1828,7 +1823,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Latenza!$G$7</c:f>
+              <c:f>'Latenza all'!$G$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -15704,7 +15699,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF34C271-DF05-470A-888F-D3E261F22D54}">
   <dimension ref="A1:H407"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
@@ -15718,16 +15713,16 @@
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="59" t="s">
+      <c r="C1" s="61"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="62"/>
-      <c r="G1" s="61"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="62"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
@@ -20268,6 +20263,1823 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3F1448B-9046-4895-AF26-0705232310C8}">
+  <dimension ref="A1:P46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H45" sqref="H45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="72"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="71" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="72"/>
+    </row>
+    <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="43"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="3"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="3"/>
+    </row>
+    <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="13"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" s="48" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="49"/>
+      <c r="B4" s="50">
+        <v>103</v>
+      </c>
+      <c r="C4" s="29">
+        <v>59</v>
+      </c>
+      <c r="D4" s="59">
+        <v>148</v>
+      </c>
+      <c r="E4" s="50">
+        <v>59</v>
+      </c>
+      <c r="F4" s="29">
+        <v>148</v>
+      </c>
+      <c r="G4" s="58">
+        <v>103</v>
+      </c>
+      <c r="I4" s="35"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="50">
+        <v>146</v>
+      </c>
+      <c r="L4" s="29">
+        <v>188</v>
+      </c>
+      <c r="M4" s="29">
+        <v>174</v>
+      </c>
+      <c r="N4" s="29">
+        <v>188</v>
+      </c>
+      <c r="O4" s="29">
+        <v>174</v>
+      </c>
+      <c r="P4" s="29">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="49"/>
+      <c r="B5" s="51">
+        <v>130</v>
+      </c>
+      <c r="C5" s="58">
+        <v>107</v>
+      </c>
+      <c r="D5" s="58">
+        <v>169</v>
+      </c>
+      <c r="E5" s="58">
+        <v>107</v>
+      </c>
+      <c r="F5" s="58">
+        <v>169</v>
+      </c>
+      <c r="G5" s="58">
+        <v>130</v>
+      </c>
+      <c r="I5" s="35"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="51">
+        <v>36</v>
+      </c>
+      <c r="L5" s="58">
+        <v>188</v>
+      </c>
+      <c r="M5" s="58">
+        <v>58</v>
+      </c>
+      <c r="N5" s="58">
+        <v>188</v>
+      </c>
+      <c r="O5" s="58">
+        <v>58</v>
+      </c>
+      <c r="P5" s="58">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="49"/>
+      <c r="B6" s="51">
+        <v>158</v>
+      </c>
+      <c r="C6" s="58">
+        <v>180</v>
+      </c>
+      <c r="D6" s="58">
+        <v>202</v>
+      </c>
+      <c r="E6" s="58">
+        <v>180</v>
+      </c>
+      <c r="F6" s="58">
+        <v>202</v>
+      </c>
+      <c r="G6" s="58">
+        <v>158</v>
+      </c>
+      <c r="I6" s="35"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="51">
+        <v>167</v>
+      </c>
+      <c r="L6" s="58">
+        <v>210</v>
+      </c>
+      <c r="M6" s="58">
+        <v>109</v>
+      </c>
+      <c r="N6" s="58">
+        <v>210</v>
+      </c>
+      <c r="O6" s="58">
+        <v>109</v>
+      </c>
+      <c r="P6" s="58">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="49"/>
+      <c r="B7" s="51">
+        <v>221</v>
+      </c>
+      <c r="C7" s="58">
+        <v>243</v>
+      </c>
+      <c r="D7" s="58">
+        <v>262</v>
+      </c>
+      <c r="E7" s="58">
+        <v>243</v>
+      </c>
+      <c r="F7" s="58">
+        <v>262</v>
+      </c>
+      <c r="G7" s="58">
+        <v>221</v>
+      </c>
+      <c r="I7" s="35"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="51">
+        <v>250</v>
+      </c>
+      <c r="L7" s="58">
+        <v>282</v>
+      </c>
+      <c r="M7" s="58">
+        <v>366</v>
+      </c>
+      <c r="N7" s="58">
+        <v>282</v>
+      </c>
+      <c r="O7" s="58">
+        <v>366</v>
+      </c>
+      <c r="P7" s="58">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="20"/>
+      <c r="B8" s="51">
+        <v>221</v>
+      </c>
+      <c r="C8" s="58">
+        <v>254</v>
+      </c>
+      <c r="D8" s="58">
+        <v>257</v>
+      </c>
+      <c r="E8" s="58">
+        <v>254</v>
+      </c>
+      <c r="F8" s="58">
+        <v>257</v>
+      </c>
+      <c r="G8" s="58">
+        <v>221</v>
+      </c>
+      <c r="I8" s="35"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="51">
+        <v>316</v>
+      </c>
+      <c r="L8" s="58">
+        <v>288</v>
+      </c>
+      <c r="M8" s="58">
+        <v>408</v>
+      </c>
+      <c r="N8" s="58">
+        <v>288</v>
+      </c>
+      <c r="O8" s="58">
+        <v>408</v>
+      </c>
+      <c r="P8" s="58">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="20"/>
+      <c r="B9" s="51">
+        <v>221</v>
+      </c>
+      <c r="C9" s="58">
+        <v>254</v>
+      </c>
+      <c r="D9" s="58">
+        <v>257</v>
+      </c>
+      <c r="E9" s="58">
+        <v>254</v>
+      </c>
+      <c r="F9" s="58">
+        <v>257</v>
+      </c>
+      <c r="G9" s="58">
+        <v>221</v>
+      </c>
+      <c r="I9" s="35"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="51">
+        <v>316</v>
+      </c>
+      <c r="L9" s="58">
+        <v>288</v>
+      </c>
+      <c r="M9" s="58">
+        <v>408</v>
+      </c>
+      <c r="N9" s="58">
+        <v>288</v>
+      </c>
+      <c r="O9" s="58">
+        <v>408</v>
+      </c>
+      <c r="P9" s="58">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="20"/>
+      <c r="B10" s="51">
+        <v>221</v>
+      </c>
+      <c r="C10" s="58">
+        <v>254</v>
+      </c>
+      <c r="D10" s="58">
+        <v>257</v>
+      </c>
+      <c r="E10" s="58">
+        <v>254</v>
+      </c>
+      <c r="F10" s="58">
+        <v>257</v>
+      </c>
+      <c r="G10" s="58">
+        <v>221</v>
+      </c>
+      <c r="I10" s="35"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="51">
+        <v>316</v>
+      </c>
+      <c r="L10" s="58">
+        <v>270</v>
+      </c>
+      <c r="M10" s="58">
+        <v>410</v>
+      </c>
+      <c r="N10" s="58">
+        <v>270</v>
+      </c>
+      <c r="O10" s="58">
+        <v>410</v>
+      </c>
+      <c r="P10" s="58">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="20"/>
+      <c r="B11" s="51">
+        <v>221</v>
+      </c>
+      <c r="C11" s="58">
+        <v>254</v>
+      </c>
+      <c r="D11" s="58">
+        <v>257</v>
+      </c>
+      <c r="E11" s="58">
+        <v>254</v>
+      </c>
+      <c r="F11" s="58">
+        <v>257</v>
+      </c>
+      <c r="G11" s="58">
+        <v>221</v>
+      </c>
+      <c r="I11" s="35"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="51">
+        <v>369</v>
+      </c>
+      <c r="L11" s="58">
+        <v>270</v>
+      </c>
+      <c r="M11" s="58">
+        <v>320</v>
+      </c>
+      <c r="N11" s="58">
+        <v>270</v>
+      </c>
+      <c r="O11" s="58">
+        <v>320</v>
+      </c>
+      <c r="P11" s="58">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="20"/>
+      <c r="B12" s="51">
+        <v>221</v>
+      </c>
+      <c r="C12" s="58">
+        <v>254</v>
+      </c>
+      <c r="D12" s="58">
+        <v>257</v>
+      </c>
+      <c r="E12" s="58">
+        <v>254</v>
+      </c>
+      <c r="F12" s="58">
+        <v>257</v>
+      </c>
+      <c r="G12" s="58">
+        <v>221</v>
+      </c>
+      <c r="I12" s="35"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="51">
+        <v>349</v>
+      </c>
+      <c r="L12" s="58">
+        <v>285</v>
+      </c>
+      <c r="M12" s="58">
+        <v>185</v>
+      </c>
+      <c r="N12" s="58">
+        <v>285</v>
+      </c>
+      <c r="O12" s="58">
+        <v>185</v>
+      </c>
+      <c r="P12" s="58">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="20"/>
+      <c r="B13" s="51">
+        <v>207</v>
+      </c>
+      <c r="C13" s="58">
+        <v>240</v>
+      </c>
+      <c r="D13" s="58">
+        <v>257</v>
+      </c>
+      <c r="E13" s="58">
+        <v>240</v>
+      </c>
+      <c r="F13" s="58">
+        <v>257</v>
+      </c>
+      <c r="G13" s="58">
+        <v>207</v>
+      </c>
+      <c r="I13" s="35"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="51">
+        <v>335</v>
+      </c>
+      <c r="L13" s="58">
+        <v>285</v>
+      </c>
+      <c r="M13" s="58">
+        <v>171</v>
+      </c>
+      <c r="N13" s="58">
+        <v>285</v>
+      </c>
+      <c r="O13" s="58">
+        <v>171</v>
+      </c>
+      <c r="P13" s="58">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="20"/>
+      <c r="B14" s="51">
+        <v>207</v>
+      </c>
+      <c r="C14" s="58">
+        <v>240</v>
+      </c>
+      <c r="D14" s="58">
+        <v>257</v>
+      </c>
+      <c r="E14" s="58">
+        <v>240</v>
+      </c>
+      <c r="F14" s="58">
+        <v>257</v>
+      </c>
+      <c r="G14" s="58">
+        <v>207</v>
+      </c>
+      <c r="I14" s="35"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="51">
+        <v>431</v>
+      </c>
+      <c r="L14" s="58">
+        <v>308</v>
+      </c>
+      <c r="M14" s="58">
+        <v>281</v>
+      </c>
+      <c r="N14" s="58">
+        <v>308</v>
+      </c>
+      <c r="O14" s="58">
+        <v>281</v>
+      </c>
+      <c r="P14" s="58">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="20"/>
+      <c r="B15" s="51">
+        <v>207</v>
+      </c>
+      <c r="C15" s="58">
+        <v>240</v>
+      </c>
+      <c r="D15" s="58">
+        <v>257</v>
+      </c>
+      <c r="E15" s="58">
+        <v>240</v>
+      </c>
+      <c r="F15" s="58">
+        <v>257</v>
+      </c>
+      <c r="G15" s="58">
+        <v>207</v>
+      </c>
+      <c r="I15" s="35"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="51">
+        <v>380</v>
+      </c>
+      <c r="L15" s="58">
+        <v>279</v>
+      </c>
+      <c r="M15" s="58">
+        <v>252</v>
+      </c>
+      <c r="N15" s="58">
+        <v>279</v>
+      </c>
+      <c r="O15" s="58">
+        <v>252</v>
+      </c>
+      <c r="P15" s="58">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="20"/>
+      <c r="B16" s="51">
+        <v>176</v>
+      </c>
+      <c r="C16" s="58">
+        <v>187</v>
+      </c>
+      <c r="D16" s="58">
+        <v>243</v>
+      </c>
+      <c r="E16" s="58">
+        <v>187</v>
+      </c>
+      <c r="F16" s="58">
+        <v>243</v>
+      </c>
+      <c r="G16" s="58">
+        <v>176</v>
+      </c>
+      <c r="I16" s="35"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="51">
+        <v>304</v>
+      </c>
+      <c r="L16" s="58">
+        <v>299</v>
+      </c>
+      <c r="M16" s="58">
+        <v>392</v>
+      </c>
+      <c r="N16" s="58">
+        <v>299</v>
+      </c>
+      <c r="O16" s="58">
+        <v>392</v>
+      </c>
+      <c r="P16" s="58">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="20"/>
+      <c r="B17" s="51">
+        <v>176</v>
+      </c>
+      <c r="C17" s="58">
+        <v>187</v>
+      </c>
+      <c r="D17" s="58">
+        <v>243</v>
+      </c>
+      <c r="E17" s="58">
+        <v>187</v>
+      </c>
+      <c r="F17" s="58">
+        <v>243</v>
+      </c>
+      <c r="G17" s="58">
+        <v>176</v>
+      </c>
+      <c r="I17" s="35"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="51">
+        <v>304</v>
+      </c>
+      <c r="L17" s="58">
+        <v>299</v>
+      </c>
+      <c r="M17" s="58">
+        <v>392</v>
+      </c>
+      <c r="N17" s="58">
+        <v>299</v>
+      </c>
+      <c r="O17" s="58">
+        <v>392</v>
+      </c>
+      <c r="P17" s="58">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="20"/>
+      <c r="B18" s="51">
+        <v>220</v>
+      </c>
+      <c r="C18" s="58">
+        <v>231</v>
+      </c>
+      <c r="D18" s="58">
+        <v>243</v>
+      </c>
+      <c r="E18" s="58">
+        <v>231</v>
+      </c>
+      <c r="F18" s="58">
+        <v>243</v>
+      </c>
+      <c r="G18" s="58">
+        <v>220</v>
+      </c>
+      <c r="I18" s="35"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="51">
+        <v>403</v>
+      </c>
+      <c r="L18" s="58">
+        <v>229</v>
+      </c>
+      <c r="M18" s="58">
+        <v>234</v>
+      </c>
+      <c r="N18" s="58">
+        <v>229</v>
+      </c>
+      <c r="O18" s="58">
+        <v>234</v>
+      </c>
+      <c r="P18" s="58">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="20"/>
+      <c r="B19" s="51">
+        <v>234</v>
+      </c>
+      <c r="C19" s="58">
+        <v>231</v>
+      </c>
+      <c r="D19" s="58">
+        <v>243</v>
+      </c>
+      <c r="E19" s="58">
+        <v>231</v>
+      </c>
+      <c r="F19" s="58">
+        <v>243</v>
+      </c>
+      <c r="G19" s="58">
+        <v>234</v>
+      </c>
+      <c r="I19" s="35"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="51">
+        <v>163</v>
+      </c>
+      <c r="L19" s="58">
+        <v>229</v>
+      </c>
+      <c r="M19" s="58">
+        <v>218</v>
+      </c>
+      <c r="N19" s="58">
+        <v>229</v>
+      </c>
+      <c r="O19" s="58">
+        <v>218</v>
+      </c>
+      <c r="P19" s="58">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="20"/>
+      <c r="B20" s="51">
+        <v>246</v>
+      </c>
+      <c r="C20" s="58">
+        <v>243</v>
+      </c>
+      <c r="D20" s="58">
+        <v>257</v>
+      </c>
+      <c r="E20" s="58">
+        <v>243</v>
+      </c>
+      <c r="F20" s="58">
+        <v>257</v>
+      </c>
+      <c r="G20" s="58">
+        <v>246</v>
+      </c>
+      <c r="I20" s="35"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="51">
+        <v>163</v>
+      </c>
+      <c r="L20" s="58">
+        <v>229</v>
+      </c>
+      <c r="M20" s="58">
+        <v>218</v>
+      </c>
+      <c r="N20" s="58">
+        <v>229</v>
+      </c>
+      <c r="O20" s="58">
+        <v>218</v>
+      </c>
+      <c r="P20" s="58">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="20"/>
+      <c r="B21" s="51">
+        <v>246</v>
+      </c>
+      <c r="C21" s="58">
+        <v>253</v>
+      </c>
+      <c r="D21" s="58">
+        <v>267</v>
+      </c>
+      <c r="E21" s="58">
+        <v>253</v>
+      </c>
+      <c r="F21" s="58">
+        <v>267</v>
+      </c>
+      <c r="G21" s="58">
+        <v>246</v>
+      </c>
+      <c r="I21" s="35"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="51">
+        <v>292</v>
+      </c>
+      <c r="L21" s="58">
+        <v>209</v>
+      </c>
+      <c r="M21" s="58">
+        <v>218</v>
+      </c>
+      <c r="N21" s="58">
+        <v>209</v>
+      </c>
+      <c r="O21" s="58">
+        <v>218</v>
+      </c>
+      <c r="P21" s="58">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="20"/>
+      <c r="B22" s="51">
+        <v>246</v>
+      </c>
+      <c r="C22" s="58">
+        <v>253</v>
+      </c>
+      <c r="D22" s="58">
+        <v>267</v>
+      </c>
+      <c r="E22" s="58">
+        <v>253</v>
+      </c>
+      <c r="F22" s="58">
+        <v>267</v>
+      </c>
+      <c r="G22" s="58">
+        <v>246</v>
+      </c>
+      <c r="I22" s="35"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="51">
+        <v>285</v>
+      </c>
+      <c r="L22" s="58">
+        <v>209</v>
+      </c>
+      <c r="M22" s="58">
+        <v>218</v>
+      </c>
+      <c r="N22" s="58">
+        <v>209</v>
+      </c>
+      <c r="O22" s="58">
+        <v>218</v>
+      </c>
+      <c r="P22" s="58">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="20"/>
+      <c r="B23" s="51">
+        <v>246</v>
+      </c>
+      <c r="C23" s="58">
+        <v>253</v>
+      </c>
+      <c r="D23" s="58">
+        <v>267</v>
+      </c>
+      <c r="E23" s="58">
+        <v>253</v>
+      </c>
+      <c r="F23" s="58">
+        <v>267</v>
+      </c>
+      <c r="G23" s="58">
+        <v>246</v>
+      </c>
+      <c r="I23" s="35"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="51">
+        <v>285</v>
+      </c>
+      <c r="L23" s="58">
+        <v>209</v>
+      </c>
+      <c r="M23" s="58">
+        <v>218</v>
+      </c>
+      <c r="N23" s="58">
+        <v>209</v>
+      </c>
+      <c r="O23" s="58">
+        <v>218</v>
+      </c>
+      <c r="P23" s="58">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="20"/>
+      <c r="B24" s="51">
+        <v>246</v>
+      </c>
+      <c r="C24" s="58">
+        <v>253</v>
+      </c>
+      <c r="D24" s="58">
+        <v>267</v>
+      </c>
+      <c r="E24" s="58">
+        <v>253</v>
+      </c>
+      <c r="F24" s="58">
+        <v>267</v>
+      </c>
+      <c r="G24" s="58">
+        <v>246</v>
+      </c>
+      <c r="I24" s="35"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="51">
+        <v>285</v>
+      </c>
+      <c r="L24" s="58">
+        <v>209</v>
+      </c>
+      <c r="M24" s="58">
+        <v>220</v>
+      </c>
+      <c r="N24" s="58">
+        <v>209</v>
+      </c>
+      <c r="O24" s="58">
+        <v>220</v>
+      </c>
+      <c r="P24" s="58">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="20"/>
+      <c r="B25" s="51">
+        <v>246</v>
+      </c>
+      <c r="C25" s="58">
+        <v>253</v>
+      </c>
+      <c r="D25" s="58">
+        <v>267</v>
+      </c>
+      <c r="E25" s="58">
+        <v>253</v>
+      </c>
+      <c r="F25" s="58">
+        <v>267</v>
+      </c>
+      <c r="G25" s="58">
+        <v>246</v>
+      </c>
+      <c r="I25" s="35"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="51">
+        <v>285</v>
+      </c>
+      <c r="L25" s="58">
+        <v>209</v>
+      </c>
+      <c r="M25" s="58">
+        <v>220</v>
+      </c>
+      <c r="N25" s="58">
+        <v>209</v>
+      </c>
+      <c r="O25" s="58">
+        <v>220</v>
+      </c>
+      <c r="P25" s="58">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="20"/>
+      <c r="B26" s="51">
+        <v>232</v>
+      </c>
+      <c r="C26" s="58">
+        <v>239</v>
+      </c>
+      <c r="D26" s="58">
+        <v>267</v>
+      </c>
+      <c r="E26" s="58">
+        <v>239</v>
+      </c>
+      <c r="F26" s="58">
+        <v>267</v>
+      </c>
+      <c r="G26" s="58">
+        <v>232</v>
+      </c>
+      <c r="I26" s="35"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="51">
+        <v>333</v>
+      </c>
+      <c r="L26" s="58">
+        <v>242</v>
+      </c>
+      <c r="M26" s="58">
+        <v>220</v>
+      </c>
+      <c r="N26" s="58">
+        <v>242</v>
+      </c>
+      <c r="O26" s="58">
+        <v>220</v>
+      </c>
+      <c r="P26" s="58">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="20"/>
+      <c r="B27" s="51">
+        <v>232</v>
+      </c>
+      <c r="C27" s="58">
+        <v>239</v>
+      </c>
+      <c r="D27" s="58">
+        <v>267</v>
+      </c>
+      <c r="E27" s="58">
+        <v>239</v>
+      </c>
+      <c r="F27" s="58">
+        <v>267</v>
+      </c>
+      <c r="G27" s="58">
+        <v>232</v>
+      </c>
+      <c r="I27" s="35"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="51">
+        <v>340</v>
+      </c>
+      <c r="L27" s="58">
+        <v>242</v>
+      </c>
+      <c r="M27" s="58">
+        <v>218</v>
+      </c>
+      <c r="N27" s="58">
+        <v>242</v>
+      </c>
+      <c r="O27" s="58">
+        <v>218</v>
+      </c>
+      <c r="P27" s="58">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="20"/>
+      <c r="B28" s="51">
+        <v>243</v>
+      </c>
+      <c r="C28" s="58">
+        <v>264</v>
+      </c>
+      <c r="D28" s="58">
+        <v>294</v>
+      </c>
+      <c r="E28" s="58">
+        <v>264</v>
+      </c>
+      <c r="F28" s="58">
+        <v>294</v>
+      </c>
+      <c r="G28" s="58">
+        <v>243</v>
+      </c>
+      <c r="I28" s="35"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="51">
+        <v>340</v>
+      </c>
+      <c r="L28" s="58">
+        <v>242</v>
+      </c>
+      <c r="M28" s="58">
+        <v>431</v>
+      </c>
+      <c r="N28" s="58">
+        <v>242</v>
+      </c>
+      <c r="O28" s="58">
+        <v>431</v>
+      </c>
+      <c r="P28" s="58">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="20"/>
+      <c r="B29" s="51">
+        <v>243</v>
+      </c>
+      <c r="C29" s="58">
+        <v>264</v>
+      </c>
+      <c r="D29" s="58">
+        <v>294</v>
+      </c>
+      <c r="E29" s="58">
+        <v>264</v>
+      </c>
+      <c r="F29" s="58">
+        <v>294</v>
+      </c>
+      <c r="G29" s="58">
+        <v>243</v>
+      </c>
+      <c r="I29" s="35"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="51">
+        <v>166</v>
+      </c>
+      <c r="L29" s="58">
+        <v>223</v>
+      </c>
+      <c r="M29" s="58">
+        <v>341</v>
+      </c>
+      <c r="N29" s="58">
+        <v>223</v>
+      </c>
+      <c r="O29" s="58">
+        <v>341</v>
+      </c>
+      <c r="P29" s="58">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="20"/>
+      <c r="B30" s="51">
+        <v>255</v>
+      </c>
+      <c r="C30" s="58">
+        <v>276</v>
+      </c>
+      <c r="D30" s="58">
+        <v>294</v>
+      </c>
+      <c r="E30" s="58">
+        <v>276</v>
+      </c>
+      <c r="F30" s="58">
+        <v>294</v>
+      </c>
+      <c r="G30" s="58">
+        <v>255</v>
+      </c>
+      <c r="I30" s="35"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="51">
+        <v>182</v>
+      </c>
+      <c r="L30" s="58">
+        <v>190</v>
+      </c>
+      <c r="M30" s="58">
+        <v>210</v>
+      </c>
+      <c r="N30" s="58">
+        <v>190</v>
+      </c>
+      <c r="O30" s="58">
+        <v>210</v>
+      </c>
+      <c r="P30" s="58">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" s="20"/>
+      <c r="B31" s="51">
+        <v>255</v>
+      </c>
+      <c r="C31" s="58">
+        <v>276</v>
+      </c>
+      <c r="D31" s="58">
+        <v>304</v>
+      </c>
+      <c r="E31" s="58">
+        <v>276</v>
+      </c>
+      <c r="F31" s="58">
+        <v>304</v>
+      </c>
+      <c r="G31" s="58">
+        <v>255</v>
+      </c>
+      <c r="I31" s="35"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="51">
+        <v>182</v>
+      </c>
+      <c r="L31" s="58">
+        <v>190</v>
+      </c>
+      <c r="M31" s="58">
+        <v>176</v>
+      </c>
+      <c r="N31" s="58">
+        <v>190</v>
+      </c>
+      <c r="O31" s="58">
+        <v>176</v>
+      </c>
+      <c r="P31" s="58">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="20"/>
+      <c r="B32" s="51">
+        <v>255</v>
+      </c>
+      <c r="C32" s="58">
+        <v>276</v>
+      </c>
+      <c r="D32" s="58">
+        <v>304</v>
+      </c>
+      <c r="E32" s="58">
+        <v>276</v>
+      </c>
+      <c r="F32" s="58">
+        <v>304</v>
+      </c>
+      <c r="G32" s="58">
+        <v>255</v>
+      </c>
+      <c r="I32" s="35"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="51">
+        <v>182</v>
+      </c>
+      <c r="L32" s="58">
+        <v>218</v>
+      </c>
+      <c r="M32" s="58">
+        <v>148</v>
+      </c>
+      <c r="N32" s="58">
+        <v>218</v>
+      </c>
+      <c r="O32" s="58">
+        <v>148</v>
+      </c>
+      <c r="P32" s="58">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33" s="20"/>
+      <c r="B33" s="51">
+        <v>255</v>
+      </c>
+      <c r="C33" s="58">
+        <v>276</v>
+      </c>
+      <c r="D33" s="58">
+        <v>304</v>
+      </c>
+      <c r="E33" s="58">
+        <v>276</v>
+      </c>
+      <c r="F33" s="58">
+        <v>304</v>
+      </c>
+      <c r="G33" s="58">
+        <v>255</v>
+      </c>
+      <c r="I33" s="35"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="51">
+        <v>157</v>
+      </c>
+      <c r="L33" s="58">
+        <v>162</v>
+      </c>
+      <c r="M33" s="58">
+        <v>148</v>
+      </c>
+      <c r="N33" s="58">
+        <v>162</v>
+      </c>
+      <c r="O33" s="58">
+        <v>148</v>
+      </c>
+      <c r="P33" s="58">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34" s="20"/>
+      <c r="B34" s="51">
+        <v>255</v>
+      </c>
+      <c r="C34" s="58">
+        <v>276</v>
+      </c>
+      <c r="D34" s="58">
+        <v>304</v>
+      </c>
+      <c r="E34" s="58">
+        <v>276</v>
+      </c>
+      <c r="F34" s="58">
+        <v>304</v>
+      </c>
+      <c r="G34" s="58">
+        <v>255</v>
+      </c>
+      <c r="I34" s="35"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="51">
+        <v>167</v>
+      </c>
+      <c r="L34" s="58">
+        <v>203</v>
+      </c>
+      <c r="M34" s="58">
+        <v>148</v>
+      </c>
+      <c r="N34" s="58">
+        <v>203</v>
+      </c>
+      <c r="O34" s="58">
+        <v>148</v>
+      </c>
+      <c r="P34" s="58">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A35" s="20"/>
+      <c r="B35" s="51">
+        <v>239</v>
+      </c>
+      <c r="C35" s="58">
+        <v>260</v>
+      </c>
+      <c r="D35" s="58">
+        <v>304</v>
+      </c>
+      <c r="E35" s="58">
+        <v>260</v>
+      </c>
+      <c r="F35" s="58">
+        <v>304</v>
+      </c>
+      <c r="G35" s="58">
+        <v>239</v>
+      </c>
+      <c r="I35" s="35"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="51">
+        <v>143</v>
+      </c>
+      <c r="L35" s="58">
+        <v>179</v>
+      </c>
+      <c r="M35" s="58">
+        <v>148</v>
+      </c>
+      <c r="N35" s="58">
+        <v>179</v>
+      </c>
+      <c r="O35" s="58">
+        <v>148</v>
+      </c>
+      <c r="P35" s="58">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A36" s="20"/>
+      <c r="B36" s="51">
+        <v>239</v>
+      </c>
+      <c r="C36" s="58">
+        <v>260</v>
+      </c>
+      <c r="D36" s="58">
+        <v>304</v>
+      </c>
+      <c r="E36" s="58">
+        <v>260</v>
+      </c>
+      <c r="F36" s="58">
+        <v>304</v>
+      </c>
+      <c r="G36" s="58">
+        <v>239</v>
+      </c>
+      <c r="I36" s="35"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="51">
+        <v>143</v>
+      </c>
+      <c r="L36" s="58">
+        <v>205</v>
+      </c>
+      <c r="M36" s="58">
+        <v>148</v>
+      </c>
+      <c r="N36" s="58">
+        <v>205</v>
+      </c>
+      <c r="O36" s="58">
+        <v>148</v>
+      </c>
+      <c r="P36" s="58">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A37" s="20"/>
+      <c r="B37" s="51">
+        <v>262</v>
+      </c>
+      <c r="C37" s="58">
+        <v>272</v>
+      </c>
+      <c r="D37" s="58">
+        <v>304</v>
+      </c>
+      <c r="E37" s="58">
+        <v>272</v>
+      </c>
+      <c r="F37" s="58">
+        <v>304</v>
+      </c>
+      <c r="G37" s="58">
+        <v>262</v>
+      </c>
+      <c r="I37" s="35"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="51">
+        <v>346</v>
+      </c>
+      <c r="L37" s="58">
+        <v>293</v>
+      </c>
+      <c r="M37" s="58">
+        <v>417</v>
+      </c>
+      <c r="N37" s="58">
+        <v>293</v>
+      </c>
+      <c r="O37" s="58">
+        <v>417</v>
+      </c>
+      <c r="P37" s="58">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="22"/>
+      <c r="B38" s="52">
+        <v>262</v>
+      </c>
+      <c r="C38" s="3">
+        <v>272</v>
+      </c>
+      <c r="D38" s="3">
+        <v>304</v>
+      </c>
+      <c r="E38" s="3">
+        <v>272</v>
+      </c>
+      <c r="F38" s="3">
+        <v>304</v>
+      </c>
+      <c r="G38" s="3">
+        <v>262</v>
+      </c>
+      <c r="H38" s="73"/>
+      <c r="I38" s="73"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="52">
+        <v>346</v>
+      </c>
+      <c r="L38" s="3">
+        <v>319</v>
+      </c>
+      <c r="M38" s="3">
+        <v>417</v>
+      </c>
+      <c r="N38" s="3">
+        <v>319</v>
+      </c>
+      <c r="O38" s="3">
+        <v>417</v>
+      </c>
+      <c r="P38" s="3">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A39" s="20"/>
+      <c r="B39" s="51"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="42"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="51"/>
+      <c r="L39" s="51"/>
+      <c r="M39" s="51"/>
+      <c r="N39" s="51"/>
+      <c r="O39" s="58"/>
+      <c r="P39" s="42"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A40" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="53">
+        <f>AVERAGE(B4:B38)</f>
+        <v>224.2</v>
+      </c>
+      <c r="C40" s="53">
+        <f>AVERAGE(C4:C38)</f>
+        <v>239.22857142857143</v>
+      </c>
+      <c r="D40" s="53">
+        <f>AVERAGE(D4:D38)</f>
+        <v>264.25714285714287</v>
+      </c>
+      <c r="E40" s="53">
+        <f>AVERAGE(E4:E38)</f>
+        <v>239.22857142857143</v>
+      </c>
+      <c r="F40" s="6">
+        <f>AVERAGE(F4:F38)</f>
+        <v>264.25714285714287</v>
+      </c>
+      <c r="G40" s="6">
+        <f>AVERAGE(G4:G38)</f>
+        <v>224.2</v>
+      </c>
+      <c r="H40" s="26"/>
+      <c r="I40" s="56"/>
+      <c r="J40" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="K40" s="53">
+        <f>AVERAGE(K4:K38)</f>
+        <v>263.05714285714288</v>
+      </c>
+      <c r="L40" s="53">
+        <f>AVERAGE(L4:L38)</f>
+        <v>239.4</v>
+      </c>
+      <c r="M40" s="53">
+        <f>AVERAGE(M4:M38)</f>
+        <v>253.14285714285714</v>
+      </c>
+      <c r="N40" s="53">
+        <f>AVERAGE(N4:N38)</f>
+        <v>239.4</v>
+      </c>
+      <c r="O40" s="6">
+        <f>AVERAGE(O4:O38)</f>
+        <v>253.14285714285714</v>
+      </c>
+      <c r="P40" s="6">
+        <f>AVERAGE(P4:P38)</f>
+        <v>263.05714285714288</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A41" s="23"/>
+      <c r="B41" s="53"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="56"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="53"/>
+      <c r="L41" s="53"/>
+      <c r="M41" s="53"/>
+      <c r="N41" s="53"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A42" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="53">
+        <f>_xlfn.STDEV.S(B4:B38)</f>
+        <v>36.531050451072801</v>
+      </c>
+      <c r="C42" s="53">
+        <f>_xlfn.STDEV.S(C4:C38)</f>
+        <v>46.060756369288221</v>
+      </c>
+      <c r="D42" s="53">
+        <f>_xlfn.STDEV.S(D4:D38)</f>
+        <v>36.012532832451626</v>
+      </c>
+      <c r="E42" s="53">
+        <f>_xlfn.STDEV.S(E4:E38)</f>
+        <v>46.060756369288221</v>
+      </c>
+      <c r="F42" s="6">
+        <f>_xlfn.STDEV.S(F4:F38)</f>
+        <v>36.012532832451626</v>
+      </c>
+      <c r="G42" s="6">
+        <f>_xlfn.STDEV.S(G4:G38)</f>
+        <v>36.531050451072801</v>
+      </c>
+      <c r="H42" s="26"/>
+      <c r="I42" s="56"/>
+      <c r="J42" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="K42" s="53">
+        <f>_xlfn.STDEV.S(K4:K38)</f>
+        <v>94.460991904577384</v>
+      </c>
+      <c r="L42" s="53">
+        <f>_xlfn.STDEV.S(L4:L38)</f>
+        <v>43.395039022504669</v>
+      </c>
+      <c r="M42" s="53">
+        <f>_xlfn.STDEV.S(M4:M38)</f>
+        <v>104.71730652434817</v>
+      </c>
+      <c r="N42" s="53">
+        <f>_xlfn.STDEV.S(N4:N38)</f>
+        <v>43.395039022504669</v>
+      </c>
+      <c r="O42" s="6">
+        <f>_xlfn.STDEV.S(O4:O38)</f>
+        <v>104.71730652434817</v>
+      </c>
+      <c r="P42" s="6">
+        <f>_xlfn.STDEV.S(P4:P38)</f>
+        <v>94.460991904577384</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A43" s="23"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="56"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="53"/>
+      <c r="L43" s="53"/>
+      <c r="M43" s="53"/>
+      <c r="N43" s="53"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+    </row>
+    <row r="44" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="54">
+        <f>_xlfn.CONFIDENCE.NORM(0.05,B42,35)</f>
+        <v>12.102531714676296</v>
+      </c>
+      <c r="C44" s="54">
+        <f t="shared" ref="C44:G44" si="0">_xlfn.CONFIDENCE.NORM(0.05,C42,35)</f>
+        <v>15.259669729670156</v>
+      </c>
+      <c r="D44" s="54">
+        <f t="shared" si="0"/>
+        <v>11.930749741628848</v>
+      </c>
+      <c r="E44" s="54">
+        <f t="shared" si="0"/>
+        <v>15.259669729670156</v>
+      </c>
+      <c r="F44" s="54">
+        <f t="shared" si="0"/>
+        <v>11.930749741628848</v>
+      </c>
+      <c r="G44" s="8">
+        <f t="shared" si="0"/>
+        <v>12.102531714676296</v>
+      </c>
+      <c r="H44" s="26"/>
+      <c r="I44" s="56"/>
+      <c r="J44" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="K44" s="54">
+        <f>_xlfn.CONFIDENCE.NORM(0.05,K42,40)</f>
+        <v>29.273226764509225</v>
+      </c>
+      <c r="L44" s="54">
+        <f t="shared" ref="L44:P44" si="1">_xlfn.CONFIDENCE.NORM(0.05,L42,40)</f>
+        <v>13.448014806405492</v>
+      </c>
+      <c r="M44" s="54">
+        <f t="shared" si="1"/>
+        <v>32.451633190052519</v>
+      </c>
+      <c r="N44" s="54">
+        <f t="shared" si="1"/>
+        <v>13.448014806405492</v>
+      </c>
+      <c r="O44" s="8">
+        <f t="shared" si="1"/>
+        <v>32.451633190052519</v>
+      </c>
+      <c r="P44" s="8">
+        <f t="shared" si="1"/>
+        <v>29.273226764509225</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A45" s="23"/>
+      <c r="B45" s="55"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="56"/>
+      <c r="J45" s="23"/>
+      <c r="K45" s="55"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+    </row>
+    <row r="46" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46" s="8">
+        <f>AVERAGE(B40:G40)</f>
+        <v>242.56190476190477</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="56"/>
+      <c r="J46" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="K46" s="8">
+        <f>AVERAGE(K40:P40)</f>
+        <v>251.86666666666667</v>
+      </c>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="J1:P1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E741BD8E-F329-4A9D-BAC2-C03CF5D0EF3C}">
   <dimension ref="A1:CS46"/>
   <sheetViews>
@@ -20296,114 +22108,114 @@
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="68" t="s">
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="66"/>
-      <c r="AA1" s="66"/>
-      <c r="AB1" s="66"/>
-      <c r="AC1" s="66"/>
-      <c r="AD1" s="66"/>
-      <c r="AE1" s="66"/>
-      <c r="AF1" s="66"/>
-      <c r="AG1" s="67"/>
-      <c r="AH1" s="63" t="s">
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67"/>
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="67"/>
+      <c r="AE1" s="67"/>
+      <c r="AF1" s="67"/>
+      <c r="AG1" s="68"/>
+      <c r="AH1" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="AI1" s="64"/>
-      <c r="AJ1" s="64"/>
-      <c r="AK1" s="64"/>
-      <c r="AL1" s="64"/>
-      <c r="AM1" s="64"/>
-      <c r="AN1" s="64"/>
-      <c r="AO1" s="64"/>
-      <c r="AP1" s="64"/>
-      <c r="AQ1" s="64"/>
-      <c r="AR1" s="64"/>
-      <c r="AS1" s="64"/>
-      <c r="AT1" s="64"/>
-      <c r="AU1" s="64"/>
-      <c r="AV1" s="64"/>
-      <c r="AW1" s="65"/>
-      <c r="AX1" s="66" t="s">
+      <c r="AI1" s="65"/>
+      <c r="AJ1" s="65"/>
+      <c r="AK1" s="65"/>
+      <c r="AL1" s="65"/>
+      <c r="AM1" s="65"/>
+      <c r="AN1" s="65"/>
+      <c r="AO1" s="65"/>
+      <c r="AP1" s="65"/>
+      <c r="AQ1" s="65"/>
+      <c r="AR1" s="65"/>
+      <c r="AS1" s="65"/>
+      <c r="AT1" s="65"/>
+      <c r="AU1" s="65"/>
+      <c r="AV1" s="65"/>
+      <c r="AW1" s="66"/>
+      <c r="AX1" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="AY1" s="66"/>
-      <c r="AZ1" s="66"/>
-      <c r="BA1" s="66"/>
-      <c r="BB1" s="66"/>
-      <c r="BC1" s="66"/>
-      <c r="BD1" s="66"/>
-      <c r="BE1" s="66"/>
-      <c r="BF1" s="66"/>
-      <c r="BG1" s="66"/>
-      <c r="BH1" s="66"/>
-      <c r="BI1" s="66"/>
-      <c r="BJ1" s="66"/>
-      <c r="BK1" s="66"/>
-      <c r="BL1" s="66"/>
-      <c r="BM1" s="67"/>
-      <c r="BN1" s="66" t="s">
+      <c r="AY1" s="67"/>
+      <c r="AZ1" s="67"/>
+      <c r="BA1" s="67"/>
+      <c r="BB1" s="67"/>
+      <c r="BC1" s="67"/>
+      <c r="BD1" s="67"/>
+      <c r="BE1" s="67"/>
+      <c r="BF1" s="67"/>
+      <c r="BG1" s="67"/>
+      <c r="BH1" s="67"/>
+      <c r="BI1" s="67"/>
+      <c r="BJ1" s="67"/>
+      <c r="BK1" s="67"/>
+      <c r="BL1" s="67"/>
+      <c r="BM1" s="68"/>
+      <c r="BN1" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="BO1" s="66"/>
-      <c r="BP1" s="66"/>
-      <c r="BQ1" s="66"/>
-      <c r="BR1" s="66"/>
-      <c r="BS1" s="66"/>
-      <c r="BT1" s="66"/>
-      <c r="BU1" s="66"/>
-      <c r="BV1" s="66"/>
-      <c r="BW1" s="66"/>
-      <c r="BX1" s="66"/>
-      <c r="BY1" s="66"/>
-      <c r="BZ1" s="66"/>
-      <c r="CA1" s="66"/>
-      <c r="CB1" s="66"/>
-      <c r="CC1" s="67"/>
-      <c r="CD1" s="66" t="s">
+      <c r="BO1" s="67"/>
+      <c r="BP1" s="67"/>
+      <c r="BQ1" s="67"/>
+      <c r="BR1" s="67"/>
+      <c r="BS1" s="67"/>
+      <c r="BT1" s="67"/>
+      <c r="BU1" s="67"/>
+      <c r="BV1" s="67"/>
+      <c r="BW1" s="67"/>
+      <c r="BX1" s="67"/>
+      <c r="BY1" s="67"/>
+      <c r="BZ1" s="67"/>
+      <c r="CA1" s="67"/>
+      <c r="CB1" s="67"/>
+      <c r="CC1" s="68"/>
+      <c r="CD1" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="CE1" s="66"/>
-      <c r="CF1" s="66"/>
-      <c r="CG1" s="66"/>
-      <c r="CH1" s="66"/>
-      <c r="CI1" s="66"/>
-      <c r="CJ1" s="66"/>
-      <c r="CK1" s="66"/>
-      <c r="CL1" s="66"/>
-      <c r="CM1" s="66"/>
-      <c r="CN1" s="66"/>
-      <c r="CO1" s="66"/>
-      <c r="CP1" s="66"/>
-      <c r="CQ1" s="66"/>
-      <c r="CR1" s="66"/>
-      <c r="CS1" s="67"/>
+      <c r="CE1" s="67"/>
+      <c r="CF1" s="67"/>
+      <c r="CG1" s="67"/>
+      <c r="CH1" s="67"/>
+      <c r="CI1" s="67"/>
+      <c r="CJ1" s="67"/>
+      <c r="CK1" s="67"/>
+      <c r="CL1" s="67"/>
+      <c r="CM1" s="67"/>
+      <c r="CN1" s="67"/>
+      <c r="CO1" s="67"/>
+      <c r="CP1" s="67"/>
+      <c r="CQ1" s="67"/>
+      <c r="CR1" s="67"/>
+      <c r="CS1" s="68"/>
     </row>
     <row r="2" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A2" s="12"/>
@@ -31125,7 +32937,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F24C38-3DA2-4AE0-B9BB-0958C9CC608A}">
   <dimension ref="A1:CS46"/>
   <sheetViews>
@@ -31154,114 +32966,114 @@
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="68" t="s">
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="66"/>
-      <c r="AA1" s="66"/>
-      <c r="AB1" s="66"/>
-      <c r="AC1" s="66"/>
-      <c r="AD1" s="66"/>
-      <c r="AE1" s="66"/>
-      <c r="AF1" s="66"/>
-      <c r="AG1" s="67"/>
-      <c r="AH1" s="63" t="s">
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67"/>
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="67"/>
+      <c r="AE1" s="67"/>
+      <c r="AF1" s="67"/>
+      <c r="AG1" s="68"/>
+      <c r="AH1" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="AI1" s="64"/>
-      <c r="AJ1" s="64"/>
-      <c r="AK1" s="64"/>
-      <c r="AL1" s="64"/>
-      <c r="AM1" s="64"/>
-      <c r="AN1" s="64"/>
-      <c r="AO1" s="64"/>
-      <c r="AP1" s="64"/>
-      <c r="AQ1" s="64"/>
-      <c r="AR1" s="64"/>
-      <c r="AS1" s="64"/>
-      <c r="AT1" s="64"/>
-      <c r="AU1" s="64"/>
-      <c r="AV1" s="64"/>
-      <c r="AW1" s="65"/>
-      <c r="AX1" s="66" t="s">
+      <c r="AI1" s="65"/>
+      <c r="AJ1" s="65"/>
+      <c r="AK1" s="65"/>
+      <c r="AL1" s="65"/>
+      <c r="AM1" s="65"/>
+      <c r="AN1" s="65"/>
+      <c r="AO1" s="65"/>
+      <c r="AP1" s="65"/>
+      <c r="AQ1" s="65"/>
+      <c r="AR1" s="65"/>
+      <c r="AS1" s="65"/>
+      <c r="AT1" s="65"/>
+      <c r="AU1" s="65"/>
+      <c r="AV1" s="65"/>
+      <c r="AW1" s="66"/>
+      <c r="AX1" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="AY1" s="66"/>
-      <c r="AZ1" s="66"/>
-      <c r="BA1" s="66"/>
-      <c r="BB1" s="66"/>
-      <c r="BC1" s="66"/>
-      <c r="BD1" s="66"/>
-      <c r="BE1" s="66"/>
-      <c r="BF1" s="66"/>
-      <c r="BG1" s="66"/>
-      <c r="BH1" s="66"/>
-      <c r="BI1" s="66"/>
-      <c r="BJ1" s="66"/>
-      <c r="BK1" s="66"/>
-      <c r="BL1" s="66"/>
-      <c r="BM1" s="67"/>
-      <c r="BN1" s="66" t="s">
+      <c r="AY1" s="67"/>
+      <c r="AZ1" s="67"/>
+      <c r="BA1" s="67"/>
+      <c r="BB1" s="67"/>
+      <c r="BC1" s="67"/>
+      <c r="BD1" s="67"/>
+      <c r="BE1" s="67"/>
+      <c r="BF1" s="67"/>
+      <c r="BG1" s="67"/>
+      <c r="BH1" s="67"/>
+      <c r="BI1" s="67"/>
+      <c r="BJ1" s="67"/>
+      <c r="BK1" s="67"/>
+      <c r="BL1" s="67"/>
+      <c r="BM1" s="68"/>
+      <c r="BN1" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="BO1" s="66"/>
-      <c r="BP1" s="66"/>
-      <c r="BQ1" s="66"/>
-      <c r="BR1" s="66"/>
-      <c r="BS1" s="66"/>
-      <c r="BT1" s="66"/>
-      <c r="BU1" s="66"/>
-      <c r="BV1" s="66"/>
-      <c r="BW1" s="66"/>
-      <c r="BX1" s="66"/>
-      <c r="BY1" s="66"/>
-      <c r="BZ1" s="66"/>
-      <c r="CA1" s="66"/>
-      <c r="CB1" s="66"/>
-      <c r="CC1" s="67"/>
-      <c r="CD1" s="66" t="s">
+      <c r="BO1" s="67"/>
+      <c r="BP1" s="67"/>
+      <c r="BQ1" s="67"/>
+      <c r="BR1" s="67"/>
+      <c r="BS1" s="67"/>
+      <c r="BT1" s="67"/>
+      <c r="BU1" s="67"/>
+      <c r="BV1" s="67"/>
+      <c r="BW1" s="67"/>
+      <c r="BX1" s="67"/>
+      <c r="BY1" s="67"/>
+      <c r="BZ1" s="67"/>
+      <c r="CA1" s="67"/>
+      <c r="CB1" s="67"/>
+      <c r="CC1" s="68"/>
+      <c r="CD1" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="CE1" s="66"/>
-      <c r="CF1" s="66"/>
-      <c r="CG1" s="66"/>
-      <c r="CH1" s="66"/>
-      <c r="CI1" s="66"/>
-      <c r="CJ1" s="66"/>
-      <c r="CK1" s="66"/>
-      <c r="CL1" s="66"/>
-      <c r="CM1" s="66"/>
-      <c r="CN1" s="66"/>
-      <c r="CO1" s="66"/>
-      <c r="CP1" s="66"/>
-      <c r="CQ1" s="66"/>
-      <c r="CR1" s="66"/>
-      <c r="CS1" s="67"/>
+      <c r="CE1" s="67"/>
+      <c r="CF1" s="67"/>
+      <c r="CG1" s="67"/>
+      <c r="CH1" s="67"/>
+      <c r="CI1" s="67"/>
+      <c r="CJ1" s="67"/>
+      <c r="CK1" s="67"/>
+      <c r="CL1" s="67"/>
+      <c r="CM1" s="67"/>
+      <c r="CN1" s="67"/>
+      <c r="CO1" s="67"/>
+      <c r="CP1" s="67"/>
+      <c r="CQ1" s="67"/>
+      <c r="CR1" s="67"/>
+      <c r="CS1" s="68"/>
     </row>
     <row r="2" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A2" s="16"/>
@@ -42156,7 +43968,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD29032-954F-457A-A856-7615B2A12CA7}">
   <dimension ref="A1:CS43"/>
   <sheetViews>
@@ -42185,114 +43997,114 @@
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="68" t="s">
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="66"/>
-      <c r="AA1" s="66"/>
-      <c r="AB1" s="66"/>
-      <c r="AC1" s="66"/>
-      <c r="AD1" s="66"/>
-      <c r="AE1" s="66"/>
-      <c r="AF1" s="66"/>
-      <c r="AG1" s="67"/>
-      <c r="AH1" s="63" t="s">
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67"/>
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="67"/>
+      <c r="AE1" s="67"/>
+      <c r="AF1" s="67"/>
+      <c r="AG1" s="68"/>
+      <c r="AH1" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="AI1" s="64"/>
-      <c r="AJ1" s="64"/>
-      <c r="AK1" s="64"/>
-      <c r="AL1" s="64"/>
-      <c r="AM1" s="64"/>
-      <c r="AN1" s="64"/>
-      <c r="AO1" s="64"/>
-      <c r="AP1" s="64"/>
-      <c r="AQ1" s="64"/>
-      <c r="AR1" s="64"/>
-      <c r="AS1" s="64"/>
-      <c r="AT1" s="64"/>
-      <c r="AU1" s="64"/>
-      <c r="AV1" s="64"/>
-      <c r="AW1" s="65"/>
-      <c r="AX1" s="66" t="s">
+      <c r="AI1" s="65"/>
+      <c r="AJ1" s="65"/>
+      <c r="AK1" s="65"/>
+      <c r="AL1" s="65"/>
+      <c r="AM1" s="65"/>
+      <c r="AN1" s="65"/>
+      <c r="AO1" s="65"/>
+      <c r="AP1" s="65"/>
+      <c r="AQ1" s="65"/>
+      <c r="AR1" s="65"/>
+      <c r="AS1" s="65"/>
+      <c r="AT1" s="65"/>
+      <c r="AU1" s="65"/>
+      <c r="AV1" s="65"/>
+      <c r="AW1" s="66"/>
+      <c r="AX1" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="AY1" s="66"/>
-      <c r="AZ1" s="66"/>
-      <c r="BA1" s="66"/>
-      <c r="BB1" s="66"/>
-      <c r="BC1" s="66"/>
-      <c r="BD1" s="66"/>
-      <c r="BE1" s="66"/>
-      <c r="BF1" s="66"/>
-      <c r="BG1" s="66"/>
-      <c r="BH1" s="66"/>
-      <c r="BI1" s="66"/>
-      <c r="BJ1" s="66"/>
-      <c r="BK1" s="66"/>
-      <c r="BL1" s="66"/>
-      <c r="BM1" s="67"/>
-      <c r="BN1" s="66" t="s">
+      <c r="AY1" s="67"/>
+      <c r="AZ1" s="67"/>
+      <c r="BA1" s="67"/>
+      <c r="BB1" s="67"/>
+      <c r="BC1" s="67"/>
+      <c r="BD1" s="67"/>
+      <c r="BE1" s="67"/>
+      <c r="BF1" s="67"/>
+      <c r="BG1" s="67"/>
+      <c r="BH1" s="67"/>
+      <c r="BI1" s="67"/>
+      <c r="BJ1" s="67"/>
+      <c r="BK1" s="67"/>
+      <c r="BL1" s="67"/>
+      <c r="BM1" s="68"/>
+      <c r="BN1" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="BO1" s="66"/>
-      <c r="BP1" s="66"/>
-      <c r="BQ1" s="66"/>
-      <c r="BR1" s="66"/>
-      <c r="BS1" s="66"/>
-      <c r="BT1" s="66"/>
-      <c r="BU1" s="66"/>
-      <c r="BV1" s="66"/>
-      <c r="BW1" s="66"/>
-      <c r="BX1" s="66"/>
-      <c r="BY1" s="66"/>
-      <c r="BZ1" s="66"/>
-      <c r="CA1" s="66"/>
-      <c r="CB1" s="66"/>
-      <c r="CC1" s="67"/>
-      <c r="CD1" s="66" t="s">
+      <c r="BO1" s="67"/>
+      <c r="BP1" s="67"/>
+      <c r="BQ1" s="67"/>
+      <c r="BR1" s="67"/>
+      <c r="BS1" s="67"/>
+      <c r="BT1" s="67"/>
+      <c r="BU1" s="67"/>
+      <c r="BV1" s="67"/>
+      <c r="BW1" s="67"/>
+      <c r="BX1" s="67"/>
+      <c r="BY1" s="67"/>
+      <c r="BZ1" s="67"/>
+      <c r="CA1" s="67"/>
+      <c r="CB1" s="67"/>
+      <c r="CC1" s="68"/>
+      <c r="CD1" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="CE1" s="66"/>
-      <c r="CF1" s="66"/>
-      <c r="CG1" s="66"/>
-      <c r="CH1" s="66"/>
-      <c r="CI1" s="66"/>
-      <c r="CJ1" s="66"/>
-      <c r="CK1" s="66"/>
-      <c r="CL1" s="66"/>
-      <c r="CM1" s="66"/>
-      <c r="CN1" s="66"/>
-      <c r="CO1" s="66"/>
-      <c r="CP1" s="66"/>
-      <c r="CQ1" s="66"/>
-      <c r="CR1" s="66"/>
-      <c r="CS1" s="67"/>
+      <c r="CE1" s="67"/>
+      <c r="CF1" s="67"/>
+      <c r="CG1" s="67"/>
+      <c r="CH1" s="67"/>
+      <c r="CI1" s="67"/>
+      <c r="CJ1" s="67"/>
+      <c r="CK1" s="67"/>
+      <c r="CL1" s="67"/>
+      <c r="CM1" s="67"/>
+      <c r="CN1" s="67"/>
+      <c r="CO1" s="67"/>
+      <c r="CP1" s="67"/>
+      <c r="CQ1" s="67"/>
+      <c r="CR1" s="67"/>
+      <c r="CS1" s="68"/>
     </row>
     <row r="2" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A2" s="40"/>
@@ -53130,12 +54942,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03D66B45-AFBB-4B54-AE1B-19D8BA58799A}">
   <dimension ref="A1:CS43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -53159,114 +54971,114 @@
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="68" t="s">
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="66"/>
-      <c r="AA1" s="66"/>
-      <c r="AB1" s="66"/>
-      <c r="AC1" s="66"/>
-      <c r="AD1" s="66"/>
-      <c r="AE1" s="66"/>
-      <c r="AF1" s="66"/>
-      <c r="AG1" s="67"/>
-      <c r="AH1" s="63" t="s">
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67"/>
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="67"/>
+      <c r="AE1" s="67"/>
+      <c r="AF1" s="67"/>
+      <c r="AG1" s="68"/>
+      <c r="AH1" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="AI1" s="64"/>
-      <c r="AJ1" s="64"/>
-      <c r="AK1" s="64"/>
-      <c r="AL1" s="64"/>
-      <c r="AM1" s="64"/>
-      <c r="AN1" s="64"/>
-      <c r="AO1" s="64"/>
-      <c r="AP1" s="64"/>
-      <c r="AQ1" s="64"/>
-      <c r="AR1" s="64"/>
-      <c r="AS1" s="64"/>
-      <c r="AT1" s="64"/>
-      <c r="AU1" s="64"/>
-      <c r="AV1" s="64"/>
-      <c r="AW1" s="65"/>
-      <c r="AX1" s="66" t="s">
+      <c r="AI1" s="65"/>
+      <c r="AJ1" s="65"/>
+      <c r="AK1" s="65"/>
+      <c r="AL1" s="65"/>
+      <c r="AM1" s="65"/>
+      <c r="AN1" s="65"/>
+      <c r="AO1" s="65"/>
+      <c r="AP1" s="65"/>
+      <c r="AQ1" s="65"/>
+      <c r="AR1" s="65"/>
+      <c r="AS1" s="65"/>
+      <c r="AT1" s="65"/>
+      <c r="AU1" s="65"/>
+      <c r="AV1" s="65"/>
+      <c r="AW1" s="66"/>
+      <c r="AX1" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="AY1" s="66"/>
-      <c r="AZ1" s="66"/>
-      <c r="BA1" s="66"/>
-      <c r="BB1" s="66"/>
-      <c r="BC1" s="66"/>
-      <c r="BD1" s="66"/>
-      <c r="BE1" s="66"/>
-      <c r="BF1" s="66"/>
-      <c r="BG1" s="66"/>
-      <c r="BH1" s="66"/>
-      <c r="BI1" s="66"/>
-      <c r="BJ1" s="66"/>
-      <c r="BK1" s="66"/>
-      <c r="BL1" s="66"/>
-      <c r="BM1" s="67"/>
-      <c r="BN1" s="66" t="s">
+      <c r="AY1" s="67"/>
+      <c r="AZ1" s="67"/>
+      <c r="BA1" s="67"/>
+      <c r="BB1" s="67"/>
+      <c r="BC1" s="67"/>
+      <c r="BD1" s="67"/>
+      <c r="BE1" s="67"/>
+      <c r="BF1" s="67"/>
+      <c r="BG1" s="67"/>
+      <c r="BH1" s="67"/>
+      <c r="BI1" s="67"/>
+      <c r="BJ1" s="67"/>
+      <c r="BK1" s="67"/>
+      <c r="BL1" s="67"/>
+      <c r="BM1" s="68"/>
+      <c r="BN1" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="BO1" s="66"/>
-      <c r="BP1" s="66"/>
-      <c r="BQ1" s="66"/>
-      <c r="BR1" s="66"/>
-      <c r="BS1" s="66"/>
-      <c r="BT1" s="66"/>
-      <c r="BU1" s="66"/>
-      <c r="BV1" s="66"/>
-      <c r="BW1" s="66"/>
-      <c r="BX1" s="66"/>
-      <c r="BY1" s="66"/>
-      <c r="BZ1" s="66"/>
-      <c r="CA1" s="66"/>
-      <c r="CB1" s="66"/>
-      <c r="CC1" s="67"/>
-      <c r="CD1" s="66" t="s">
+      <c r="BO1" s="67"/>
+      <c r="BP1" s="67"/>
+      <c r="BQ1" s="67"/>
+      <c r="BR1" s="67"/>
+      <c r="BS1" s="67"/>
+      <c r="BT1" s="67"/>
+      <c r="BU1" s="67"/>
+      <c r="BV1" s="67"/>
+      <c r="BW1" s="67"/>
+      <c r="BX1" s="67"/>
+      <c r="BY1" s="67"/>
+      <c r="BZ1" s="67"/>
+      <c r="CA1" s="67"/>
+      <c r="CB1" s="67"/>
+      <c r="CC1" s="68"/>
+      <c r="CD1" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="CE1" s="66"/>
-      <c r="CF1" s="66"/>
-      <c r="CG1" s="66"/>
-      <c r="CH1" s="66"/>
-      <c r="CI1" s="66"/>
-      <c r="CJ1" s="66"/>
-      <c r="CK1" s="66"/>
-      <c r="CL1" s="66"/>
-      <c r="CM1" s="66"/>
-      <c r="CN1" s="66"/>
-      <c r="CO1" s="66"/>
-      <c r="CP1" s="66"/>
-      <c r="CQ1" s="66"/>
-      <c r="CR1" s="66"/>
-      <c r="CS1" s="67"/>
+      <c r="CE1" s="67"/>
+      <c r="CF1" s="67"/>
+      <c r="CG1" s="67"/>
+      <c r="CH1" s="67"/>
+      <c r="CI1" s="67"/>
+      <c r="CJ1" s="67"/>
+      <c r="CK1" s="67"/>
+      <c r="CL1" s="67"/>
+      <c r="CM1" s="67"/>
+      <c r="CN1" s="67"/>
+      <c r="CO1" s="67"/>
+      <c r="CP1" s="67"/>
+      <c r="CQ1" s="67"/>
+      <c r="CR1" s="67"/>
+      <c r="CS1" s="68"/>
     </row>
     <row r="2" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A2" s="40"/>
@@ -53365,7 +55177,7 @@
       <c r="CP2" s="41"/>
       <c r="CQ2" s="41"/>
       <c r="CR2" s="41"/>
-      <c r="CS2" s="58"/>
+      <c r="CS2" s="57"/>
     </row>
     <row r="3" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -64101,2005 +65913,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3F1448B-9046-4895-AF26-0705232310C8}">
-  <dimension ref="A1:P52"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="69" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="71"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="70" t="s">
-        <v>37</v>
-      </c>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="71"/>
-    </row>
-    <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="44"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="3"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="3"/>
-    </row>
-    <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="M3" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="O3" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="P3" s="49" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51">
-        <v>75</v>
-      </c>
-      <c r="C4" s="29">
-        <v>52</v>
-      </c>
-      <c r="D4" s="43">
-        <v>136</v>
-      </c>
-      <c r="E4" s="51">
-        <v>61</v>
-      </c>
-      <c r="F4" s="29">
-        <v>75</v>
-      </c>
-      <c r="G4" s="29">
-        <v>23</v>
-      </c>
-      <c r="I4" s="35"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="52">
-        <v>310</v>
-      </c>
-      <c r="L4" s="42">
-        <v>153</v>
-      </c>
-      <c r="M4" s="42">
-        <v>135</v>
-      </c>
-      <c r="N4" s="42">
-        <v>135</v>
-      </c>
-      <c r="O4" s="42">
-        <v>0</v>
-      </c>
-      <c r="P4" s="42">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="50"/>
-      <c r="B5" s="52">
-        <v>77</v>
-      </c>
-      <c r="C5" s="42">
-        <v>52</v>
-      </c>
-      <c r="D5" s="42">
-        <v>136</v>
-      </c>
-      <c r="E5" s="42">
-        <v>61</v>
-      </c>
-      <c r="F5" s="42">
-        <v>75</v>
-      </c>
-      <c r="G5" s="42">
-        <v>25</v>
-      </c>
-      <c r="I5" s="35"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="52">
-        <v>310</v>
-      </c>
-      <c r="L5" s="42">
-        <v>153</v>
-      </c>
-      <c r="M5" s="42">
-        <v>135</v>
-      </c>
-      <c r="N5" s="42">
-        <v>135</v>
-      </c>
-      <c r="O5" s="42">
-        <v>0</v>
-      </c>
-      <c r="P5" s="42">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="50"/>
-      <c r="B6" s="52">
-        <v>77</v>
-      </c>
-      <c r="C6" s="42">
-        <v>52</v>
-      </c>
-      <c r="D6" s="42">
-        <v>70</v>
-      </c>
-      <c r="E6" s="42">
-        <v>61</v>
-      </c>
-      <c r="F6" s="42">
-        <v>9</v>
-      </c>
-      <c r="G6" s="42">
-        <v>25</v>
-      </c>
-      <c r="I6" s="35"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="52">
-        <v>310</v>
-      </c>
-      <c r="L6" s="42">
-        <v>153</v>
-      </c>
-      <c r="M6" s="42">
-        <v>135</v>
-      </c>
-      <c r="N6" s="42">
-        <v>135</v>
-      </c>
-      <c r="O6" s="42">
-        <v>0</v>
-      </c>
-      <c r="P6" s="42">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="50"/>
-      <c r="B7" s="52">
-        <v>21</v>
-      </c>
-      <c r="C7" s="42">
-        <v>10</v>
-      </c>
-      <c r="D7" s="42">
-        <v>30</v>
-      </c>
-      <c r="E7" s="42">
-        <v>21</v>
-      </c>
-      <c r="F7" s="42">
-        <v>9</v>
-      </c>
-      <c r="G7" s="42">
-        <v>11</v>
-      </c>
-      <c r="I7" s="35"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="52">
-        <v>90</v>
-      </c>
-      <c r="L7" s="42">
-        <v>68</v>
-      </c>
-      <c r="M7" s="42">
-        <v>218</v>
-      </c>
-      <c r="N7" s="42">
-        <v>26</v>
-      </c>
-      <c r="O7" s="42">
-        <v>192</v>
-      </c>
-      <c r="P7" s="42">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="20"/>
-      <c r="B8" s="52">
-        <v>25</v>
-      </c>
-      <c r="C8" s="42">
-        <v>14</v>
-      </c>
-      <c r="D8" s="42">
-        <v>30</v>
-      </c>
-      <c r="E8" s="42">
-        <v>21</v>
-      </c>
-      <c r="F8" s="42">
-        <v>9</v>
-      </c>
-      <c r="G8" s="42">
-        <v>11</v>
-      </c>
-      <c r="I8" s="35"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="52">
-        <v>63</v>
-      </c>
-      <c r="L8" s="42">
-        <v>102</v>
-      </c>
-      <c r="M8" s="42">
-        <v>127</v>
-      </c>
-      <c r="N8" s="42">
-        <v>55</v>
-      </c>
-      <c r="O8" s="42">
-        <v>64</v>
-      </c>
-      <c r="P8" s="42">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
-      <c r="B9" s="52">
-        <v>36</v>
-      </c>
-      <c r="C9" s="42">
-        <v>16</v>
-      </c>
-      <c r="D9" s="42">
-        <v>52</v>
-      </c>
-      <c r="E9" s="42">
-        <v>21</v>
-      </c>
-      <c r="F9" s="42">
-        <v>31</v>
-      </c>
-      <c r="G9" s="42">
-        <v>20</v>
-      </c>
-      <c r="I9" s="35"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="52">
-        <v>63</v>
-      </c>
-      <c r="L9" s="42">
-        <v>87</v>
-      </c>
-      <c r="M9" s="42">
-        <v>73</v>
-      </c>
-      <c r="N9" s="42">
-        <v>40</v>
-      </c>
-      <c r="O9" s="42">
-        <v>86</v>
-      </c>
-      <c r="P9" s="42">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
-      <c r="B10" s="52">
-        <v>66</v>
-      </c>
-      <c r="C10" s="42">
-        <v>39</v>
-      </c>
-      <c r="D10" s="42">
-        <v>70</v>
-      </c>
-      <c r="E10" s="42">
-        <v>29</v>
-      </c>
-      <c r="F10" s="42">
-        <v>41</v>
-      </c>
-      <c r="G10" s="42">
-        <v>27</v>
-      </c>
-      <c r="I10" s="35"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="52">
-        <v>63</v>
-      </c>
-      <c r="L10" s="42">
-        <v>76</v>
-      </c>
-      <c r="M10" s="42">
-        <v>73</v>
-      </c>
-      <c r="N10" s="42">
-        <v>40</v>
-      </c>
-      <c r="O10" s="42">
-        <v>86</v>
-      </c>
-      <c r="P10" s="42">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="20"/>
-      <c r="B11" s="52">
-        <v>75</v>
-      </c>
-      <c r="C11" s="42">
-        <v>48</v>
-      </c>
-      <c r="D11" s="42">
-        <v>79</v>
-      </c>
-      <c r="E11" s="42">
-        <v>29</v>
-      </c>
-      <c r="F11" s="42">
-        <v>50</v>
-      </c>
-      <c r="G11" s="42">
-        <v>27</v>
-      </c>
-      <c r="I11" s="35"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="52">
-        <v>63</v>
-      </c>
-      <c r="L11" s="42">
-        <v>79</v>
-      </c>
-      <c r="M11" s="42">
-        <v>73</v>
-      </c>
-      <c r="N11" s="42">
-        <v>43</v>
-      </c>
-      <c r="O11" s="42">
-        <v>101</v>
-      </c>
-      <c r="P11" s="42">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="20"/>
-      <c r="B12" s="52">
-        <v>82</v>
-      </c>
-      <c r="C12" s="42">
-        <v>51</v>
-      </c>
-      <c r="D12" s="42">
-        <v>100</v>
-      </c>
-      <c r="E12" s="42">
-        <v>34</v>
-      </c>
-      <c r="F12" s="42">
-        <v>66</v>
-      </c>
-      <c r="G12" s="42">
-        <v>31</v>
-      </c>
-      <c r="I12" s="35"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="52">
-        <v>41</v>
-      </c>
-      <c r="L12" s="42">
-        <v>68</v>
-      </c>
-      <c r="M12" s="42">
-        <v>52</v>
-      </c>
-      <c r="N12" s="42">
-        <v>43</v>
-      </c>
-      <c r="O12" s="42">
-        <v>80</v>
-      </c>
-      <c r="P12" s="42">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
-      <c r="B13" s="52">
-        <v>103</v>
-      </c>
-      <c r="C13" s="42">
-        <v>67</v>
-      </c>
-      <c r="D13" s="42">
-        <v>114</v>
-      </c>
-      <c r="E13" s="42">
-        <v>41</v>
-      </c>
-      <c r="F13" s="42">
-        <v>73</v>
-      </c>
-      <c r="G13" s="42">
-        <v>36</v>
-      </c>
-      <c r="I13" s="35"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="52">
-        <v>41</v>
-      </c>
-      <c r="L13" s="42">
-        <v>68</v>
-      </c>
-      <c r="M13" s="42">
-        <v>52</v>
-      </c>
-      <c r="N13" s="42">
-        <v>43</v>
-      </c>
-      <c r="O13" s="42">
-        <v>80</v>
-      </c>
-      <c r="P13" s="42">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="20"/>
-      <c r="B14" s="52">
-        <v>118</v>
-      </c>
-      <c r="C14" s="42">
-        <v>77</v>
-      </c>
-      <c r="D14" s="42">
-        <v>114</v>
-      </c>
-      <c r="E14" s="42">
-        <v>41</v>
-      </c>
-      <c r="F14" s="42">
-        <v>73</v>
-      </c>
-      <c r="G14" s="42">
-        <v>41</v>
-      </c>
-      <c r="I14" s="35"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="52">
-        <v>69</v>
-      </c>
-      <c r="L14" s="42">
-        <v>89</v>
-      </c>
-      <c r="M14" s="42">
-        <v>61</v>
-      </c>
-      <c r="N14" s="42">
-        <v>50</v>
-      </c>
-      <c r="O14" s="42">
-        <v>99</v>
-      </c>
-      <c r="P14" s="42">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="20"/>
-      <c r="B15" s="52">
-        <v>130</v>
-      </c>
-      <c r="C15" s="42">
-        <v>77</v>
-      </c>
-      <c r="D15" s="42">
-        <v>125</v>
-      </c>
-      <c r="E15" s="42">
-        <v>52</v>
-      </c>
-      <c r="F15" s="42">
-        <v>73</v>
-      </c>
-      <c r="G15" s="42">
-        <v>53</v>
-      </c>
-      <c r="I15" s="35"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="52">
-        <v>69</v>
-      </c>
-      <c r="L15" s="42">
-        <v>89</v>
-      </c>
-      <c r="M15" s="42">
-        <v>61</v>
-      </c>
-      <c r="N15" s="42">
-        <v>50</v>
-      </c>
-      <c r="O15" s="42">
-        <v>99</v>
-      </c>
-      <c r="P15" s="42">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="20"/>
-      <c r="B16" s="52">
-        <v>130</v>
-      </c>
-      <c r="C16" s="42">
-        <v>77</v>
-      </c>
-      <c r="D16" s="42">
-        <v>125</v>
-      </c>
-      <c r="E16" s="42">
-        <v>52</v>
-      </c>
-      <c r="F16" s="42">
-        <v>73</v>
-      </c>
-      <c r="G16" s="42">
-        <v>53</v>
-      </c>
-      <c r="I16" s="35"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="52">
-        <v>69</v>
-      </c>
-      <c r="L16" s="42">
-        <v>89</v>
-      </c>
-      <c r="M16" s="42">
-        <v>61</v>
-      </c>
-      <c r="N16" s="42">
-        <v>50</v>
-      </c>
-      <c r="O16" s="42">
-        <v>85</v>
-      </c>
-      <c r="P16" s="42">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="20"/>
-      <c r="B17" s="52">
-        <v>137</v>
-      </c>
-      <c r="C17" s="42">
-        <v>84</v>
-      </c>
-      <c r="D17" s="42">
-        <v>148</v>
-      </c>
-      <c r="E17" s="42">
-        <v>62</v>
-      </c>
-      <c r="F17" s="42">
-        <v>86</v>
-      </c>
-      <c r="G17" s="42">
-        <v>53</v>
-      </c>
-      <c r="I17" s="35"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="52">
-        <v>69</v>
-      </c>
-      <c r="L17" s="42">
-        <v>89</v>
-      </c>
-      <c r="M17" s="42">
-        <v>66</v>
-      </c>
-      <c r="N17" s="42">
-        <v>50</v>
-      </c>
-      <c r="O17" s="42">
-        <v>85</v>
-      </c>
-      <c r="P17" s="42">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="20"/>
-      <c r="B18" s="52">
-        <v>137</v>
-      </c>
-      <c r="C18" s="42">
-        <v>84</v>
-      </c>
-      <c r="D18" s="42">
-        <v>148</v>
-      </c>
-      <c r="E18" s="42">
-        <v>62</v>
-      </c>
-      <c r="F18" s="42">
-        <v>86</v>
-      </c>
-      <c r="G18" s="42">
-        <v>53</v>
-      </c>
-      <c r="I18" s="35"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="52">
-        <v>82</v>
-      </c>
-      <c r="L18" s="42">
-        <v>75</v>
-      </c>
-      <c r="M18" s="42">
-        <v>61</v>
-      </c>
-      <c r="N18" s="42">
-        <v>50</v>
-      </c>
-      <c r="O18" s="42">
-        <v>85</v>
-      </c>
-      <c r="P18" s="42">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="20"/>
-      <c r="B19" s="52">
-        <v>142</v>
-      </c>
-      <c r="C19" s="42">
-        <v>89</v>
-      </c>
-      <c r="D19" s="42">
-        <v>148</v>
-      </c>
-      <c r="E19" s="42">
-        <v>62</v>
-      </c>
-      <c r="F19" s="42">
-        <v>86</v>
-      </c>
-      <c r="G19" s="42">
-        <v>53</v>
-      </c>
-      <c r="I19" s="35"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="52">
-        <v>82</v>
-      </c>
-      <c r="L19" s="42">
-        <v>75</v>
-      </c>
-      <c r="M19" s="42">
-        <v>61</v>
-      </c>
-      <c r="N19" s="42">
-        <v>50</v>
-      </c>
-      <c r="O19" s="42">
-        <v>85</v>
-      </c>
-      <c r="P19" s="42">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="20"/>
-      <c r="B20" s="52">
-        <v>142</v>
-      </c>
-      <c r="C20" s="42">
-        <v>89</v>
-      </c>
-      <c r="D20" s="42">
-        <v>148</v>
-      </c>
-      <c r="E20" s="42">
-        <v>62</v>
-      </c>
-      <c r="F20" s="42">
-        <v>86</v>
-      </c>
-      <c r="G20" s="42">
-        <v>53</v>
-      </c>
-      <c r="I20" s="35"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="52">
-        <v>82</v>
-      </c>
-      <c r="L20" s="42">
-        <v>85</v>
-      </c>
-      <c r="M20" s="42">
-        <v>88</v>
-      </c>
-      <c r="N20" s="42">
-        <v>55</v>
-      </c>
-      <c r="O20" s="42">
-        <v>89</v>
-      </c>
-      <c r="P20" s="42">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="20"/>
-      <c r="B21" s="52">
-        <v>147</v>
-      </c>
-      <c r="C21" s="42">
-        <v>89</v>
-      </c>
-      <c r="D21" s="42">
-        <v>148</v>
-      </c>
-      <c r="E21" s="42">
-        <v>62</v>
-      </c>
-      <c r="F21" s="42">
-        <v>86</v>
-      </c>
-      <c r="G21" s="42">
-        <v>58</v>
-      </c>
-      <c r="I21" s="35"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="52">
-        <v>53</v>
-      </c>
-      <c r="L21" s="42">
-        <v>86</v>
-      </c>
-      <c r="M21" s="42">
-        <v>61</v>
-      </c>
-      <c r="N21" s="42">
-        <v>61</v>
-      </c>
-      <c r="O21" s="42">
-        <v>95</v>
-      </c>
-      <c r="P21" s="42">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="20"/>
-      <c r="B22" s="52">
-        <v>137</v>
-      </c>
-      <c r="C22" s="42">
-        <v>79</v>
-      </c>
-      <c r="D22" s="42">
-        <v>137</v>
-      </c>
-      <c r="E22" s="42">
-        <v>62</v>
-      </c>
-      <c r="F22" s="42">
-        <v>75</v>
-      </c>
-      <c r="G22" s="42">
-        <v>58</v>
-      </c>
-      <c r="I22" s="35"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="52">
-        <v>53</v>
-      </c>
-      <c r="L22" s="42">
-        <v>86</v>
-      </c>
-      <c r="M22" s="42">
-        <v>61</v>
-      </c>
-      <c r="N22" s="42">
-        <v>64</v>
-      </c>
-      <c r="O22" s="42">
-        <v>95</v>
-      </c>
-      <c r="P22" s="42">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="20"/>
-      <c r="B23" s="52">
-        <v>137</v>
-      </c>
-      <c r="C23" s="42">
-        <v>79</v>
-      </c>
-      <c r="D23" s="42">
-        <v>125</v>
-      </c>
-      <c r="E23" s="42">
-        <v>50</v>
-      </c>
-      <c r="F23" s="42">
-        <v>75</v>
-      </c>
-      <c r="G23" s="42">
-        <v>58</v>
-      </c>
-      <c r="I23" s="35"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="52">
-        <v>53</v>
-      </c>
-      <c r="L23" s="42">
-        <v>91</v>
-      </c>
-      <c r="M23" s="42">
-        <v>61</v>
-      </c>
-      <c r="N23" s="42">
-        <v>64</v>
-      </c>
-      <c r="O23" s="42">
-        <v>131</v>
-      </c>
-      <c r="P23" s="42">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="20"/>
-      <c r="B24" s="52">
-        <v>137</v>
-      </c>
-      <c r="C24" s="42">
-        <v>79</v>
-      </c>
-      <c r="D24" s="42">
-        <v>130</v>
-      </c>
-      <c r="E24" s="42">
-        <v>50</v>
-      </c>
-      <c r="F24" s="42">
-        <v>80</v>
-      </c>
-      <c r="G24" s="42">
-        <v>58</v>
-      </c>
-      <c r="I24" s="35"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="52">
-        <v>53</v>
-      </c>
-      <c r="L24" s="42">
-        <v>91</v>
-      </c>
-      <c r="M24" s="42">
-        <v>61</v>
-      </c>
-      <c r="N24" s="42">
-        <v>64</v>
-      </c>
-      <c r="O24" s="42">
-        <v>109</v>
-      </c>
-      <c r="P24" s="42">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="20"/>
-      <c r="B25" s="52">
-        <v>137</v>
-      </c>
-      <c r="C25" s="42">
-        <v>79</v>
-      </c>
-      <c r="D25" s="42">
-        <v>135</v>
-      </c>
-      <c r="E25" s="42">
-        <v>55</v>
-      </c>
-      <c r="F25" s="42">
-        <v>80</v>
-      </c>
-      <c r="G25" s="42">
-        <v>58</v>
-      </c>
-      <c r="I25" s="35"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="52">
-        <v>53</v>
-      </c>
-      <c r="L25" s="42">
-        <v>91</v>
-      </c>
-      <c r="M25" s="42">
-        <v>61</v>
-      </c>
-      <c r="N25" s="42">
-        <v>64</v>
-      </c>
-      <c r="O25" s="42">
-        <v>114</v>
-      </c>
-      <c r="P25" s="42">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="20"/>
-      <c r="B26" s="52">
-        <v>127</v>
-      </c>
-      <c r="C26" s="42">
-        <v>69</v>
-      </c>
-      <c r="D26" s="42">
-        <v>135</v>
-      </c>
-      <c r="E26" s="42">
-        <v>55</v>
-      </c>
-      <c r="F26" s="42">
-        <v>80</v>
-      </c>
-      <c r="G26" s="42">
-        <v>58</v>
-      </c>
-      <c r="I26" s="35"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="52">
-        <v>53</v>
-      </c>
-      <c r="L26" s="42">
-        <v>105</v>
-      </c>
-      <c r="M26" s="42">
-        <v>41</v>
-      </c>
-      <c r="N26" s="42">
-        <v>64</v>
-      </c>
-      <c r="O26" s="42">
-        <v>94</v>
-      </c>
-      <c r="P26" s="42">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="20"/>
-      <c r="B27" s="52">
-        <v>115</v>
-      </c>
-      <c r="C27" s="42">
-        <v>57</v>
-      </c>
-      <c r="D27" s="42">
-        <v>135</v>
-      </c>
-      <c r="E27" s="42">
-        <v>55</v>
-      </c>
-      <c r="F27" s="42">
-        <v>80</v>
-      </c>
-      <c r="G27" s="42">
-        <v>58</v>
-      </c>
-      <c r="I27" s="35"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="52">
-        <v>53</v>
-      </c>
-      <c r="L27" s="42">
-        <v>112</v>
-      </c>
-      <c r="M27" s="42">
-        <v>41</v>
-      </c>
-      <c r="N27" s="42">
-        <v>66</v>
-      </c>
-      <c r="O27" s="42">
-        <v>105</v>
-      </c>
-      <c r="P27" s="42">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="20"/>
-      <c r="B28" s="52">
-        <v>108</v>
-      </c>
-      <c r="C28" s="42">
-        <v>50</v>
-      </c>
-      <c r="D28" s="42">
-        <v>124</v>
-      </c>
-      <c r="E28" s="42">
-        <v>55</v>
-      </c>
-      <c r="F28" s="42">
-        <v>69</v>
-      </c>
-      <c r="G28" s="42">
-        <v>58</v>
-      </c>
-      <c r="I28" s="35"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="52">
-        <v>53</v>
-      </c>
-      <c r="L28" s="42">
-        <v>112</v>
-      </c>
-      <c r="M28" s="42">
-        <v>41</v>
-      </c>
-      <c r="N28" s="42">
-        <v>66</v>
-      </c>
-      <c r="O28" s="42">
-        <v>105</v>
-      </c>
-      <c r="P28" s="42">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="20"/>
-      <c r="B29" s="52">
-        <v>108</v>
-      </c>
-      <c r="C29" s="42">
-        <v>50</v>
-      </c>
-      <c r="D29" s="42">
-        <v>115</v>
-      </c>
-      <c r="E29" s="42">
-        <v>55</v>
-      </c>
-      <c r="F29" s="42">
-        <v>60</v>
-      </c>
-      <c r="G29" s="42">
-        <v>58</v>
-      </c>
-      <c r="I29" s="35"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="52">
-        <v>53</v>
-      </c>
-      <c r="L29" s="42">
-        <v>121</v>
-      </c>
-      <c r="M29" s="42">
-        <v>49</v>
-      </c>
-      <c r="N29" s="42">
-        <v>71</v>
-      </c>
-      <c r="O29" s="42">
-        <v>119</v>
-      </c>
-      <c r="P29" s="42">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="20"/>
-      <c r="B30" s="52">
-        <v>96</v>
-      </c>
-      <c r="C30" s="42">
-        <v>45</v>
-      </c>
-      <c r="D30" s="42">
-        <v>84</v>
-      </c>
-      <c r="E30" s="42">
-        <v>48</v>
-      </c>
-      <c r="F30" s="42">
-        <v>36</v>
-      </c>
-      <c r="G30" s="42">
-        <v>51</v>
-      </c>
-      <c r="I30" s="35"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="52">
-        <v>53</v>
-      </c>
-      <c r="L30" s="42">
-        <v>121</v>
-      </c>
-      <c r="M30" s="42">
-        <v>49</v>
-      </c>
-      <c r="N30" s="42">
-        <v>71</v>
-      </c>
-      <c r="O30" s="42">
-        <v>119</v>
-      </c>
-      <c r="P30" s="42">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="20"/>
-      <c r="B31" s="52">
-        <v>96</v>
-      </c>
-      <c r="C31" s="42">
-        <v>45</v>
-      </c>
-      <c r="D31" s="42">
-        <v>84</v>
-      </c>
-      <c r="E31" s="42">
-        <v>48</v>
-      </c>
-      <c r="F31" s="42">
-        <v>36</v>
-      </c>
-      <c r="G31" s="42">
-        <v>51</v>
-      </c>
-      <c r="I31" s="35"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="52">
-        <v>53</v>
-      </c>
-      <c r="L31" s="42">
-        <v>121</v>
-      </c>
-      <c r="M31" s="42">
-        <v>49</v>
-      </c>
-      <c r="N31" s="42">
-        <v>71</v>
-      </c>
-      <c r="O31" s="42">
-        <v>119</v>
-      </c>
-      <c r="P31" s="42">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="20"/>
-      <c r="B32" s="52">
-        <v>100</v>
-      </c>
-      <c r="C32" s="42">
-        <v>49</v>
-      </c>
-      <c r="D32" s="42">
-        <v>87</v>
-      </c>
-      <c r="E32" s="42">
-        <v>48</v>
-      </c>
-      <c r="F32" s="42">
-        <v>39</v>
-      </c>
-      <c r="G32" s="42">
-        <v>51</v>
-      </c>
-      <c r="I32" s="35"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="52">
-        <v>53</v>
-      </c>
-      <c r="L32" s="42">
-        <v>121</v>
-      </c>
-      <c r="M32" s="42">
-        <v>49</v>
-      </c>
-      <c r="N32" s="42">
-        <v>71</v>
-      </c>
-      <c r="O32" s="42">
-        <v>95</v>
-      </c>
-      <c r="P32" s="42">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="20"/>
-      <c r="B33" s="52">
-        <v>100</v>
-      </c>
-      <c r="C33" s="42">
-        <v>49</v>
-      </c>
-      <c r="D33" s="42">
-        <v>87</v>
-      </c>
-      <c r="E33" s="42">
-        <v>48</v>
-      </c>
-      <c r="F33" s="42">
-        <v>39</v>
-      </c>
-      <c r="G33" s="42">
-        <v>51</v>
-      </c>
-      <c r="I33" s="35"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="52">
-        <v>53</v>
-      </c>
-      <c r="L33" s="42">
-        <v>121</v>
-      </c>
-      <c r="M33" s="42">
-        <v>49</v>
-      </c>
-      <c r="N33" s="42">
-        <v>71</v>
-      </c>
-      <c r="O33" s="42">
-        <v>83</v>
-      </c>
-      <c r="P33" s="42">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="20"/>
-      <c r="B34" s="52">
-        <v>100</v>
-      </c>
-      <c r="C34" s="42">
-        <v>49</v>
-      </c>
-      <c r="D34" s="42">
-        <v>90</v>
-      </c>
-      <c r="E34" s="42">
-        <v>48</v>
-      </c>
-      <c r="F34" s="42">
-        <v>42</v>
-      </c>
-      <c r="G34" s="42">
-        <v>51</v>
-      </c>
-      <c r="I34" s="35"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="52">
-        <v>53</v>
-      </c>
-      <c r="L34" s="42">
-        <v>124</v>
-      </c>
-      <c r="M34" s="42">
-        <v>89</v>
-      </c>
-      <c r="N34" s="42">
-        <v>71</v>
-      </c>
-      <c r="O34" s="42">
-        <v>83</v>
-      </c>
-      <c r="P34" s="42">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="20"/>
-      <c r="B35" s="52">
-        <v>100</v>
-      </c>
-      <c r="C35" s="42">
-        <v>49</v>
-      </c>
-      <c r="D35" s="42">
-        <v>99</v>
-      </c>
-      <c r="E35" s="42">
-        <v>52</v>
-      </c>
-      <c r="F35" s="42">
-        <v>47</v>
-      </c>
-      <c r="G35" s="42">
-        <v>51</v>
-      </c>
-      <c r="I35" s="35"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="52">
-        <v>53</v>
-      </c>
-      <c r="L35" s="42">
-        <v>124</v>
-      </c>
-      <c r="M35" s="42">
-        <v>89</v>
-      </c>
-      <c r="N35" s="42">
-        <v>71</v>
-      </c>
-      <c r="O35" s="42">
-        <v>83</v>
-      </c>
-      <c r="P35" s="42">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="20"/>
-      <c r="B36" s="52">
-        <v>104</v>
-      </c>
-      <c r="C36" s="42">
-        <v>53</v>
-      </c>
-      <c r="D36" s="42">
-        <v>99</v>
-      </c>
-      <c r="E36" s="42">
-        <v>52</v>
-      </c>
-      <c r="F36" s="42">
-        <v>47</v>
-      </c>
-      <c r="G36" s="42">
-        <v>51</v>
-      </c>
-      <c r="I36" s="35"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="52">
-        <v>53</v>
-      </c>
-      <c r="L36" s="42">
-        <v>137</v>
-      </c>
-      <c r="M36" s="42">
-        <v>89</v>
-      </c>
-      <c r="N36" s="42">
-        <v>84</v>
-      </c>
-      <c r="O36" s="42">
-        <v>83</v>
-      </c>
-      <c r="P36" s="42">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="20"/>
-      <c r="B37" s="52">
-        <v>107</v>
-      </c>
-      <c r="C37" s="42">
-        <v>53</v>
-      </c>
-      <c r="D37" s="42">
-        <v>99</v>
-      </c>
-      <c r="E37" s="42">
-        <v>52</v>
-      </c>
-      <c r="F37" s="42">
-        <v>47</v>
-      </c>
-      <c r="G37" s="42">
-        <v>54</v>
-      </c>
-      <c r="I37" s="35"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="52">
-        <v>53</v>
-      </c>
-      <c r="L37" s="42">
-        <v>137</v>
-      </c>
-      <c r="M37" s="42">
-        <v>89</v>
-      </c>
-      <c r="N37" s="42">
-        <v>84</v>
-      </c>
-      <c r="O37" s="42">
-        <v>77</v>
-      </c>
-      <c r="P37" s="42">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="20"/>
-      <c r="B38" s="52">
-        <v>107</v>
-      </c>
-      <c r="C38" s="42">
-        <v>53</v>
-      </c>
-      <c r="D38" s="42">
-        <v>92</v>
-      </c>
-      <c r="E38" s="42">
-        <v>45</v>
-      </c>
-      <c r="F38" s="42">
-        <v>47</v>
-      </c>
-      <c r="G38" s="42">
-        <v>54</v>
-      </c>
-      <c r="I38" s="35"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="52">
-        <v>53</v>
-      </c>
-      <c r="L38" s="42">
-        <v>137</v>
-      </c>
-      <c r="M38" s="42">
-        <v>89</v>
-      </c>
-      <c r="N38" s="42">
-        <v>84</v>
-      </c>
-      <c r="O38" s="42">
-        <v>77</v>
-      </c>
-      <c r="P38" s="42">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="22"/>
-      <c r="B39" s="53">
-        <v>107</v>
-      </c>
-      <c r="C39" s="3">
-        <v>53</v>
-      </c>
-      <c r="D39" s="3">
-        <v>92</v>
-      </c>
-      <c r="E39" s="3">
-        <v>45</v>
-      </c>
-      <c r="F39" s="3">
-        <v>47</v>
-      </c>
-      <c r="G39" s="3">
-        <v>54</v>
-      </c>
-      <c r="I39" s="35"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="52">
-        <v>53</v>
-      </c>
-      <c r="L39" s="42">
-        <v>137</v>
-      </c>
-      <c r="M39" s="42">
-        <v>89</v>
-      </c>
-      <c r="N39" s="42">
-        <v>84</v>
-      </c>
-      <c r="O39" s="42">
-        <v>77</v>
-      </c>
-      <c r="P39" s="42">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A40" s="20"/>
-      <c r="B40" s="52"/>
-      <c r="C40" s="52"/>
-      <c r="D40" s="52"/>
-      <c r="E40" s="52"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="42"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="52">
-        <v>53</v>
-      </c>
-      <c r="L40" s="42">
-        <v>137</v>
-      </c>
-      <c r="M40" s="42">
-        <v>89</v>
-      </c>
-      <c r="N40" s="42">
-        <v>84</v>
-      </c>
-      <c r="O40" s="42">
-        <v>77</v>
-      </c>
-      <c r="P40" s="42">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A41" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" s="54">
-        <f t="shared" ref="B41:G41" si="0">AVERAGE(B4:B39)</f>
-        <v>103.97222222222223</v>
-      </c>
-      <c r="C41" s="54">
-        <f t="shared" si="0"/>
-        <v>58.527777777777779</v>
-      </c>
-      <c r="D41" s="54">
-        <f t="shared" si="0"/>
-        <v>107.5</v>
-      </c>
-      <c r="E41" s="54">
-        <f t="shared" si="0"/>
-        <v>48.805555555555557</v>
-      </c>
-      <c r="F41" s="6">
-        <f t="shared" si="0"/>
-        <v>58.694444444444443</v>
-      </c>
-      <c r="G41" s="6">
-        <f t="shared" si="0"/>
-        <v>45.444444444444443</v>
-      </c>
-      <c r="I41" s="35"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="52">
-        <v>53</v>
-      </c>
-      <c r="L41" s="42">
-        <v>72</v>
-      </c>
-      <c r="M41" s="42">
-        <v>72</v>
-      </c>
-      <c r="N41" s="42">
-        <v>119</v>
-      </c>
-      <c r="O41" s="42">
-        <v>77</v>
-      </c>
-      <c r="P41" s="42">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A42" s="23"/>
-      <c r="B42" s="54"/>
-      <c r="C42" s="54"/>
-      <c r="D42" s="54"/>
-      <c r="E42" s="54"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="52">
-        <v>53</v>
-      </c>
-      <c r="L42" s="42">
-        <v>72</v>
-      </c>
-      <c r="M42" s="42">
-        <v>72</v>
-      </c>
-      <c r="N42" s="42">
-        <v>119</v>
-      </c>
-      <c r="O42" s="42">
-        <v>77</v>
-      </c>
-      <c r="P42" s="42">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" s="54">
-        <f t="shared" ref="B43:G43" si="1">_xlfn.STDEV.S(B4:B39)</f>
-        <v>32.312302929920072</v>
-      </c>
-      <c r="C43" s="54">
-        <f t="shared" si="1"/>
-        <v>20.554437979057482</v>
-      </c>
-      <c r="D43" s="54">
-        <f t="shared" si="1"/>
-        <v>32.304356185682273</v>
-      </c>
-      <c r="E43" s="54">
-        <f t="shared" si="1"/>
-        <v>12.204962560823821</v>
-      </c>
-      <c r="F43" s="6">
-        <f t="shared" si="1"/>
-        <v>23.249970131402559</v>
-      </c>
-      <c r="G43" s="6">
-        <f t="shared" si="1"/>
-        <v>14.691969515826267</v>
-      </c>
-      <c r="I43" s="35"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="52">
-        <v>37</v>
-      </c>
-      <c r="L43" s="42">
-        <v>72</v>
-      </c>
-      <c r="M43" s="42">
-        <v>49</v>
-      </c>
-      <c r="N43" s="42">
-        <v>121</v>
-      </c>
-      <c r="O43" s="42">
-        <v>77</v>
-      </c>
-      <c r="P43" s="42">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="23"/>
-      <c r="B44" s="54"/>
-      <c r="C44" s="54"/>
-      <c r="D44" s="54"/>
-      <c r="E44" s="54"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="I44" s="35"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="53">
-        <v>37</v>
-      </c>
-      <c r="L44" s="3">
-        <v>72</v>
-      </c>
-      <c r="M44" s="3">
-        <v>49</v>
-      </c>
-      <c r="N44" s="3">
-        <v>90</v>
-      </c>
-      <c r="O44" s="3">
-        <v>77</v>
-      </c>
-      <c r="P44" s="3">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="B45" s="55">
-        <f>_xlfn.CONFIDENCE.NORM(0.05,B43,35)</f>
-        <v>10.70488436973214</v>
-      </c>
-      <c r="C45" s="55">
-        <f t="shared" ref="C45:G45" si="2">_xlfn.CONFIDENCE.NORM(0.05,C43,35)</f>
-        <v>6.8095697891869635</v>
-      </c>
-      <c r="D45" s="55">
-        <f t="shared" si="2"/>
-        <v>10.702251658025828</v>
-      </c>
-      <c r="E45" s="55">
-        <f t="shared" si="2"/>
-        <v>4.0434355060947702</v>
-      </c>
-      <c r="F45" s="55">
-        <f t="shared" si="2"/>
-        <v>7.7025844427179004</v>
-      </c>
-      <c r="G45" s="55">
-        <f t="shared" si="2"/>
-        <v>4.8673669336306489</v>
-      </c>
-      <c r="I45" s="35"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="52"/>
-      <c r="L45" s="52"/>
-      <c r="M45" s="52"/>
-      <c r="N45" s="52"/>
-      <c r="O45" s="42"/>
-      <c r="P45" s="42"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A46" s="23"/>
-      <c r="B46" s="56"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="57"/>
-      <c r="J46" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="K46" s="54">
-        <f>AVERAGE(K4:K44)</f>
-        <v>76</v>
-      </c>
-      <c r="L46" s="54">
-        <f t="shared" ref="L46:P46" si="3">AVERAGE(L4:L44)</f>
-        <v>102.39024390243902</v>
-      </c>
-      <c r="M46" s="54">
-        <f t="shared" si="3"/>
-        <v>74.878048780487802</v>
-      </c>
-      <c r="N46" s="54">
-        <f t="shared" si="3"/>
-        <v>71.439024390243901</v>
-      </c>
-      <c r="O46" s="6">
-        <f t="shared" si="3"/>
-        <v>86.926829268292678</v>
-      </c>
-      <c r="P46" s="6">
-        <f t="shared" si="3"/>
-        <v>92.341463414634148</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="B47" s="8">
-        <f>AVERAGE(B41:G41)</f>
-        <v>70.490740740740748</v>
-      </c>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="57"/>
-      <c r="J47" s="23"/>
-      <c r="K47" s="54"/>
-      <c r="L47" s="54"/>
-      <c r="M47" s="54"/>
-      <c r="N47" s="54"/>
-      <c r="O47" s="6"/>
-      <c r="P47" s="6"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="57"/>
-      <c r="J48" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="K48" s="54">
-        <f>_xlfn.STDEV.S(K4:K44)</f>
-        <v>67.559973357010733</v>
-      </c>
-      <c r="L48" s="54">
-        <f t="shared" ref="L48:P48" si="4">_xlfn.STDEV.S(L4:L44)</f>
-        <v>26.786076652601153</v>
-      </c>
-      <c r="M48" s="54">
-        <f t="shared" si="4"/>
-        <v>34.213444084125193</v>
-      </c>
-      <c r="N48" s="54">
-        <f t="shared" si="4"/>
-        <v>27.588991265075101</v>
-      </c>
-      <c r="O48" s="6">
-        <f t="shared" si="4"/>
-        <v>32.725670538510322</v>
-      </c>
-      <c r="P48" s="6">
-        <f t="shared" si="4"/>
-        <v>37.540384758348942</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="57"/>
-      <c r="J49" s="23"/>
-      <c r="K49" s="54"/>
-      <c r="L49" s="54"/>
-      <c r="M49" s="54"/>
-      <c r="N49" s="54"/>
-      <c r="O49" s="6"/>
-      <c r="P49" s="6"/>
-    </row>
-    <row r="50" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="26"/>
-      <c r="I50" s="57"/>
-      <c r="J50" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="K50" s="55">
-        <f>_xlfn.CONFIDENCE.NORM(0.05,K48,40)</f>
-        <v>20.936667934651886</v>
-      </c>
-      <c r="L50" s="55">
-        <f t="shared" ref="L50:P50" si="5">_xlfn.CONFIDENCE.NORM(0.05,L48,40)</f>
-        <v>8.3009386221056936</v>
-      </c>
-      <c r="M50" s="55">
-        <f t="shared" si="5"/>
-        <v>10.602661340685339</v>
-      </c>
-      <c r="N50" s="55">
-        <f t="shared" si="5"/>
-        <v>8.5497598661937424</v>
-      </c>
-      <c r="O50" s="8">
-        <f t="shared" si="5"/>
-        <v>10.141604014302219</v>
-      </c>
-      <c r="P50" s="8">
-        <f t="shared" si="5"/>
-        <v>11.633671992013273</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="57"/>
-      <c r="J51" s="23"/>
-      <c r="K51" s="56"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="5"/>
-      <c r="O51" s="5"/>
-      <c r="P51" s="5"/>
-    </row>
-    <row r="52" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="26"/>
-      <c r="I52" s="57"/>
-      <c r="J52" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="K52" s="8">
-        <f>AVERAGE(K46:P46)</f>
-        <v>83.995934959349597</v>
-      </c>
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
-      <c r="P52" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="J1:P1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/analysis/test-dijkstra-dualascent.xlsx
+++ b/analysis/test-dijkstra-dualascent.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Documents\GitHub\anaws\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC023198-B3DB-4610-8029-4626A5C78D47}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4D3C07-5816-45BB-881B-EC8DCBCFA32F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{4FF27154-4CE8-4227-97A9-9900F5A89FA9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{4FF27154-4CE8-4227-97A9-9900F5A89FA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Latenza all" sheetId="1" r:id="rId1"/>
@@ -359,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -474,9 +474,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -521,7 +518,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -534,6 +535,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -554,19 +567,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -877,7 +878,7 @@
           <c:idx val="8"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Other Dual Ascent</c:v>
+            <c:v>Medium Dual Ascent</c:v>
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:dPt>
@@ -987,7 +988,7 @@
           <c:idx val="9"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>Other Dijkstra</c:v>
+            <c:v>Medium Dijkstra</c:v>
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:dPt>
@@ -2014,6 +2015,530 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Average Latency Dijkstra - Dual Ascent</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t> (with non-target nodes)</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Dijkstra</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Latenza Target'!$B$49</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>186.21929824561403</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ACF5-4387-8709-A7F7C7B6C708}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Dual Ascent</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Latenza Target'!$K$49</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>77.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-ACF5-4387-8709-A7F7C7B6C708}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1585720495"/>
+        <c:axId val="1585720911"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1585720495"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1585720911"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1585720911"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Latency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1585720495"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -4028,7 +4553,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -4720,7 +5245,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -6736,7 +7261,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -8751,7 +9276,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -9446,7 +9971,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -11703,8 +12228,48 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -11731,8 +12296,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -11833,7 +12398,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -11865,10 +12430,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -11908,23 +12473,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -12029,8 +12593,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -12162,20 +12726,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -12189,17 +12752,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -14799,6 +15351,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -14882,6 +15950,47 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{842A409C-0C73-4FC2-8483-48A4736CE265}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>68580</xdr:colOff>
       <xdr:row>45</xdr:row>
@@ -14955,7 +16064,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -14996,7 +16105,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -15073,7 +16182,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -15699,8 +16808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF34C271-DF05-470A-888F-D3E261F22D54}">
   <dimension ref="A1:H407"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15713,16 +16822,16 @@
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="60" t="s">
+      <c r="C1" s="62"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="63"/>
-      <c r="G1" s="62"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="63"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
@@ -20264,42 +21373,42 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3F1448B-9046-4895-AF26-0705232310C8}">
-  <dimension ref="A1:P46"/>
+  <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="16" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="72"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="67"/>
       <c r="I1" s="35"/>
-      <c r="J1" s="71" t="s">
+      <c r="J1" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="72"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="67"/>
     </row>
     <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="43"/>
+      <c r="A2" s="42"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -20307,7 +21416,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="3"/>
       <c r="I2" s="35"/>
-      <c r="J2" s="44"/>
+      <c r="J2" s="43"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
@@ -20316,1759 +21425,1880 @@
       <c r="P2" s="3"/>
     </row>
     <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="47" t="s">
         <v>32</v>
       </c>
       <c r="G3" s="22" t="s">
         <v>33</v>
       </c>
       <c r="H3" s="13"/>
-      <c r="I3" s="46"/>
+      <c r="I3" s="45"/>
       <c r="J3" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="47" t="s">
+      <c r="K3" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="48" t="s">
+      <c r="L3" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="48" t="s">
+      <c r="M3" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="N3" s="48" t="s">
+      <c r="N3" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="48" t="s">
+      <c r="O3" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="P3" s="48" t="s">
+      <c r="P3" s="47" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="49"/>
-      <c r="B4" s="50">
-        <v>103</v>
+      <c r="A4" s="48"/>
+      <c r="B4" s="29">
+        <v>168</v>
       </c>
       <c r="C4" s="29">
-        <v>59</v>
-      </c>
-      <c r="D4" s="59">
-        <v>148</v>
-      </c>
-      <c r="E4" s="50">
-        <v>59</v>
-      </c>
-      <c r="F4" s="29">
-        <v>148</v>
-      </c>
-      <c r="G4" s="58">
-        <v>103</v>
+        <v>98</v>
+      </c>
+      <c r="D4" s="57">
+        <v>158</v>
+      </c>
+      <c r="E4" s="29">
+        <v>49</v>
+      </c>
+      <c r="F4" s="57">
+        <v>109</v>
+      </c>
+      <c r="G4" s="57">
+        <v>70</v>
       </c>
       <c r="I4" s="35"/>
       <c r="J4" s="20"/>
-      <c r="K4" s="50">
-        <v>146</v>
-      </c>
-      <c r="L4" s="29">
-        <v>188</v>
-      </c>
-      <c r="M4" s="29">
-        <v>174</v>
-      </c>
-      <c r="N4" s="29">
-        <v>188</v>
-      </c>
-      <c r="O4" s="29">
-        <v>174</v>
-      </c>
-      <c r="P4" s="29">
-        <v>146</v>
+      <c r="K4" s="49">
+        <v>66</v>
+      </c>
+      <c r="L4" s="49">
+        <v>45</v>
+      </c>
+      <c r="M4" s="49">
+        <v>103</v>
+      </c>
+      <c r="N4" s="49">
+        <v>97</v>
+      </c>
+      <c r="O4" s="49">
+        <v>66</v>
+      </c>
+      <c r="P4" s="49">
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
-      <c r="B5" s="51">
-        <v>130</v>
-      </c>
-      <c r="C5" s="58">
-        <v>107</v>
-      </c>
-      <c r="D5" s="58">
-        <v>169</v>
-      </c>
-      <c r="E5" s="58">
-        <v>107</v>
-      </c>
-      <c r="F5" s="58">
-        <v>169</v>
-      </c>
-      <c r="G5" s="58">
-        <v>130</v>
+      <c r="A5" s="48"/>
+      <c r="B5" s="57">
+        <v>176</v>
+      </c>
+      <c r="C5" s="57">
+        <v>106</v>
+      </c>
+      <c r="D5" s="57">
+        <v>158</v>
+      </c>
+      <c r="E5" s="57">
+        <v>49</v>
+      </c>
+      <c r="F5" s="57">
+        <v>109</v>
+      </c>
+      <c r="G5" s="57">
+        <v>70</v>
       </c>
       <c r="I5" s="35"/>
       <c r="J5" s="20"/>
-      <c r="K5" s="51">
-        <v>36</v>
-      </c>
-      <c r="L5" s="58">
-        <v>188</v>
-      </c>
-      <c r="M5" s="58">
-        <v>58</v>
-      </c>
-      <c r="N5" s="58">
-        <v>188</v>
-      </c>
-      <c r="O5" s="58">
-        <v>58</v>
-      </c>
-      <c r="P5" s="58">
-        <v>36</v>
+      <c r="K5" s="50">
+        <v>38</v>
+      </c>
+      <c r="L5" s="50">
+        <v>50</v>
+      </c>
+      <c r="M5" s="50">
+        <v>50</v>
+      </c>
+      <c r="N5" s="50">
+        <v>100</v>
+      </c>
+      <c r="O5" s="50">
+        <v>66</v>
+      </c>
+      <c r="P5" s="50">
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="49"/>
-      <c r="B6" s="51">
-        <v>158</v>
-      </c>
-      <c r="C6" s="58">
+      <c r="A6" s="48"/>
+      <c r="B6" s="57">
+        <v>305</v>
+      </c>
+      <c r="C6" s="57">
+        <v>170</v>
+      </c>
+      <c r="D6" s="57">
+        <v>298</v>
+      </c>
+      <c r="E6" s="57">
+        <v>118</v>
+      </c>
+      <c r="F6" s="57">
         <v>180</v>
       </c>
-      <c r="D6" s="58">
-        <v>202</v>
-      </c>
-      <c r="E6" s="58">
-        <v>180</v>
-      </c>
-      <c r="F6" s="58">
-        <v>202</v>
-      </c>
-      <c r="G6" s="58">
-        <v>158</v>
+      <c r="G6" s="57">
+        <v>135</v>
       </c>
       <c r="I6" s="35"/>
       <c r="J6" s="20"/>
-      <c r="K6" s="51">
-        <v>167</v>
-      </c>
-      <c r="L6" s="58">
-        <v>210</v>
-      </c>
-      <c r="M6" s="58">
-        <v>109</v>
-      </c>
-      <c r="N6" s="58">
-        <v>210</v>
-      </c>
-      <c r="O6" s="58">
-        <v>109</v>
-      </c>
-      <c r="P6" s="58">
-        <v>167</v>
+      <c r="K6" s="50">
+        <v>70</v>
+      </c>
+      <c r="L6" s="50">
+        <v>113</v>
+      </c>
+      <c r="M6" s="50">
+        <v>157</v>
+      </c>
+      <c r="N6" s="50">
+        <v>130</v>
+      </c>
+      <c r="O6" s="50">
+        <v>146</v>
+      </c>
+      <c r="P6" s="50">
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="49"/>
-      <c r="B7" s="51">
-        <v>221</v>
-      </c>
-      <c r="C7" s="58">
-        <v>243</v>
-      </c>
-      <c r="D7" s="58">
-        <v>262</v>
-      </c>
-      <c r="E7" s="58">
-        <v>243</v>
-      </c>
-      <c r="F7" s="58">
-        <v>262</v>
-      </c>
-      <c r="G7" s="58">
-        <v>221</v>
+      <c r="A7" s="48"/>
+      <c r="B7" s="57">
+        <v>305</v>
+      </c>
+      <c r="C7" s="57">
+        <v>170</v>
+      </c>
+      <c r="D7" s="57">
+        <v>298</v>
+      </c>
+      <c r="E7" s="57">
+        <v>118</v>
+      </c>
+      <c r="F7" s="57">
+        <v>180</v>
+      </c>
+      <c r="G7" s="57">
+        <v>135</v>
       </c>
       <c r="I7" s="35"/>
       <c r="J7" s="20"/>
-      <c r="K7" s="51">
-        <v>250</v>
-      </c>
-      <c r="L7" s="58">
-        <v>282</v>
-      </c>
-      <c r="M7" s="58">
-        <v>366</v>
-      </c>
-      <c r="N7" s="58">
-        <v>282</v>
-      </c>
-      <c r="O7" s="58">
-        <v>366</v>
-      </c>
-      <c r="P7" s="58">
-        <v>250</v>
+      <c r="K7" s="50">
+        <v>70</v>
+      </c>
+      <c r="L7" s="50">
+        <v>96</v>
+      </c>
+      <c r="M7" s="50">
+        <v>157</v>
+      </c>
+      <c r="N7" s="50">
+        <v>131</v>
+      </c>
+      <c r="O7" s="50">
+        <v>146</v>
+      </c>
+      <c r="P7" s="50">
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="20"/>
-      <c r="B8" s="51">
-        <v>221</v>
-      </c>
-      <c r="C8" s="58">
-        <v>254</v>
-      </c>
-      <c r="D8" s="58">
-        <v>257</v>
-      </c>
-      <c r="E8" s="58">
-        <v>254</v>
-      </c>
-      <c r="F8" s="58">
-        <v>257</v>
-      </c>
-      <c r="G8" s="58">
-        <v>221</v>
+      <c r="B8" s="57">
+        <v>305</v>
+      </c>
+      <c r="C8" s="57">
+        <v>170</v>
+      </c>
+      <c r="D8" s="57">
+        <v>298</v>
+      </c>
+      <c r="E8" s="57">
+        <v>118</v>
+      </c>
+      <c r="F8" s="57">
+        <v>180</v>
+      </c>
+      <c r="G8" s="57">
+        <v>135</v>
       </c>
       <c r="I8" s="35"/>
       <c r="J8" s="20"/>
-      <c r="K8" s="51">
-        <v>316</v>
-      </c>
-      <c r="L8" s="58">
-        <v>288</v>
-      </c>
-      <c r="M8" s="58">
-        <v>408</v>
-      </c>
-      <c r="N8" s="58">
-        <v>288</v>
-      </c>
-      <c r="O8" s="58">
-        <v>408</v>
-      </c>
-      <c r="P8" s="58">
-        <v>316</v>
+      <c r="K8" s="50">
+        <v>70</v>
+      </c>
+      <c r="L8" s="50">
+        <v>106</v>
+      </c>
+      <c r="M8" s="50">
+        <v>164</v>
+      </c>
+      <c r="N8" s="50">
+        <v>189</v>
+      </c>
+      <c r="O8" s="50">
+        <v>137</v>
+      </c>
+      <c r="P8" s="50">
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="20"/>
-      <c r="B9" s="51">
-        <v>221</v>
-      </c>
-      <c r="C9" s="58">
-        <v>254</v>
-      </c>
-      <c r="D9" s="58">
-        <v>257</v>
-      </c>
-      <c r="E9" s="58">
-        <v>254</v>
-      </c>
-      <c r="F9" s="58">
-        <v>257</v>
-      </c>
-      <c r="G9" s="58">
-        <v>221</v>
+      <c r="B9" s="57">
+        <v>305</v>
+      </c>
+      <c r="C9" s="57">
+        <v>170</v>
+      </c>
+      <c r="D9" s="57">
+        <v>298</v>
+      </c>
+      <c r="E9" s="57">
+        <v>118</v>
+      </c>
+      <c r="F9" s="57">
+        <v>180</v>
+      </c>
+      <c r="G9" s="57">
+        <v>135</v>
       </c>
       <c r="I9" s="35"/>
       <c r="J9" s="20"/>
-      <c r="K9" s="51">
-        <v>316</v>
-      </c>
-      <c r="L9" s="58">
-        <v>288</v>
-      </c>
-      <c r="M9" s="58">
-        <v>408</v>
-      </c>
-      <c r="N9" s="58">
-        <v>288</v>
-      </c>
-      <c r="O9" s="58">
-        <v>408</v>
-      </c>
-      <c r="P9" s="58">
-        <v>316</v>
+      <c r="K9" s="50">
+        <v>70</v>
+      </c>
+      <c r="L9" s="50">
+        <v>106</v>
+      </c>
+      <c r="M9" s="50">
+        <v>164</v>
+      </c>
+      <c r="N9" s="50">
+        <v>189</v>
+      </c>
+      <c r="O9" s="50">
+        <v>137</v>
+      </c>
+      <c r="P9" s="50">
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="20"/>
-      <c r="B10" s="51">
-        <v>221</v>
-      </c>
-      <c r="C10" s="58">
-        <v>254</v>
-      </c>
-      <c r="D10" s="58">
-        <v>257</v>
-      </c>
-      <c r="E10" s="58">
-        <v>254</v>
-      </c>
-      <c r="F10" s="58">
-        <v>257</v>
-      </c>
-      <c r="G10" s="58">
-        <v>221</v>
+      <c r="B10" s="57">
+        <v>305</v>
+      </c>
+      <c r="C10" s="57">
+        <v>170</v>
+      </c>
+      <c r="D10" s="57">
+        <v>298</v>
+      </c>
+      <c r="E10" s="57">
+        <v>118</v>
+      </c>
+      <c r="F10" s="57">
+        <v>180</v>
+      </c>
+      <c r="G10" s="57">
+        <v>135</v>
       </c>
       <c r="I10" s="35"/>
       <c r="J10" s="20"/>
-      <c r="K10" s="51">
-        <v>316</v>
-      </c>
-      <c r="L10" s="58">
-        <v>270</v>
-      </c>
-      <c r="M10" s="58">
-        <v>410</v>
-      </c>
-      <c r="N10" s="58">
-        <v>270</v>
-      </c>
-      <c r="O10" s="58">
-        <v>410</v>
-      </c>
-      <c r="P10" s="58">
-        <v>316</v>
+      <c r="K10" s="50">
+        <v>70</v>
+      </c>
+      <c r="L10" s="50">
+        <v>121</v>
+      </c>
+      <c r="M10" s="50">
+        <v>164</v>
+      </c>
+      <c r="N10" s="50">
+        <v>204</v>
+      </c>
+      <c r="O10" s="50">
+        <v>153</v>
+      </c>
+      <c r="P10" s="50">
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="20"/>
-      <c r="B11" s="51">
-        <v>221</v>
-      </c>
-      <c r="C11" s="58">
-        <v>254</v>
-      </c>
-      <c r="D11" s="58">
-        <v>257</v>
-      </c>
-      <c r="E11" s="58">
-        <v>254</v>
-      </c>
-      <c r="F11" s="58">
-        <v>257</v>
-      </c>
-      <c r="G11" s="58">
-        <v>221</v>
+      <c r="B11" s="57">
+        <v>305</v>
+      </c>
+      <c r="C11" s="57">
+        <v>170</v>
+      </c>
+      <c r="D11" s="57">
+        <v>298</v>
+      </c>
+      <c r="E11" s="57">
+        <v>118</v>
+      </c>
+      <c r="F11" s="57">
+        <v>180</v>
+      </c>
+      <c r="G11" s="57">
+        <v>135</v>
       </c>
       <c r="I11" s="35"/>
       <c r="J11" s="20"/>
-      <c r="K11" s="51">
-        <v>369</v>
-      </c>
-      <c r="L11" s="58">
-        <v>270</v>
-      </c>
-      <c r="M11" s="58">
-        <v>320</v>
-      </c>
-      <c r="N11" s="58">
-        <v>270</v>
-      </c>
-      <c r="O11" s="58">
-        <v>320</v>
-      </c>
-      <c r="P11" s="58">
-        <v>369</v>
+      <c r="K11" s="50">
+        <v>70</v>
+      </c>
+      <c r="L11" s="50">
+        <v>121</v>
+      </c>
+      <c r="M11" s="50">
+        <v>83</v>
+      </c>
+      <c r="N11" s="50">
+        <v>204</v>
+      </c>
+      <c r="O11" s="50">
+        <v>187</v>
+      </c>
+      <c r="P11" s="50">
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="20"/>
-      <c r="B12" s="51">
-        <v>221</v>
-      </c>
-      <c r="C12" s="58">
-        <v>254</v>
-      </c>
-      <c r="D12" s="58">
-        <v>257</v>
-      </c>
-      <c r="E12" s="58">
-        <v>254</v>
-      </c>
-      <c r="F12" s="58">
-        <v>257</v>
-      </c>
-      <c r="G12" s="58">
-        <v>221</v>
+      <c r="B12" s="57">
+        <v>318</v>
+      </c>
+      <c r="C12" s="57">
+        <v>183</v>
+      </c>
+      <c r="D12" s="57">
+        <v>316</v>
+      </c>
+      <c r="E12" s="57">
+        <v>136</v>
+      </c>
+      <c r="F12" s="57">
+        <v>180</v>
+      </c>
+      <c r="G12" s="57">
+        <v>135</v>
       </c>
       <c r="I12" s="35"/>
       <c r="J12" s="20"/>
-      <c r="K12" s="51">
-        <v>349</v>
-      </c>
-      <c r="L12" s="58">
-        <v>285</v>
-      </c>
-      <c r="M12" s="58">
+      <c r="K12" s="50">
+        <v>70</v>
+      </c>
+      <c r="L12" s="50">
+        <v>121</v>
+      </c>
+      <c r="M12" s="50">
+        <v>83</v>
+      </c>
+      <c r="N12" s="50">
+        <v>204</v>
+      </c>
+      <c r="O12" s="50">
+        <v>137</v>
+      </c>
+      <c r="P12" s="50">
         <v>185</v>
-      </c>
-      <c r="N12" s="58">
-        <v>285</v>
-      </c>
-      <c r="O12" s="58">
-        <v>185</v>
-      </c>
-      <c r="P12" s="58">
-        <v>349</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="20"/>
-      <c r="B13" s="51">
-        <v>207</v>
-      </c>
-      <c r="C13" s="58">
-        <v>240</v>
-      </c>
-      <c r="D13" s="58">
-        <v>257</v>
-      </c>
-      <c r="E13" s="58">
-        <v>240</v>
-      </c>
-      <c r="F13" s="58">
-        <v>257</v>
-      </c>
-      <c r="G13" s="58">
-        <v>207</v>
+      <c r="B13" s="57">
+        <v>282</v>
+      </c>
+      <c r="C13" s="57">
+        <v>161</v>
+      </c>
+      <c r="D13" s="57">
+        <v>285</v>
+      </c>
+      <c r="E13" s="57">
+        <v>105</v>
+      </c>
+      <c r="F13" s="57">
+        <v>180</v>
+      </c>
+      <c r="G13" s="57">
+        <v>121</v>
       </c>
       <c r="I13" s="35"/>
       <c r="J13" s="20"/>
-      <c r="K13" s="51">
-        <v>335</v>
-      </c>
-      <c r="L13" s="58">
-        <v>285</v>
-      </c>
-      <c r="M13" s="58">
-        <v>171</v>
-      </c>
-      <c r="N13" s="58">
-        <v>285</v>
-      </c>
-      <c r="O13" s="58">
-        <v>171</v>
-      </c>
-      <c r="P13" s="58">
-        <v>335</v>
+      <c r="K13" s="50">
+        <v>70</v>
+      </c>
+      <c r="L13" s="50">
+        <v>133</v>
+      </c>
+      <c r="M13" s="50">
+        <v>83</v>
+      </c>
+      <c r="N13" s="50">
+        <v>105</v>
+      </c>
+      <c r="O13" s="50">
+        <v>173</v>
+      </c>
+      <c r="P13" s="50">
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="20"/>
-      <c r="B14" s="51">
-        <v>207</v>
-      </c>
-      <c r="C14" s="58">
-        <v>240</v>
-      </c>
-      <c r="D14" s="58">
-        <v>257</v>
-      </c>
-      <c r="E14" s="58">
-        <v>240</v>
-      </c>
-      <c r="F14" s="58">
-        <v>257</v>
-      </c>
-      <c r="G14" s="58">
-        <v>207</v>
+      <c r="B14" s="57">
+        <v>282</v>
+      </c>
+      <c r="C14" s="57">
+        <v>161</v>
+      </c>
+      <c r="D14" s="57">
+        <v>269</v>
+      </c>
+      <c r="E14" s="57">
+        <v>105</v>
+      </c>
+      <c r="F14" s="57">
+        <v>164</v>
+      </c>
+      <c r="G14" s="57">
+        <v>121</v>
       </c>
       <c r="I14" s="35"/>
       <c r="J14" s="20"/>
-      <c r="K14" s="51">
-        <v>431</v>
-      </c>
-      <c r="L14" s="58">
-        <v>308</v>
-      </c>
-      <c r="M14" s="58">
-        <v>281</v>
-      </c>
-      <c r="N14" s="58">
-        <v>308</v>
-      </c>
-      <c r="O14" s="58">
-        <v>281</v>
-      </c>
-      <c r="P14" s="58">
-        <v>431</v>
+      <c r="K14" s="50">
+        <v>70</v>
+      </c>
+      <c r="L14" s="50">
+        <v>106</v>
+      </c>
+      <c r="M14" s="50">
+        <v>59</v>
+      </c>
+      <c r="N14" s="50">
+        <v>165</v>
+      </c>
+      <c r="O14" s="50">
+        <v>149</v>
+      </c>
+      <c r="P14" s="50">
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="20"/>
-      <c r="B15" s="51">
-        <v>207</v>
-      </c>
-      <c r="C15" s="58">
-        <v>240</v>
-      </c>
-      <c r="D15" s="58">
-        <v>257</v>
-      </c>
-      <c r="E15" s="58">
-        <v>240</v>
-      </c>
-      <c r="F15" s="58">
-        <v>257</v>
-      </c>
-      <c r="G15" s="58">
-        <v>207</v>
+      <c r="B15" s="57">
+        <v>282</v>
+      </c>
+      <c r="C15" s="57">
+        <v>161</v>
+      </c>
+      <c r="D15" s="57">
+        <v>241</v>
+      </c>
+      <c r="E15" s="57">
+        <v>105</v>
+      </c>
+      <c r="F15" s="57">
+        <v>136</v>
+      </c>
+      <c r="G15" s="57">
+        <v>121</v>
       </c>
       <c r="I15" s="35"/>
       <c r="J15" s="20"/>
-      <c r="K15" s="51">
-        <v>380</v>
-      </c>
-      <c r="L15" s="58">
-        <v>279</v>
-      </c>
-      <c r="M15" s="58">
-        <v>252</v>
-      </c>
-      <c r="N15" s="58">
-        <v>279</v>
-      </c>
-      <c r="O15" s="58">
-        <v>252</v>
-      </c>
-      <c r="P15" s="58">
-        <v>380</v>
+      <c r="K15" s="50">
+        <v>70</v>
+      </c>
+      <c r="L15" s="50">
+        <v>106</v>
+      </c>
+      <c r="M15" s="50">
+        <v>59</v>
+      </c>
+      <c r="N15" s="50">
+        <v>165</v>
+      </c>
+      <c r="O15" s="50">
+        <v>149</v>
+      </c>
+      <c r="P15" s="50">
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="20"/>
-      <c r="B16" s="51">
-        <v>176</v>
-      </c>
-      <c r="C16" s="58">
-        <v>187</v>
-      </c>
-      <c r="D16" s="58">
-        <v>243</v>
-      </c>
-      <c r="E16" s="58">
-        <v>187</v>
-      </c>
-      <c r="F16" s="58">
-        <v>243</v>
-      </c>
-      <c r="G16" s="58">
-        <v>176</v>
+      <c r="B16" s="57">
+        <v>245</v>
+      </c>
+      <c r="C16" s="57">
+        <v>139</v>
+      </c>
+      <c r="D16" s="57">
+        <v>197</v>
+      </c>
+      <c r="E16" s="57">
+        <v>82</v>
+      </c>
+      <c r="F16" s="57">
+        <v>115</v>
+      </c>
+      <c r="G16" s="57">
+        <v>106</v>
       </c>
       <c r="I16" s="35"/>
       <c r="J16" s="20"/>
-      <c r="K16" s="51">
-        <v>304</v>
-      </c>
-      <c r="L16" s="58">
-        <v>299</v>
-      </c>
-      <c r="M16" s="58">
-        <v>392</v>
-      </c>
-      <c r="N16" s="58">
-        <v>299</v>
-      </c>
-      <c r="O16" s="58">
-        <v>392</v>
-      </c>
-      <c r="P16" s="58">
-        <v>304</v>
+      <c r="K16" s="50">
+        <v>70</v>
+      </c>
+      <c r="L16" s="50">
+        <v>133</v>
+      </c>
+      <c r="M16" s="50">
+        <v>59</v>
+      </c>
+      <c r="N16" s="50">
+        <v>129</v>
+      </c>
+      <c r="O16" s="50">
+        <v>136</v>
+      </c>
+      <c r="P16" s="50">
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="20"/>
-      <c r="B17" s="51">
-        <v>176</v>
-      </c>
-      <c r="C17" s="58">
-        <v>187</v>
-      </c>
-      <c r="D17" s="58">
-        <v>243</v>
-      </c>
-      <c r="E17" s="58">
-        <v>187</v>
-      </c>
-      <c r="F17" s="58">
-        <v>243</v>
-      </c>
-      <c r="G17" s="58">
-        <v>176</v>
+      <c r="B17" s="57">
+        <v>245</v>
+      </c>
+      <c r="C17" s="57">
+        <v>139</v>
+      </c>
+      <c r="D17" s="57">
+        <v>197</v>
+      </c>
+      <c r="E17" s="57">
+        <v>82</v>
+      </c>
+      <c r="F17" s="57">
+        <v>115</v>
+      </c>
+      <c r="G17" s="57">
+        <v>106</v>
       </c>
       <c r="I17" s="35"/>
       <c r="J17" s="20"/>
-      <c r="K17" s="51">
-        <v>304</v>
-      </c>
-      <c r="L17" s="58">
-        <v>299</v>
-      </c>
-      <c r="M17" s="58">
-        <v>392</v>
-      </c>
-      <c r="N17" s="58">
-        <v>299</v>
-      </c>
-      <c r="O17" s="58">
-        <v>392</v>
-      </c>
-      <c r="P17" s="58">
-        <v>304</v>
+      <c r="K17" s="50">
+        <v>70</v>
+      </c>
+      <c r="L17" s="50">
+        <v>133</v>
+      </c>
+      <c r="M17" s="50">
+        <v>59</v>
+      </c>
+      <c r="N17" s="50">
+        <v>105</v>
+      </c>
+      <c r="O17" s="50">
+        <v>136</v>
+      </c>
+      <c r="P17" s="50">
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="20"/>
-      <c r="B18" s="51">
-        <v>220</v>
-      </c>
-      <c r="C18" s="58">
-        <v>231</v>
-      </c>
-      <c r="D18" s="58">
-        <v>243</v>
-      </c>
-      <c r="E18" s="58">
-        <v>231</v>
-      </c>
-      <c r="F18" s="58">
-        <v>243</v>
-      </c>
-      <c r="G18" s="58">
-        <v>220</v>
+      <c r="B18" s="57">
+        <v>245</v>
+      </c>
+      <c r="C18" s="57">
+        <v>139</v>
+      </c>
+      <c r="D18" s="57">
+        <v>197</v>
+      </c>
+      <c r="E18" s="57">
+        <v>82</v>
+      </c>
+      <c r="F18" s="57">
+        <v>115</v>
+      </c>
+      <c r="G18" s="57">
+        <v>106</v>
       </c>
       <c r="I18" s="35"/>
       <c r="J18" s="20"/>
-      <c r="K18" s="51">
-        <v>403</v>
-      </c>
-      <c r="L18" s="58">
-        <v>229</v>
-      </c>
-      <c r="M18" s="58">
-        <v>234</v>
-      </c>
-      <c r="N18" s="58">
-        <v>229</v>
-      </c>
-      <c r="O18" s="58">
-        <v>234</v>
-      </c>
-      <c r="P18" s="58">
-        <v>403</v>
+      <c r="K18" s="50">
+        <v>70</v>
+      </c>
+      <c r="L18" s="50">
+        <v>133</v>
+      </c>
+      <c r="M18" s="50">
+        <v>59</v>
+      </c>
+      <c r="N18" s="50">
+        <v>105</v>
+      </c>
+      <c r="O18" s="50">
+        <v>136</v>
+      </c>
+      <c r="P18" s="50">
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="20"/>
-      <c r="B19" s="51">
-        <v>234</v>
-      </c>
-      <c r="C19" s="58">
-        <v>231</v>
-      </c>
-      <c r="D19" s="58">
-        <v>243</v>
-      </c>
-      <c r="E19" s="58">
-        <v>231</v>
-      </c>
-      <c r="F19" s="58">
-        <v>243</v>
-      </c>
-      <c r="G19" s="58">
-        <v>234</v>
+      <c r="B19" s="57">
+        <v>251</v>
+      </c>
+      <c r="C19" s="57">
+        <v>145</v>
+      </c>
+      <c r="D19" s="57">
+        <v>197</v>
+      </c>
+      <c r="E19" s="57">
+        <v>82</v>
+      </c>
+      <c r="F19" s="57">
+        <v>115</v>
+      </c>
+      <c r="G19" s="57">
+        <v>106</v>
       </c>
       <c r="I19" s="35"/>
       <c r="J19" s="20"/>
-      <c r="K19" s="51">
-        <v>163</v>
-      </c>
-      <c r="L19" s="58">
-        <v>229</v>
-      </c>
-      <c r="M19" s="58">
-        <v>218</v>
-      </c>
-      <c r="N19" s="58">
-        <v>229</v>
-      </c>
-      <c r="O19" s="58">
-        <v>218</v>
-      </c>
-      <c r="P19" s="58">
-        <v>163</v>
+      <c r="K19" s="50">
+        <v>70</v>
+      </c>
+      <c r="L19" s="50">
+        <v>133</v>
+      </c>
+      <c r="M19" s="50">
+        <v>59</v>
+      </c>
+      <c r="N19" s="50">
+        <v>105</v>
+      </c>
+      <c r="O19" s="50">
+        <v>136</v>
+      </c>
+      <c r="P19" s="50">
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="20"/>
-      <c r="B20" s="51">
-        <v>246</v>
-      </c>
-      <c r="C20" s="58">
-        <v>243</v>
-      </c>
-      <c r="D20" s="58">
-        <v>257</v>
-      </c>
-      <c r="E20" s="58">
-        <v>243</v>
-      </c>
-      <c r="F20" s="58">
-        <v>257</v>
-      </c>
-      <c r="G20" s="58">
-        <v>246</v>
+      <c r="B20" s="57">
+        <v>251</v>
+      </c>
+      <c r="C20" s="57">
+        <v>145</v>
+      </c>
+      <c r="D20" s="57">
+        <v>197</v>
+      </c>
+      <c r="E20" s="57">
+        <v>82</v>
+      </c>
+      <c r="F20" s="57">
+        <v>115</v>
+      </c>
+      <c r="G20" s="57">
+        <v>106</v>
       </c>
       <c r="I20" s="35"/>
       <c r="J20" s="20"/>
-      <c r="K20" s="51">
-        <v>163</v>
-      </c>
-      <c r="L20" s="58">
-        <v>229</v>
-      </c>
-      <c r="M20" s="58">
-        <v>218</v>
-      </c>
-      <c r="N20" s="58">
-        <v>229</v>
-      </c>
-      <c r="O20" s="58">
-        <v>218</v>
-      </c>
-      <c r="P20" s="58">
-        <v>163</v>
+      <c r="K20" s="50">
+        <v>48</v>
+      </c>
+      <c r="L20" s="50">
+        <v>133</v>
+      </c>
+      <c r="M20" s="50">
+        <v>59</v>
+      </c>
+      <c r="N20" s="50">
+        <v>136</v>
+      </c>
+      <c r="O20" s="50">
+        <v>136</v>
+      </c>
+      <c r="P20" s="50">
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="20"/>
-      <c r="B21" s="51">
-        <v>246</v>
-      </c>
-      <c r="C21" s="58">
-        <v>253</v>
-      </c>
-      <c r="D21" s="58">
-        <v>267</v>
-      </c>
-      <c r="E21" s="58">
-        <v>253</v>
-      </c>
-      <c r="F21" s="58">
-        <v>267</v>
-      </c>
-      <c r="G21" s="58">
-        <v>246</v>
+      <c r="B21" s="57">
+        <v>231</v>
+      </c>
+      <c r="C21" s="57">
+        <v>125</v>
+      </c>
+      <c r="D21" s="57">
+        <v>197</v>
+      </c>
+      <c r="E21" s="57">
+        <v>82</v>
+      </c>
+      <c r="F21" s="57">
+        <v>115</v>
+      </c>
+      <c r="G21" s="57">
+        <v>106</v>
       </c>
       <c r="I21" s="35"/>
       <c r="J21" s="20"/>
-      <c r="K21" s="51">
-        <v>292</v>
-      </c>
-      <c r="L21" s="58">
-        <v>209</v>
-      </c>
-      <c r="M21" s="58">
-        <v>218</v>
-      </c>
-      <c r="N21" s="58">
-        <v>209</v>
-      </c>
-      <c r="O21" s="58">
-        <v>218</v>
-      </c>
-      <c r="P21" s="58">
-        <v>292</v>
+      <c r="K21" s="50">
+        <v>48</v>
+      </c>
+      <c r="L21" s="50">
+        <v>122</v>
+      </c>
+      <c r="M21" s="50">
+        <v>51</v>
+      </c>
+      <c r="N21" s="50">
+        <v>113</v>
+      </c>
+      <c r="O21" s="50">
+        <v>98</v>
+      </c>
+      <c r="P21" s="50">
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="20"/>
-      <c r="B22" s="51">
-        <v>246</v>
-      </c>
-      <c r="C22" s="58">
-        <v>253</v>
-      </c>
-      <c r="D22" s="58">
-        <v>267</v>
-      </c>
-      <c r="E22" s="58">
-        <v>253</v>
-      </c>
-      <c r="F22" s="58">
-        <v>267</v>
-      </c>
-      <c r="G22" s="58">
-        <v>246</v>
+      <c r="B22" s="57">
+        <v>231</v>
+      </c>
+      <c r="C22" s="57">
+        <v>125</v>
+      </c>
+      <c r="D22" s="57">
+        <v>185</v>
+      </c>
+      <c r="E22" s="57">
+        <v>70</v>
+      </c>
+      <c r="F22" s="57">
+        <v>115</v>
+      </c>
+      <c r="G22" s="57">
+        <v>106</v>
       </c>
       <c r="I22" s="35"/>
       <c r="J22" s="20"/>
-      <c r="K22" s="51">
-        <v>285</v>
-      </c>
-      <c r="L22" s="58">
-        <v>209</v>
-      </c>
-      <c r="M22" s="58">
-        <v>218</v>
-      </c>
-      <c r="N22" s="58">
-        <v>209</v>
-      </c>
-      <c r="O22" s="58">
-        <v>218</v>
-      </c>
-      <c r="P22" s="58">
-        <v>285</v>
+      <c r="K22" s="50">
+        <v>48</v>
+      </c>
+      <c r="L22" s="50">
+        <v>85</v>
+      </c>
+      <c r="M22" s="50">
+        <v>59</v>
+      </c>
+      <c r="N22" s="50">
+        <v>83</v>
+      </c>
+      <c r="O22" s="50">
+        <v>82</v>
+      </c>
+      <c r="P22" s="50">
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="20"/>
-      <c r="B23" s="51">
-        <v>246</v>
-      </c>
-      <c r="C23" s="58">
-        <v>253</v>
-      </c>
-      <c r="D23" s="58">
-        <v>267</v>
-      </c>
-      <c r="E23" s="58">
-        <v>253</v>
-      </c>
-      <c r="F23" s="58">
-        <v>267</v>
-      </c>
-      <c r="G23" s="58">
-        <v>246</v>
+      <c r="B23" s="57">
+        <v>231</v>
+      </c>
+      <c r="C23" s="57">
+        <v>125</v>
+      </c>
+      <c r="D23" s="57">
+        <v>185</v>
+      </c>
+      <c r="E23" s="57">
+        <v>70</v>
+      </c>
+      <c r="F23" s="57">
+        <v>115</v>
+      </c>
+      <c r="G23" s="57">
+        <v>106</v>
       </c>
       <c r="I23" s="35"/>
       <c r="J23" s="20"/>
-      <c r="K23" s="51">
-        <v>285</v>
-      </c>
-      <c r="L23" s="58">
-        <v>209</v>
-      </c>
-      <c r="M23" s="58">
-        <v>218</v>
-      </c>
-      <c r="N23" s="58">
-        <v>209</v>
-      </c>
-      <c r="O23" s="58">
-        <v>218</v>
-      </c>
-      <c r="P23" s="58">
-        <v>285</v>
+      <c r="K23" s="50">
+        <v>48</v>
+      </c>
+      <c r="L23" s="50">
+        <v>85</v>
+      </c>
+      <c r="M23" s="50">
+        <v>59</v>
+      </c>
+      <c r="N23" s="50">
+        <v>83</v>
+      </c>
+      <c r="O23" s="50">
+        <v>82</v>
+      </c>
+      <c r="P23" s="50">
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="20"/>
-      <c r="B24" s="51">
-        <v>246</v>
-      </c>
-      <c r="C24" s="58">
-        <v>253</v>
-      </c>
-      <c r="D24" s="58">
-        <v>267</v>
-      </c>
-      <c r="E24" s="58">
-        <v>253</v>
-      </c>
-      <c r="F24" s="58">
-        <v>267</v>
-      </c>
-      <c r="G24" s="58">
-        <v>246</v>
+      <c r="B24" s="57">
+        <v>729</v>
+      </c>
+      <c r="C24" s="57">
+        <v>469</v>
+      </c>
+      <c r="D24" s="57">
+        <v>707</v>
+      </c>
+      <c r="E24" s="57">
+        <v>336</v>
+      </c>
+      <c r="F24" s="57">
+        <v>371</v>
+      </c>
+      <c r="G24" s="57">
+        <v>260</v>
       </c>
       <c r="I24" s="35"/>
       <c r="J24" s="20"/>
-      <c r="K24" s="51">
-        <v>285</v>
-      </c>
-      <c r="L24" s="58">
-        <v>209</v>
-      </c>
-      <c r="M24" s="58">
-        <v>220</v>
-      </c>
-      <c r="N24" s="58">
-        <v>209</v>
-      </c>
-      <c r="O24" s="58">
-        <v>220</v>
-      </c>
-      <c r="P24" s="58">
-        <v>285</v>
+      <c r="K24" s="50">
+        <v>125</v>
+      </c>
+      <c r="L24" s="50">
+        <v>450</v>
+      </c>
+      <c r="M24" s="50">
+        <v>131</v>
+      </c>
+      <c r="N24" s="50">
+        <v>345</v>
+      </c>
+      <c r="O24" s="50">
+        <v>274</v>
+      </c>
+      <c r="P24" s="50">
+        <v>399</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="20"/>
-      <c r="B25" s="51">
-        <v>246</v>
-      </c>
-      <c r="C25" s="58">
-        <v>253</v>
-      </c>
-      <c r="D25" s="58">
-        <v>267</v>
-      </c>
-      <c r="E25" s="58">
-        <v>253</v>
-      </c>
-      <c r="F25" s="58">
-        <v>267</v>
-      </c>
-      <c r="G25" s="58">
-        <v>246</v>
+      <c r="B25" s="57">
+        <v>729</v>
+      </c>
+      <c r="C25" s="57">
+        <v>469</v>
+      </c>
+      <c r="D25" s="57">
+        <v>707</v>
+      </c>
+      <c r="E25" s="57">
+        <v>336</v>
+      </c>
+      <c r="F25" s="57">
+        <v>371</v>
+      </c>
+      <c r="G25" s="57">
+        <v>260</v>
       </c>
       <c r="I25" s="35"/>
       <c r="J25" s="20"/>
-      <c r="K25" s="51">
-        <v>285</v>
-      </c>
-      <c r="L25" s="58">
-        <v>209</v>
-      </c>
-      <c r="M25" s="58">
-        <v>220</v>
-      </c>
-      <c r="N25" s="58">
-        <v>209</v>
-      </c>
-      <c r="O25" s="58">
-        <v>220</v>
-      </c>
-      <c r="P25" s="58">
-        <v>285</v>
+      <c r="K25" s="50">
+        <v>125</v>
+      </c>
+      <c r="L25" s="50">
+        <v>450</v>
+      </c>
+      <c r="M25" s="50">
+        <v>131</v>
+      </c>
+      <c r="N25" s="50">
+        <v>345</v>
+      </c>
+      <c r="O25" s="50">
+        <v>274</v>
+      </c>
+      <c r="P25" s="50">
+        <v>399</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="20"/>
-      <c r="B26" s="51">
-        <v>232</v>
-      </c>
-      <c r="C26" s="58">
-        <v>239</v>
-      </c>
-      <c r="D26" s="58">
-        <v>267</v>
-      </c>
-      <c r="E26" s="58">
-        <v>239</v>
-      </c>
-      <c r="F26" s="58">
-        <v>267</v>
-      </c>
-      <c r="G26" s="58">
-        <v>232</v>
+      <c r="B26" s="57">
+        <v>729</v>
+      </c>
+      <c r="C26" s="57">
+        <v>469</v>
+      </c>
+      <c r="D26" s="57">
+        <v>707</v>
+      </c>
+      <c r="E26" s="57">
+        <v>336</v>
+      </c>
+      <c r="F26" s="57">
+        <v>371</v>
+      </c>
+      <c r="G26" s="57">
+        <v>260</v>
       </c>
       <c r="I26" s="35"/>
       <c r="J26" s="20"/>
-      <c r="K26" s="51">
-        <v>333</v>
-      </c>
-      <c r="L26" s="58">
-        <v>242</v>
-      </c>
-      <c r="M26" s="58">
-        <v>220</v>
-      </c>
-      <c r="N26" s="58">
-        <v>242</v>
-      </c>
-      <c r="O26" s="58">
-        <v>220</v>
-      </c>
-      <c r="P26" s="58">
-        <v>333</v>
+      <c r="K26" s="50">
+        <v>125</v>
+      </c>
+      <c r="L26" s="50">
+        <v>450</v>
+      </c>
+      <c r="M26" s="50">
+        <v>119</v>
+      </c>
+      <c r="N26" s="50">
+        <v>345</v>
+      </c>
+      <c r="O26" s="50">
+        <v>274</v>
+      </c>
+      <c r="P26" s="50">
+        <v>399</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="20"/>
-      <c r="B27" s="51">
-        <v>232</v>
-      </c>
-      <c r="C27" s="58">
-        <v>239</v>
-      </c>
-      <c r="D27" s="58">
-        <v>267</v>
-      </c>
-      <c r="E27" s="58">
-        <v>239</v>
-      </c>
-      <c r="F27" s="58">
-        <v>267</v>
-      </c>
-      <c r="G27" s="58">
-        <v>232</v>
+      <c r="B27" s="57">
+        <v>729</v>
+      </c>
+      <c r="C27" s="57">
+        <v>469</v>
+      </c>
+      <c r="D27" s="57">
+        <v>707</v>
+      </c>
+      <c r="E27" s="57">
+        <v>336</v>
+      </c>
+      <c r="F27" s="57">
+        <v>371</v>
+      </c>
+      <c r="G27" s="57">
+        <v>260</v>
       </c>
       <c r="I27" s="35"/>
       <c r="J27" s="20"/>
-      <c r="K27" s="51">
-        <v>340</v>
-      </c>
-      <c r="L27" s="58">
-        <v>242</v>
-      </c>
-      <c r="M27" s="58">
-        <v>218</v>
-      </c>
-      <c r="N27" s="58">
-        <v>242</v>
-      </c>
-      <c r="O27" s="58">
-        <v>218</v>
-      </c>
-      <c r="P27" s="58">
-        <v>340</v>
+      <c r="K27" s="50">
+        <v>125</v>
+      </c>
+      <c r="L27" s="50">
+        <v>450</v>
+      </c>
+      <c r="M27" s="50">
+        <v>119</v>
+      </c>
+      <c r="N27" s="50">
+        <v>345</v>
+      </c>
+      <c r="O27" s="50">
+        <v>274</v>
+      </c>
+      <c r="P27" s="50">
+        <v>399</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="20"/>
-      <c r="B28" s="51">
-        <v>243</v>
-      </c>
-      <c r="C28" s="58">
-        <v>264</v>
-      </c>
-      <c r="D28" s="58">
-        <v>294</v>
-      </c>
-      <c r="E28" s="58">
-        <v>264</v>
-      </c>
-      <c r="F28" s="58">
-        <v>294</v>
-      </c>
-      <c r="G28" s="58">
-        <v>243</v>
+      <c r="B28" s="57">
+        <v>634</v>
+      </c>
+      <c r="C28" s="57">
+        <v>374</v>
+      </c>
+      <c r="D28" s="57">
+        <v>621</v>
+      </c>
+      <c r="E28" s="57">
+        <v>336</v>
+      </c>
+      <c r="F28" s="57">
+        <v>285</v>
+      </c>
+      <c r="G28" s="57">
+        <v>260</v>
       </c>
       <c r="I28" s="35"/>
       <c r="J28" s="20"/>
-      <c r="K28" s="51">
-        <v>340</v>
-      </c>
-      <c r="L28" s="58">
-        <v>242</v>
-      </c>
-      <c r="M28" s="58">
-        <v>431</v>
-      </c>
-      <c r="N28" s="58">
-        <v>242</v>
-      </c>
-      <c r="O28" s="58">
-        <v>431</v>
-      </c>
-      <c r="P28" s="58">
-        <v>340</v>
+      <c r="K28" s="50">
+        <v>125</v>
+      </c>
+      <c r="L28" s="50">
+        <v>356</v>
+      </c>
+      <c r="M28" s="50">
+        <v>36</v>
+      </c>
+      <c r="N28" s="50">
+        <v>282</v>
+      </c>
+      <c r="O28" s="50">
+        <v>273</v>
+      </c>
+      <c r="P28" s="50">
+        <v>399</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="20"/>
-      <c r="B29" s="51">
-        <v>243</v>
-      </c>
-      <c r="C29" s="58">
-        <v>264</v>
-      </c>
-      <c r="D29" s="58">
-        <v>294</v>
-      </c>
-      <c r="E29" s="58">
-        <v>264</v>
-      </c>
-      <c r="F29" s="58">
-        <v>294</v>
-      </c>
-      <c r="G29" s="58">
-        <v>243</v>
+      <c r="B29" s="57">
+        <v>157</v>
+      </c>
+      <c r="C29" s="57">
+        <v>94</v>
+      </c>
+      <c r="D29" s="57">
+        <v>160</v>
+      </c>
+      <c r="E29" s="57">
+        <v>67</v>
+      </c>
+      <c r="F29" s="57">
+        <v>93</v>
+      </c>
+      <c r="G29" s="57">
+        <v>63</v>
       </c>
       <c r="I29" s="35"/>
       <c r="J29" s="20"/>
-      <c r="K29" s="51">
-        <v>166</v>
-      </c>
-      <c r="L29" s="58">
-        <v>223</v>
-      </c>
-      <c r="M29" s="58">
-        <v>341</v>
-      </c>
-      <c r="N29" s="58">
-        <v>223</v>
-      </c>
-      <c r="O29" s="58">
-        <v>341</v>
-      </c>
-      <c r="P29" s="58">
-        <v>166</v>
+      <c r="K29" s="50">
+        <v>27</v>
+      </c>
+      <c r="L29" s="50">
+        <v>67</v>
+      </c>
+      <c r="M29" s="50">
+        <v>36</v>
+      </c>
+      <c r="N29" s="50">
+        <v>95</v>
+      </c>
+      <c r="O29" s="50">
+        <v>84</v>
+      </c>
+      <c r="P29" s="50">
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="20"/>
-      <c r="B30" s="51">
-        <v>255</v>
-      </c>
-      <c r="C30" s="58">
-        <v>276</v>
-      </c>
-      <c r="D30" s="58">
-        <v>294</v>
-      </c>
-      <c r="E30" s="58">
-        <v>276</v>
-      </c>
-      <c r="F30" s="58">
-        <v>294</v>
-      </c>
-      <c r="G30" s="58">
-        <v>255</v>
+      <c r="B30" s="57">
+        <v>157</v>
+      </c>
+      <c r="C30" s="57">
+        <v>94</v>
+      </c>
+      <c r="D30" s="57">
+        <v>160</v>
+      </c>
+      <c r="E30" s="57">
+        <v>67</v>
+      </c>
+      <c r="F30" s="57">
+        <v>93</v>
+      </c>
+      <c r="G30" s="57">
+        <v>63</v>
       </c>
       <c r="I30" s="35"/>
       <c r="J30" s="20"/>
-      <c r="K30" s="51">
-        <v>182</v>
-      </c>
-      <c r="L30" s="58">
-        <v>190</v>
-      </c>
-      <c r="M30" s="58">
-        <v>210</v>
-      </c>
-      <c r="N30" s="58">
-        <v>190</v>
-      </c>
-      <c r="O30" s="58">
-        <v>210</v>
-      </c>
-      <c r="P30" s="58">
-        <v>182</v>
+      <c r="K30" s="50">
+        <v>27</v>
+      </c>
+      <c r="L30" s="50">
+        <v>67</v>
+      </c>
+      <c r="M30" s="50">
+        <v>36</v>
+      </c>
+      <c r="N30" s="50">
+        <v>95</v>
+      </c>
+      <c r="O30" s="50">
+        <v>75</v>
+      </c>
+      <c r="P30" s="50">
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="20"/>
-      <c r="B31" s="51">
-        <v>255</v>
-      </c>
-      <c r="C31" s="58">
-        <v>276</v>
-      </c>
-      <c r="D31" s="58">
-        <v>304</v>
-      </c>
-      <c r="E31" s="58">
-        <v>276</v>
-      </c>
-      <c r="F31" s="58">
-        <v>304</v>
-      </c>
-      <c r="G31" s="58">
-        <v>255</v>
+      <c r="B31" s="57">
+        <v>157</v>
+      </c>
+      <c r="C31" s="57">
+        <v>94</v>
+      </c>
+      <c r="D31" s="57">
+        <v>160</v>
+      </c>
+      <c r="E31" s="57">
+        <v>67</v>
+      </c>
+      <c r="F31" s="57">
+        <v>93</v>
+      </c>
+      <c r="G31" s="57">
+        <v>63</v>
       </c>
       <c r="I31" s="35"/>
       <c r="J31" s="20"/>
-      <c r="K31" s="51">
-        <v>182</v>
-      </c>
-      <c r="L31" s="58">
-        <v>190</v>
-      </c>
-      <c r="M31" s="58">
-        <v>176</v>
-      </c>
-      <c r="N31" s="58">
-        <v>190</v>
-      </c>
-      <c r="O31" s="58">
-        <v>176</v>
-      </c>
-      <c r="P31" s="58">
-        <v>182</v>
+      <c r="K31" s="50">
+        <v>27</v>
+      </c>
+      <c r="L31" s="50">
+        <v>67</v>
+      </c>
+      <c r="M31" s="50">
+        <v>36</v>
+      </c>
+      <c r="N31" s="50">
+        <v>95</v>
+      </c>
+      <c r="O31" s="50">
+        <v>84</v>
+      </c>
+      <c r="P31" s="50">
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="20"/>
-      <c r="B32" s="51">
-        <v>255</v>
-      </c>
-      <c r="C32" s="58">
-        <v>276</v>
-      </c>
-      <c r="D32" s="58">
-        <v>304</v>
-      </c>
-      <c r="E32" s="58">
-        <v>276</v>
-      </c>
-      <c r="F32" s="58">
-        <v>304</v>
-      </c>
-      <c r="G32" s="58">
-        <v>255</v>
+      <c r="B32" s="57">
+        <v>157</v>
+      </c>
+      <c r="C32" s="57">
+        <v>94</v>
+      </c>
+      <c r="D32" s="57">
+        <v>160</v>
+      </c>
+      <c r="E32" s="57">
+        <v>67</v>
+      </c>
+      <c r="F32" s="57">
+        <v>93</v>
+      </c>
+      <c r="G32" s="57">
+        <v>63</v>
       </c>
       <c r="I32" s="35"/>
       <c r="J32" s="20"/>
-      <c r="K32" s="51">
-        <v>182</v>
-      </c>
-      <c r="L32" s="58">
-        <v>218</v>
-      </c>
-      <c r="M32" s="58">
-        <v>148</v>
-      </c>
-      <c r="N32" s="58">
-        <v>218</v>
-      </c>
-      <c r="O32" s="58">
-        <v>148</v>
-      </c>
-      <c r="P32" s="58">
-        <v>182</v>
+      <c r="K32" s="50">
+        <v>27</v>
+      </c>
+      <c r="L32" s="50">
+        <v>67</v>
+      </c>
+      <c r="M32" s="50">
+        <v>36</v>
+      </c>
+      <c r="N32" s="50">
+        <v>95</v>
+      </c>
+      <c r="O32" s="50">
+        <v>84</v>
+      </c>
+      <c r="P32" s="50">
+        <v>111</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="20"/>
-      <c r="B33" s="51">
-        <v>255</v>
-      </c>
-      <c r="C33" s="58">
-        <v>276</v>
-      </c>
-      <c r="D33" s="58">
-        <v>304</v>
-      </c>
-      <c r="E33" s="58">
-        <v>276</v>
-      </c>
-      <c r="F33" s="58">
-        <v>304</v>
-      </c>
-      <c r="G33" s="58">
-        <v>255</v>
+      <c r="B33" s="57">
+        <v>157</v>
+      </c>
+      <c r="C33" s="57">
+        <v>94</v>
+      </c>
+      <c r="D33" s="57">
+        <v>160</v>
+      </c>
+      <c r="E33" s="57">
+        <v>67</v>
+      </c>
+      <c r="F33" s="57">
+        <v>93</v>
+      </c>
+      <c r="G33" s="57">
+        <v>63</v>
       </c>
       <c r="I33" s="35"/>
       <c r="J33" s="20"/>
-      <c r="K33" s="51">
+      <c r="K33" s="50">
+        <v>27</v>
+      </c>
+      <c r="L33" s="50">
+        <v>67</v>
+      </c>
+      <c r="M33" s="50">
+        <v>36</v>
+      </c>
+      <c r="N33" s="50">
+        <v>95</v>
+      </c>
+      <c r="O33" s="50">
+        <v>71</v>
+      </c>
+      <c r="P33" s="50">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="20"/>
+      <c r="B34" s="57">
         <v>157</v>
       </c>
-      <c r="L33" s="58">
-        <v>162</v>
-      </c>
-      <c r="M33" s="58">
-        <v>148</v>
-      </c>
-      <c r="N33" s="58">
-        <v>162</v>
-      </c>
-      <c r="O33" s="58">
-        <v>148</v>
-      </c>
-      <c r="P33" s="58">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="20"/>
-      <c r="B34" s="51">
-        <v>255</v>
-      </c>
-      <c r="C34" s="58">
-        <v>276</v>
-      </c>
-      <c r="D34" s="58">
-        <v>304</v>
-      </c>
-      <c r="E34" s="58">
-        <v>276</v>
-      </c>
-      <c r="F34" s="58">
-        <v>304</v>
-      </c>
-      <c r="G34" s="58">
-        <v>255</v>
+      <c r="C34" s="57">
+        <v>94</v>
+      </c>
+      <c r="D34" s="57">
+        <v>160</v>
+      </c>
+      <c r="E34" s="57">
+        <v>67</v>
+      </c>
+      <c r="F34" s="57">
+        <v>93</v>
+      </c>
+      <c r="G34" s="57">
+        <v>63</v>
       </c>
       <c r="I34" s="35"/>
       <c r="J34" s="20"/>
-      <c r="K34" s="51">
-        <v>167</v>
-      </c>
-      <c r="L34" s="58">
-        <v>203</v>
-      </c>
-      <c r="M34" s="58">
-        <v>148</v>
-      </c>
-      <c r="N34" s="58">
-        <v>203</v>
-      </c>
-      <c r="O34" s="58">
-        <v>148</v>
-      </c>
-      <c r="P34" s="58">
-        <v>167</v>
+      <c r="K34" s="50">
+        <v>27</v>
+      </c>
+      <c r="L34" s="50">
+        <v>72</v>
+      </c>
+      <c r="M34" s="50">
+        <v>36</v>
+      </c>
+      <c r="N34" s="50">
+        <v>95</v>
+      </c>
+      <c r="O34" s="50">
+        <v>99</v>
+      </c>
+      <c r="P34" s="50">
+        <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="20"/>
-      <c r="B35" s="51">
-        <v>239</v>
-      </c>
-      <c r="C35" s="58">
-        <v>260</v>
-      </c>
-      <c r="D35" s="58">
-        <v>304</v>
-      </c>
-      <c r="E35" s="58">
-        <v>260</v>
-      </c>
-      <c r="F35" s="58">
-        <v>304</v>
-      </c>
-      <c r="G35" s="58">
-        <v>239</v>
+      <c r="B35" s="57">
+        <v>157</v>
+      </c>
+      <c r="C35" s="57">
+        <v>94</v>
+      </c>
+      <c r="D35" s="57">
+        <v>160</v>
+      </c>
+      <c r="E35" s="57">
+        <v>67</v>
+      </c>
+      <c r="F35" s="57">
+        <v>93</v>
+      </c>
+      <c r="G35" s="57">
+        <v>63</v>
       </c>
       <c r="I35" s="35"/>
       <c r="J35" s="20"/>
-      <c r="K35" s="51">
-        <v>143</v>
-      </c>
-      <c r="L35" s="58">
-        <v>179</v>
-      </c>
-      <c r="M35" s="58">
-        <v>148</v>
-      </c>
-      <c r="N35" s="58">
-        <v>179</v>
-      </c>
-      <c r="O35" s="58">
-        <v>148</v>
-      </c>
-      <c r="P35" s="58">
-        <v>143</v>
+      <c r="K35" s="50">
+        <v>27</v>
+      </c>
+      <c r="L35" s="50">
+        <v>90</v>
+      </c>
+      <c r="M35" s="50">
+        <v>36</v>
+      </c>
+      <c r="N35" s="50">
+        <v>76</v>
+      </c>
+      <c r="O35" s="50">
+        <v>99</v>
+      </c>
+      <c r="P35" s="50">
+        <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="20"/>
-      <c r="B36" s="51">
-        <v>239</v>
-      </c>
-      <c r="C36" s="58">
-        <v>260</v>
-      </c>
-      <c r="D36" s="58">
-        <v>304</v>
-      </c>
-      <c r="E36" s="58">
-        <v>260</v>
-      </c>
-      <c r="F36" s="58">
-        <v>304</v>
-      </c>
-      <c r="G36" s="58">
-        <v>239</v>
+      <c r="B36" s="57">
+        <v>157</v>
+      </c>
+      <c r="C36" s="57">
+        <v>94</v>
+      </c>
+      <c r="D36" s="57">
+        <v>160</v>
+      </c>
+      <c r="E36" s="57">
+        <v>67</v>
+      </c>
+      <c r="F36" s="57">
+        <v>93</v>
+      </c>
+      <c r="G36" s="57">
+        <v>63</v>
       </c>
       <c r="I36" s="35"/>
       <c r="J36" s="20"/>
-      <c r="K36" s="51">
-        <v>143</v>
-      </c>
-      <c r="L36" s="58">
-        <v>205</v>
-      </c>
-      <c r="M36" s="58">
-        <v>148</v>
-      </c>
-      <c r="N36" s="58">
-        <v>205</v>
-      </c>
-      <c r="O36" s="58">
-        <v>148</v>
-      </c>
-      <c r="P36" s="58">
-        <v>143</v>
+      <c r="K36" s="50">
+        <v>36</v>
+      </c>
+      <c r="L36" s="50">
+        <v>99</v>
+      </c>
+      <c r="M36" s="50">
+        <v>36</v>
+      </c>
+      <c r="N36" s="50">
+        <v>76</v>
+      </c>
+      <c r="O36" s="50">
+        <v>99</v>
+      </c>
+      <c r="P36" s="50">
+        <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="20"/>
-      <c r="B37" s="51">
-        <v>262</v>
-      </c>
-      <c r="C37" s="58">
-        <v>272</v>
-      </c>
-      <c r="D37" s="58">
-        <v>304</v>
-      </c>
-      <c r="E37" s="58">
-        <v>272</v>
-      </c>
-      <c r="F37" s="58">
-        <v>304</v>
-      </c>
-      <c r="G37" s="58">
-        <v>262</v>
+      <c r="B37" s="57">
+        <v>157</v>
+      </c>
+      <c r="C37" s="57">
+        <v>94</v>
+      </c>
+      <c r="D37" s="57">
+        <v>160</v>
+      </c>
+      <c r="E37" s="57">
+        <v>67</v>
+      </c>
+      <c r="F37" s="57">
+        <v>93</v>
+      </c>
+      <c r="G37" s="57">
+        <v>63</v>
       </c>
       <c r="I37" s="35"/>
       <c r="J37" s="20"/>
-      <c r="K37" s="51">
-        <v>346</v>
-      </c>
-      <c r="L37" s="58">
-        <v>293</v>
-      </c>
-      <c r="M37" s="58">
-        <v>417</v>
-      </c>
-      <c r="N37" s="58">
-        <v>293</v>
-      </c>
-      <c r="O37" s="58">
-        <v>417</v>
-      </c>
-      <c r="P37" s="58">
-        <v>346</v>
+      <c r="K37" s="50">
+        <v>36</v>
+      </c>
+      <c r="L37" s="50">
+        <v>99</v>
+      </c>
+      <c r="M37" s="50">
+        <v>36</v>
+      </c>
+      <c r="N37" s="50">
+        <v>76</v>
+      </c>
+      <c r="O37" s="50">
+        <v>99</v>
+      </c>
+      <c r="P37" s="50">
+        <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="22"/>
-      <c r="B38" s="52">
-        <v>262</v>
-      </c>
-      <c r="C38" s="3">
-        <v>272</v>
-      </c>
-      <c r="D38" s="3">
-        <v>304</v>
-      </c>
-      <c r="E38" s="3">
-        <v>272</v>
-      </c>
-      <c r="F38" s="3">
-        <v>304</v>
-      </c>
-      <c r="G38" s="3">
-        <v>262</v>
-      </c>
-      <c r="H38" s="73"/>
-      <c r="I38" s="73"/>
-      <c r="J38" s="45"/>
-      <c r="K38" s="52">
-        <v>346</v>
-      </c>
-      <c r="L38" s="3">
-        <v>319</v>
-      </c>
-      <c r="M38" s="3">
-        <v>417</v>
-      </c>
-      <c r="N38" s="3">
-        <v>319</v>
-      </c>
-      <c r="O38" s="3">
-        <v>417</v>
-      </c>
-      <c r="P38" s="3">
-        <v>346</v>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" s="60"/>
+      <c r="B38" s="50">
+        <v>157</v>
+      </c>
+      <c r="C38" s="57">
+        <v>94</v>
+      </c>
+      <c r="D38" s="57">
+        <v>168</v>
+      </c>
+      <c r="E38" s="57">
+        <v>67</v>
+      </c>
+      <c r="F38" s="57">
+        <v>101</v>
+      </c>
+      <c r="G38" s="57">
+        <v>63</v>
+      </c>
+      <c r="H38" s="59"/>
+      <c r="I38" s="59"/>
+      <c r="J38" s="48"/>
+      <c r="K38" s="50">
+        <v>36</v>
+      </c>
+      <c r="L38" s="50">
+        <v>99</v>
+      </c>
+      <c r="M38" s="50">
+        <v>36</v>
+      </c>
+      <c r="N38" s="50">
+        <v>76</v>
+      </c>
+      <c r="O38" s="50">
+        <v>99</v>
+      </c>
+      <c r="P38" s="50">
+        <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="20"/>
-      <c r="B39" s="51"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="42"/>
+      <c r="B39" s="57">
+        <v>157</v>
+      </c>
+      <c r="C39" s="57">
+        <v>94</v>
+      </c>
+      <c r="D39" s="57">
+        <v>182</v>
+      </c>
+      <c r="E39" s="57">
+        <v>81</v>
+      </c>
+      <c r="F39" s="57">
+        <v>101</v>
+      </c>
+      <c r="G39" s="57">
+        <v>63</v>
+      </c>
       <c r="I39" s="35"/>
       <c r="J39" s="20"/>
-      <c r="K39" s="51"/>
-      <c r="L39" s="51"/>
-      <c r="M39" s="51"/>
-      <c r="N39" s="51"/>
-      <c r="O39" s="58"/>
-      <c r="P39" s="42"/>
+      <c r="K39" s="50">
+        <v>36</v>
+      </c>
+      <c r="L39" s="50">
+        <v>99</v>
+      </c>
+      <c r="M39" s="50">
+        <v>36</v>
+      </c>
+      <c r="N39" s="50">
+        <v>76</v>
+      </c>
+      <c r="O39" s="50">
+        <v>91</v>
+      </c>
+      <c r="P39" s="50">
+        <v>127</v>
+      </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A40" s="23" t="s">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="58"/>
+      <c r="B40" s="57">
+        <v>157</v>
+      </c>
+      <c r="C40" s="57">
+        <v>94</v>
+      </c>
+      <c r="D40" s="57">
+        <v>182</v>
+      </c>
+      <c r="E40" s="57">
+        <v>81</v>
+      </c>
+      <c r="F40" s="57">
+        <v>101</v>
+      </c>
+      <c r="G40" s="57">
+        <v>63</v>
+      </c>
+      <c r="I40" s="35"/>
+      <c r="J40" s="58"/>
+      <c r="K40" s="50">
+        <v>36</v>
+      </c>
+      <c r="L40" s="50">
+        <v>99</v>
+      </c>
+      <c r="M40" s="50">
+        <v>36</v>
+      </c>
+      <c r="N40" s="50">
+        <v>76</v>
+      </c>
+      <c r="O40" s="50">
+        <v>91</v>
+      </c>
+      <c r="P40" s="50">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="22"/>
+      <c r="B41" s="3">
+        <v>157</v>
+      </c>
+      <c r="C41" s="3">
+        <v>94</v>
+      </c>
+      <c r="D41" s="3">
+        <v>182</v>
+      </c>
+      <c r="E41" s="3">
+        <v>81</v>
+      </c>
+      <c r="F41" s="3">
+        <v>101</v>
+      </c>
+      <c r="G41" s="3">
+        <v>63</v>
+      </c>
+      <c r="I41" s="35"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="51">
+        <v>36</v>
+      </c>
+      <c r="L41" s="51">
+        <v>99</v>
+      </c>
+      <c r="M41" s="51">
+        <v>36</v>
+      </c>
+      <c r="N41" s="51">
+        <v>76</v>
+      </c>
+      <c r="O41" s="51">
+        <v>91</v>
+      </c>
+      <c r="P41" s="51">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="58"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="57"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="58"/>
+      <c r="K42" s="75"/>
+      <c r="M42" s="36"/>
+      <c r="N42" s="36"/>
+      <c r="O42" s="36"/>
+      <c r="P42" s="75"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="53">
-        <f>AVERAGE(B4:B38)</f>
-        <v>224.2</v>
-      </c>
-      <c r="C40" s="53">
-        <f>AVERAGE(C4:C38)</f>
-        <v>239.22857142857143</v>
-      </c>
-      <c r="D40" s="53">
-        <f>AVERAGE(D4:D38)</f>
-        <v>264.25714285714287</v>
-      </c>
-      <c r="E40" s="53">
-        <f>AVERAGE(E4:E38)</f>
-        <v>239.22857142857143</v>
-      </c>
-      <c r="F40" s="6">
-        <f>AVERAGE(F4:F38)</f>
-        <v>264.25714285714287</v>
-      </c>
-      <c r="G40" s="6">
-        <f>AVERAGE(G4:G38)</f>
-        <v>224.2</v>
-      </c>
-      <c r="H40" s="26"/>
-      <c r="I40" s="56"/>
-      <c r="J40" s="23" t="s">
+      <c r="B43" s="6">
+        <f>AVERAGE(B4:B41)</f>
+        <v>285.76315789473682</v>
+      </c>
+      <c r="C43" s="6">
+        <f t="shared" ref="C43:F43" si="0">AVERAGE(C4:C41)</f>
+        <v>169.57894736842104</v>
+      </c>
+      <c r="D43" s="6">
+        <f t="shared" si="0"/>
+        <v>272.89473684210526</v>
+      </c>
+      <c r="E43" s="6">
+        <f t="shared" si="0"/>
+        <v>117.94736842105263</v>
+      </c>
+      <c r="F43" s="6">
+        <f t="shared" si="0"/>
+        <v>154.94736842105263</v>
+      </c>
+      <c r="G43" s="6">
+        <f>AVERAGE(G4:G41)</f>
+        <v>116.18421052631579</v>
+      </c>
+      <c r="H43" s="19"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="K40" s="53">
-        <f>AVERAGE(K4:K38)</f>
-        <v>263.05714285714288</v>
-      </c>
-      <c r="L40" s="53">
-        <f>AVERAGE(L4:L38)</f>
-        <v>239.4</v>
-      </c>
-      <c r="M40" s="53">
-        <f>AVERAGE(M4:M38)</f>
-        <v>253.14285714285714</v>
-      </c>
-      <c r="N40" s="53">
-        <f>AVERAGE(N4:N38)</f>
-        <v>239.4</v>
-      </c>
-      <c r="O40" s="6">
-        <f>AVERAGE(O4:O38)</f>
-        <v>253.14285714285714</v>
-      </c>
-      <c r="P40" s="6">
-        <f>AVERAGE(P4:P38)</f>
-        <v>263.05714285714288</v>
+      <c r="K43" s="6">
+        <f>AVERAGE(K4:K41)</f>
+        <v>60.684210526315788</v>
+      </c>
+      <c r="L43" s="6">
+        <f>AVERAGE(L4:L41)</f>
+        <v>142.84210526315789</v>
+      </c>
+      <c r="M43" s="6">
+        <f>AVERAGE(M4:M41)</f>
+        <v>73.526315789473685</v>
+      </c>
+      <c r="N43" s="6">
+        <f>AVERAGE(N4:N41)</f>
+        <v>144.89473684210526</v>
+      </c>
+      <c r="O43" s="6">
+        <f>AVERAGE(O4:O41)</f>
+        <v>134.81578947368422</v>
+      </c>
+      <c r="P43" s="6">
+        <f>AVERAGE(P4:P41)</f>
+        <v>171.36842105263159</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A41" s="23"/>
-      <c r="B41" s="53"/>
-      <c r="C41" s="53"/>
-      <c r="D41" s="53"/>
-      <c r="E41" s="53"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="56"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="53"/>
-      <c r="L41" s="53"/>
-      <c r="M41" s="53"/>
-      <c r="N41" s="53"/>
-      <c r="O41" s="6"/>
-      <c r="P41" s="6"/>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" s="23"/>
+      <c r="B44" s="52"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="55"/>
+      <c r="J44" s="23"/>
+      <c r="L44" s="75"/>
+      <c r="M44" s="75"/>
+      <c r="N44" s="75"/>
+      <c r="O44" s="75"/>
+      <c r="Q44" s="36"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A42" s="23" t="s">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A45" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="53">
-        <f>_xlfn.STDEV.S(B4:B38)</f>
-        <v>36.531050451072801</v>
-      </c>
-      <c r="C42" s="53">
-        <f>_xlfn.STDEV.S(C4:C38)</f>
-        <v>46.060756369288221</v>
-      </c>
-      <c r="D42" s="53">
-        <f>_xlfn.STDEV.S(D4:D38)</f>
-        <v>36.012532832451626</v>
-      </c>
-      <c r="E42" s="53">
-        <f>_xlfn.STDEV.S(E4:E38)</f>
-        <v>46.060756369288221</v>
-      </c>
-      <c r="F42" s="6">
-        <f>_xlfn.STDEV.S(F4:F38)</f>
-        <v>36.012532832451626</v>
-      </c>
-      <c r="G42" s="6">
-        <f>_xlfn.STDEV.S(G4:G38)</f>
-        <v>36.531050451072801</v>
-      </c>
-      <c r="H42" s="26"/>
-      <c r="I42" s="56"/>
-      <c r="J42" s="23" t="s">
+      <c r="B45" s="6">
+        <f t="shared" ref="B45:F45" si="1">_xlfn.STDEV.S(B4:B41)</f>
+        <v>177.69248173581755</v>
+      </c>
+      <c r="C45" s="6">
+        <f t="shared" si="1"/>
+        <v>115.57158342845061</v>
+      </c>
+      <c r="D45" s="6">
+        <f t="shared" si="1"/>
+        <v>173.10312337708368</v>
+      </c>
+      <c r="E45" s="6">
+        <f t="shared" si="1"/>
+        <v>88.603870139505958</v>
+      </c>
+      <c r="F45" s="6">
+        <f t="shared" si="1"/>
+        <v>85.780659121821344</v>
+      </c>
+      <c r="G45" s="6">
+        <f>_xlfn.STDEV.S(G4:G41)</f>
+        <v>63.209157420363695</v>
+      </c>
+      <c r="H45" s="26"/>
+      <c r="I45" s="55"/>
+      <c r="J45" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="K42" s="53">
-        <f>_xlfn.STDEV.S(K4:K38)</f>
-        <v>94.460991904577384</v>
-      </c>
-      <c r="L42" s="53">
-        <f>_xlfn.STDEV.S(L4:L38)</f>
-        <v>43.395039022504669</v>
-      </c>
-      <c r="M42" s="53">
-        <f>_xlfn.STDEV.S(M4:M38)</f>
-        <v>104.71730652434817</v>
-      </c>
-      <c r="N42" s="53">
-        <f>_xlfn.STDEV.S(N4:N38)</f>
-        <v>43.395039022504669</v>
-      </c>
-      <c r="O42" s="6">
-        <f>_xlfn.STDEV.S(O4:O38)</f>
-        <v>104.71730652434817</v>
-      </c>
-      <c r="P42" s="6">
-        <f>_xlfn.STDEV.S(P4:P38)</f>
-        <v>94.460991904577384</v>
+      <c r="K45" s="52">
+        <f>_xlfn.STDEV.S(K4:K41)</f>
+        <v>30.616287189203362</v>
+      </c>
+      <c r="L45" s="52">
+        <f t="shared" ref="L45:P45" si="2">_xlfn.STDEV.S(L4:L41)</f>
+        <v>117.03187976758541</v>
+      </c>
+      <c r="M45" s="52">
+        <f t="shared" si="2"/>
+        <v>44.432601156349193</v>
+      </c>
+      <c r="N45" s="52">
+        <f t="shared" si="2"/>
+        <v>84.214908314153675</v>
+      </c>
+      <c r="O45" s="52">
+        <f t="shared" si="2"/>
+        <v>62.76203675366181</v>
+      </c>
+      <c r="P45" s="52">
+        <f t="shared" si="2"/>
+        <v>99.474951635298368</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43" s="23"/>
-      <c r="B43" s="53"/>
-      <c r="C43" s="53"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="56"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="53"/>
-      <c r="L43" s="53"/>
-      <c r="M43" s="53"/>
-      <c r="N43" s="53"/>
-      <c r="O43" s="6"/>
-      <c r="P43" s="6"/>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="23"/>
+      <c r="B46" s="52"/>
+      <c r="C46" s="52"/>
+      <c r="D46" s="52"/>
+      <c r="E46" s="52"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="55"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="52"/>
+      <c r="L46" s="52"/>
+      <c r="M46" s="52"/>
+      <c r="N46" s="52"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
     </row>
-    <row r="44" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="24" t="s">
+    <row r="47" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B44" s="54">
-        <f>_xlfn.CONFIDENCE.NORM(0.05,B42,35)</f>
-        <v>12.102531714676296</v>
-      </c>
-      <c r="C44" s="54">
-        <f t="shared" ref="C44:G44" si="0">_xlfn.CONFIDENCE.NORM(0.05,C42,35)</f>
-        <v>15.259669729670156</v>
-      </c>
-      <c r="D44" s="54">
-        <f t="shared" si="0"/>
-        <v>11.930749741628848</v>
-      </c>
-      <c r="E44" s="54">
-        <f t="shared" si="0"/>
-        <v>15.259669729670156</v>
-      </c>
-      <c r="F44" s="54">
-        <f t="shared" si="0"/>
-        <v>11.930749741628848</v>
-      </c>
-      <c r="G44" s="8">
-        <f t="shared" si="0"/>
-        <v>12.102531714676296</v>
-      </c>
-      <c r="H44" s="26"/>
-      <c r="I44" s="56"/>
-      <c r="J44" s="24" t="s">
+      <c r="B47" s="53">
+        <f>_xlfn.CONFIDENCE.NORM(0.05,B45,35)</f>
+        <v>58.868520590382211</v>
+      </c>
+      <c r="C47" s="53">
+        <f t="shared" ref="C47:G47" si="3">_xlfn.CONFIDENCE.NORM(0.05,C45,35)</f>
+        <v>38.288216092540672</v>
+      </c>
+      <c r="D47" s="53">
+        <f t="shared" si="3"/>
+        <v>57.348091957732251</v>
+      </c>
+      <c r="E47" s="53">
+        <f t="shared" si="3"/>
+        <v>29.3539642349633</v>
+      </c>
+      <c r="F47" s="53">
+        <f t="shared" si="3"/>
+        <v>28.418650290884035</v>
+      </c>
+      <c r="G47" s="8">
+        <f t="shared" si="3"/>
+        <v>20.940838626102327</v>
+      </c>
+      <c r="H47" s="26"/>
+      <c r="I47" s="55"/>
+      <c r="J47" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="K44" s="54">
-        <f>_xlfn.CONFIDENCE.NORM(0.05,K42,40)</f>
-        <v>29.273226764509225</v>
-      </c>
-      <c r="L44" s="54">
-        <f t="shared" ref="L44:P44" si="1">_xlfn.CONFIDENCE.NORM(0.05,L42,40)</f>
-        <v>13.448014806405492</v>
-      </c>
-      <c r="M44" s="54">
-        <f t="shared" si="1"/>
-        <v>32.451633190052519</v>
-      </c>
-      <c r="N44" s="54">
-        <f t="shared" si="1"/>
-        <v>13.448014806405492</v>
-      </c>
-      <c r="O44" s="8">
-        <f t="shared" si="1"/>
-        <v>32.451633190052519</v>
-      </c>
-      <c r="P44" s="8">
-        <f t="shared" si="1"/>
-        <v>29.273226764509225</v>
+      <c r="K47" s="53">
+        <f>_xlfn.CONFIDENCE.NORM(0.05,K45,40)</f>
+        <v>9.4879113537390136</v>
+      </c>
+      <c r="L47" s="53">
+        <f t="shared" ref="L47:P47" si="4">_xlfn.CONFIDENCE.NORM(0.05,L45,40)</f>
+        <v>36.267888850607072</v>
+      </c>
+      <c r="M47" s="53">
+        <f t="shared" si="4"/>
+        <v>13.769552734537569</v>
+      </c>
+      <c r="N47" s="53">
+        <f t="shared" si="4"/>
+        <v>26.097990909548276</v>
+      </c>
+      <c r="O47" s="8">
+        <f t="shared" si="4"/>
+        <v>19.449799298617947</v>
+      </c>
+      <c r="P47" s="8">
+        <f t="shared" si="4"/>
+        <v>30.827040431147218</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A45" s="23"/>
-      <c r="B45" s="55"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="56"/>
-      <c r="J45" s="23"/>
-      <c r="K45" s="55"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
-      <c r="O45" s="5"/>
-      <c r="P45" s="5"/>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="23"/>
+      <c r="B48" s="54"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="55"/>
+      <c r="J48" s="23"/>
+      <c r="K48" s="54"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
     </row>
-    <row r="46" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="24" t="s">
+    <row r="49" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B46" s="8">
-        <f>AVERAGE(B40:G40)</f>
-        <v>242.56190476190477</v>
-      </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="56"/>
-      <c r="J46" s="24" t="s">
+      <c r="B49" s="8">
+        <f>AVERAGE(B43:G43)</f>
+        <v>186.21929824561403</v>
+      </c>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="55"/>
+      <c r="J49" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="K46" s="8">
+      <c r="K49" s="8">
         <f>AVERAGE(K40:P40)</f>
-        <v>251.86666666666667</v>
-      </c>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5"/>
-      <c r="O46" s="5"/>
-      <c r="P46" s="5"/>
+        <v>77.5</v>
+      </c>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -22076,6 +23306,8 @@
     <mergeCell ref="J1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -22108,114 +23340,114 @@
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="69" t="s">
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="67"/>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="67"/>
-      <c r="Z1" s="67"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="67"/>
-      <c r="AC1" s="67"/>
-      <c r="AD1" s="67"/>
-      <c r="AE1" s="67"/>
-      <c r="AF1" s="67"/>
-      <c r="AG1" s="68"/>
-      <c r="AH1" s="64" t="s">
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
+      <c r="X1" s="72"/>
+      <c r="Y1" s="72"/>
+      <c r="Z1" s="72"/>
+      <c r="AA1" s="72"/>
+      <c r="AB1" s="72"/>
+      <c r="AC1" s="72"/>
+      <c r="AD1" s="72"/>
+      <c r="AE1" s="72"/>
+      <c r="AF1" s="72"/>
+      <c r="AG1" s="73"/>
+      <c r="AH1" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="AI1" s="65"/>
-      <c r="AJ1" s="65"/>
-      <c r="AK1" s="65"/>
-      <c r="AL1" s="65"/>
-      <c r="AM1" s="65"/>
-      <c r="AN1" s="65"/>
-      <c r="AO1" s="65"/>
-      <c r="AP1" s="65"/>
-      <c r="AQ1" s="65"/>
-      <c r="AR1" s="65"/>
-      <c r="AS1" s="65"/>
-      <c r="AT1" s="65"/>
-      <c r="AU1" s="65"/>
-      <c r="AV1" s="65"/>
-      <c r="AW1" s="66"/>
-      <c r="AX1" s="67" t="s">
+      <c r="AI1" s="70"/>
+      <c r="AJ1" s="70"/>
+      <c r="AK1" s="70"/>
+      <c r="AL1" s="70"/>
+      <c r="AM1" s="70"/>
+      <c r="AN1" s="70"/>
+      <c r="AO1" s="70"/>
+      <c r="AP1" s="70"/>
+      <c r="AQ1" s="70"/>
+      <c r="AR1" s="70"/>
+      <c r="AS1" s="70"/>
+      <c r="AT1" s="70"/>
+      <c r="AU1" s="70"/>
+      <c r="AV1" s="70"/>
+      <c r="AW1" s="71"/>
+      <c r="AX1" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="AY1" s="67"/>
-      <c r="AZ1" s="67"/>
-      <c r="BA1" s="67"/>
-      <c r="BB1" s="67"/>
-      <c r="BC1" s="67"/>
-      <c r="BD1" s="67"/>
-      <c r="BE1" s="67"/>
-      <c r="BF1" s="67"/>
-      <c r="BG1" s="67"/>
-      <c r="BH1" s="67"/>
-      <c r="BI1" s="67"/>
-      <c r="BJ1" s="67"/>
-      <c r="BK1" s="67"/>
-      <c r="BL1" s="67"/>
-      <c r="BM1" s="68"/>
-      <c r="BN1" s="67" t="s">
+      <c r="AY1" s="72"/>
+      <c r="AZ1" s="72"/>
+      <c r="BA1" s="72"/>
+      <c r="BB1" s="72"/>
+      <c r="BC1" s="72"/>
+      <c r="BD1" s="72"/>
+      <c r="BE1" s="72"/>
+      <c r="BF1" s="72"/>
+      <c r="BG1" s="72"/>
+      <c r="BH1" s="72"/>
+      <c r="BI1" s="72"/>
+      <c r="BJ1" s="72"/>
+      <c r="BK1" s="72"/>
+      <c r="BL1" s="72"/>
+      <c r="BM1" s="73"/>
+      <c r="BN1" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="BO1" s="67"/>
-      <c r="BP1" s="67"/>
-      <c r="BQ1" s="67"/>
-      <c r="BR1" s="67"/>
-      <c r="BS1" s="67"/>
-      <c r="BT1" s="67"/>
-      <c r="BU1" s="67"/>
-      <c r="BV1" s="67"/>
-      <c r="BW1" s="67"/>
-      <c r="BX1" s="67"/>
-      <c r="BY1" s="67"/>
-      <c r="BZ1" s="67"/>
-      <c r="CA1" s="67"/>
-      <c r="CB1" s="67"/>
-      <c r="CC1" s="68"/>
-      <c r="CD1" s="67" t="s">
+      <c r="BO1" s="72"/>
+      <c r="BP1" s="72"/>
+      <c r="BQ1" s="72"/>
+      <c r="BR1" s="72"/>
+      <c r="BS1" s="72"/>
+      <c r="BT1" s="72"/>
+      <c r="BU1" s="72"/>
+      <c r="BV1" s="72"/>
+      <c r="BW1" s="72"/>
+      <c r="BX1" s="72"/>
+      <c r="BY1" s="72"/>
+      <c r="BZ1" s="72"/>
+      <c r="CA1" s="72"/>
+      <c r="CB1" s="72"/>
+      <c r="CC1" s="73"/>
+      <c r="CD1" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="CE1" s="67"/>
-      <c r="CF1" s="67"/>
-      <c r="CG1" s="67"/>
-      <c r="CH1" s="67"/>
-      <c r="CI1" s="67"/>
-      <c r="CJ1" s="67"/>
-      <c r="CK1" s="67"/>
-      <c r="CL1" s="67"/>
-      <c r="CM1" s="67"/>
-      <c r="CN1" s="67"/>
-      <c r="CO1" s="67"/>
-      <c r="CP1" s="67"/>
-      <c r="CQ1" s="67"/>
-      <c r="CR1" s="67"/>
-      <c r="CS1" s="68"/>
+      <c r="CE1" s="72"/>
+      <c r="CF1" s="72"/>
+      <c r="CG1" s="72"/>
+      <c r="CH1" s="72"/>
+      <c r="CI1" s="72"/>
+      <c r="CJ1" s="72"/>
+      <c r="CK1" s="72"/>
+      <c r="CL1" s="72"/>
+      <c r="CM1" s="72"/>
+      <c r="CN1" s="72"/>
+      <c r="CO1" s="72"/>
+      <c r="CP1" s="72"/>
+      <c r="CQ1" s="72"/>
+      <c r="CR1" s="72"/>
+      <c r="CS1" s="73"/>
     </row>
     <row r="2" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A2" s="12"/>
@@ -32966,114 +34198,114 @@
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="69" t="s">
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="67"/>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="67"/>
-      <c r="Z1" s="67"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="67"/>
-      <c r="AC1" s="67"/>
-      <c r="AD1" s="67"/>
-      <c r="AE1" s="67"/>
-      <c r="AF1" s="67"/>
-      <c r="AG1" s="68"/>
-      <c r="AH1" s="64" t="s">
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
+      <c r="X1" s="72"/>
+      <c r="Y1" s="72"/>
+      <c r="Z1" s="72"/>
+      <c r="AA1" s="72"/>
+      <c r="AB1" s="72"/>
+      <c r="AC1" s="72"/>
+      <c r="AD1" s="72"/>
+      <c r="AE1" s="72"/>
+      <c r="AF1" s="72"/>
+      <c r="AG1" s="73"/>
+      <c r="AH1" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="AI1" s="65"/>
-      <c r="AJ1" s="65"/>
-      <c r="AK1" s="65"/>
-      <c r="AL1" s="65"/>
-      <c r="AM1" s="65"/>
-      <c r="AN1" s="65"/>
-      <c r="AO1" s="65"/>
-      <c r="AP1" s="65"/>
-      <c r="AQ1" s="65"/>
-      <c r="AR1" s="65"/>
-      <c r="AS1" s="65"/>
-      <c r="AT1" s="65"/>
-      <c r="AU1" s="65"/>
-      <c r="AV1" s="65"/>
-      <c r="AW1" s="66"/>
-      <c r="AX1" s="67" t="s">
+      <c r="AI1" s="70"/>
+      <c r="AJ1" s="70"/>
+      <c r="AK1" s="70"/>
+      <c r="AL1" s="70"/>
+      <c r="AM1" s="70"/>
+      <c r="AN1" s="70"/>
+      <c r="AO1" s="70"/>
+      <c r="AP1" s="70"/>
+      <c r="AQ1" s="70"/>
+      <c r="AR1" s="70"/>
+      <c r="AS1" s="70"/>
+      <c r="AT1" s="70"/>
+      <c r="AU1" s="70"/>
+      <c r="AV1" s="70"/>
+      <c r="AW1" s="71"/>
+      <c r="AX1" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="AY1" s="67"/>
-      <c r="AZ1" s="67"/>
-      <c r="BA1" s="67"/>
-      <c r="BB1" s="67"/>
-      <c r="BC1" s="67"/>
-      <c r="BD1" s="67"/>
-      <c r="BE1" s="67"/>
-      <c r="BF1" s="67"/>
-      <c r="BG1" s="67"/>
-      <c r="BH1" s="67"/>
-      <c r="BI1" s="67"/>
-      <c r="BJ1" s="67"/>
-      <c r="BK1" s="67"/>
-      <c r="BL1" s="67"/>
-      <c r="BM1" s="68"/>
-      <c r="BN1" s="67" t="s">
+      <c r="AY1" s="72"/>
+      <c r="AZ1" s="72"/>
+      <c r="BA1" s="72"/>
+      <c r="BB1" s="72"/>
+      <c r="BC1" s="72"/>
+      <c r="BD1" s="72"/>
+      <c r="BE1" s="72"/>
+      <c r="BF1" s="72"/>
+      <c r="BG1" s="72"/>
+      <c r="BH1" s="72"/>
+      <c r="BI1" s="72"/>
+      <c r="BJ1" s="72"/>
+      <c r="BK1" s="72"/>
+      <c r="BL1" s="72"/>
+      <c r="BM1" s="73"/>
+      <c r="BN1" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="BO1" s="67"/>
-      <c r="BP1" s="67"/>
-      <c r="BQ1" s="67"/>
-      <c r="BR1" s="67"/>
-      <c r="BS1" s="67"/>
-      <c r="BT1" s="67"/>
-      <c r="BU1" s="67"/>
-      <c r="BV1" s="67"/>
-      <c r="BW1" s="67"/>
-      <c r="BX1" s="67"/>
-      <c r="BY1" s="67"/>
-      <c r="BZ1" s="67"/>
-      <c r="CA1" s="67"/>
-      <c r="CB1" s="67"/>
-      <c r="CC1" s="68"/>
-      <c r="CD1" s="67" t="s">
+      <c r="BO1" s="72"/>
+      <c r="BP1" s="72"/>
+      <c r="BQ1" s="72"/>
+      <c r="BR1" s="72"/>
+      <c r="BS1" s="72"/>
+      <c r="BT1" s="72"/>
+      <c r="BU1" s="72"/>
+      <c r="BV1" s="72"/>
+      <c r="BW1" s="72"/>
+      <c r="BX1" s="72"/>
+      <c r="BY1" s="72"/>
+      <c r="BZ1" s="72"/>
+      <c r="CA1" s="72"/>
+      <c r="CB1" s="72"/>
+      <c r="CC1" s="73"/>
+      <c r="CD1" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="CE1" s="67"/>
-      <c r="CF1" s="67"/>
-      <c r="CG1" s="67"/>
-      <c r="CH1" s="67"/>
-      <c r="CI1" s="67"/>
-      <c r="CJ1" s="67"/>
-      <c r="CK1" s="67"/>
-      <c r="CL1" s="67"/>
-      <c r="CM1" s="67"/>
-      <c r="CN1" s="67"/>
-      <c r="CO1" s="67"/>
-      <c r="CP1" s="67"/>
-      <c r="CQ1" s="67"/>
-      <c r="CR1" s="67"/>
-      <c r="CS1" s="68"/>
+      <c r="CE1" s="72"/>
+      <c r="CF1" s="72"/>
+      <c r="CG1" s="72"/>
+      <c r="CH1" s="72"/>
+      <c r="CI1" s="72"/>
+      <c r="CJ1" s="72"/>
+      <c r="CK1" s="72"/>
+      <c r="CL1" s="72"/>
+      <c r="CM1" s="72"/>
+      <c r="CN1" s="72"/>
+      <c r="CO1" s="72"/>
+      <c r="CP1" s="72"/>
+      <c r="CQ1" s="72"/>
+      <c r="CR1" s="72"/>
+      <c r="CS1" s="73"/>
     </row>
     <row r="2" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A2" s="16"/>
@@ -43997,114 +45229,114 @@
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="69" t="s">
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="67"/>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="67"/>
-      <c r="Z1" s="67"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="67"/>
-      <c r="AC1" s="67"/>
-      <c r="AD1" s="67"/>
-      <c r="AE1" s="67"/>
-      <c r="AF1" s="67"/>
-      <c r="AG1" s="68"/>
-      <c r="AH1" s="64" t="s">
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
+      <c r="X1" s="72"/>
+      <c r="Y1" s="72"/>
+      <c r="Z1" s="72"/>
+      <c r="AA1" s="72"/>
+      <c r="AB1" s="72"/>
+      <c r="AC1" s="72"/>
+      <c r="AD1" s="72"/>
+      <c r="AE1" s="72"/>
+      <c r="AF1" s="72"/>
+      <c r="AG1" s="73"/>
+      <c r="AH1" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="AI1" s="65"/>
-      <c r="AJ1" s="65"/>
-      <c r="AK1" s="65"/>
-      <c r="AL1" s="65"/>
-      <c r="AM1" s="65"/>
-      <c r="AN1" s="65"/>
-      <c r="AO1" s="65"/>
-      <c r="AP1" s="65"/>
-      <c r="AQ1" s="65"/>
-      <c r="AR1" s="65"/>
-      <c r="AS1" s="65"/>
-      <c r="AT1" s="65"/>
-      <c r="AU1" s="65"/>
-      <c r="AV1" s="65"/>
-      <c r="AW1" s="66"/>
-      <c r="AX1" s="67" t="s">
+      <c r="AI1" s="70"/>
+      <c r="AJ1" s="70"/>
+      <c r="AK1" s="70"/>
+      <c r="AL1" s="70"/>
+      <c r="AM1" s="70"/>
+      <c r="AN1" s="70"/>
+      <c r="AO1" s="70"/>
+      <c r="AP1" s="70"/>
+      <c r="AQ1" s="70"/>
+      <c r="AR1" s="70"/>
+      <c r="AS1" s="70"/>
+      <c r="AT1" s="70"/>
+      <c r="AU1" s="70"/>
+      <c r="AV1" s="70"/>
+      <c r="AW1" s="71"/>
+      <c r="AX1" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="AY1" s="67"/>
-      <c r="AZ1" s="67"/>
-      <c r="BA1" s="67"/>
-      <c r="BB1" s="67"/>
-      <c r="BC1" s="67"/>
-      <c r="BD1" s="67"/>
-      <c r="BE1" s="67"/>
-      <c r="BF1" s="67"/>
-      <c r="BG1" s="67"/>
-      <c r="BH1" s="67"/>
-      <c r="BI1" s="67"/>
-      <c r="BJ1" s="67"/>
-      <c r="BK1" s="67"/>
-      <c r="BL1" s="67"/>
-      <c r="BM1" s="68"/>
-      <c r="BN1" s="67" t="s">
+      <c r="AY1" s="72"/>
+      <c r="AZ1" s="72"/>
+      <c r="BA1" s="72"/>
+      <c r="BB1" s="72"/>
+      <c r="BC1" s="72"/>
+      <c r="BD1" s="72"/>
+      <c r="BE1" s="72"/>
+      <c r="BF1" s="72"/>
+      <c r="BG1" s="72"/>
+      <c r="BH1" s="72"/>
+      <c r="BI1" s="72"/>
+      <c r="BJ1" s="72"/>
+      <c r="BK1" s="72"/>
+      <c r="BL1" s="72"/>
+      <c r="BM1" s="73"/>
+      <c r="BN1" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="BO1" s="67"/>
-      <c r="BP1" s="67"/>
-      <c r="BQ1" s="67"/>
-      <c r="BR1" s="67"/>
-      <c r="BS1" s="67"/>
-      <c r="BT1" s="67"/>
-      <c r="BU1" s="67"/>
-      <c r="BV1" s="67"/>
-      <c r="BW1" s="67"/>
-      <c r="BX1" s="67"/>
-      <c r="BY1" s="67"/>
-      <c r="BZ1" s="67"/>
-      <c r="CA1" s="67"/>
-      <c r="CB1" s="67"/>
-      <c r="CC1" s="68"/>
-      <c r="CD1" s="67" t="s">
+      <c r="BO1" s="72"/>
+      <c r="BP1" s="72"/>
+      <c r="BQ1" s="72"/>
+      <c r="BR1" s="72"/>
+      <c r="BS1" s="72"/>
+      <c r="BT1" s="72"/>
+      <c r="BU1" s="72"/>
+      <c r="BV1" s="72"/>
+      <c r="BW1" s="72"/>
+      <c r="BX1" s="72"/>
+      <c r="BY1" s="72"/>
+      <c r="BZ1" s="72"/>
+      <c r="CA1" s="72"/>
+      <c r="CB1" s="72"/>
+      <c r="CC1" s="73"/>
+      <c r="CD1" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="CE1" s="67"/>
-      <c r="CF1" s="67"/>
-      <c r="CG1" s="67"/>
-      <c r="CH1" s="67"/>
-      <c r="CI1" s="67"/>
-      <c r="CJ1" s="67"/>
-      <c r="CK1" s="67"/>
-      <c r="CL1" s="67"/>
-      <c r="CM1" s="67"/>
-      <c r="CN1" s="67"/>
-      <c r="CO1" s="67"/>
-      <c r="CP1" s="67"/>
-      <c r="CQ1" s="67"/>
-      <c r="CR1" s="67"/>
-      <c r="CS1" s="68"/>
+      <c r="CE1" s="72"/>
+      <c r="CF1" s="72"/>
+      <c r="CG1" s="72"/>
+      <c r="CH1" s="72"/>
+      <c r="CI1" s="72"/>
+      <c r="CJ1" s="72"/>
+      <c r="CK1" s="72"/>
+      <c r="CL1" s="72"/>
+      <c r="CM1" s="72"/>
+      <c r="CN1" s="72"/>
+      <c r="CO1" s="72"/>
+      <c r="CP1" s="72"/>
+      <c r="CQ1" s="72"/>
+      <c r="CR1" s="72"/>
+      <c r="CS1" s="73"/>
     </row>
     <row r="2" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A2" s="40"/>
@@ -54971,114 +56203,114 @@
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="69" t="s">
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="67"/>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="67"/>
-      <c r="Z1" s="67"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="67"/>
-      <c r="AC1" s="67"/>
-      <c r="AD1" s="67"/>
-      <c r="AE1" s="67"/>
-      <c r="AF1" s="67"/>
-      <c r="AG1" s="68"/>
-      <c r="AH1" s="64" t="s">
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
+      <c r="X1" s="72"/>
+      <c r="Y1" s="72"/>
+      <c r="Z1" s="72"/>
+      <c r="AA1" s="72"/>
+      <c r="AB1" s="72"/>
+      <c r="AC1" s="72"/>
+      <c r="AD1" s="72"/>
+      <c r="AE1" s="72"/>
+      <c r="AF1" s="72"/>
+      <c r="AG1" s="73"/>
+      <c r="AH1" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="AI1" s="65"/>
-      <c r="AJ1" s="65"/>
-      <c r="AK1" s="65"/>
-      <c r="AL1" s="65"/>
-      <c r="AM1" s="65"/>
-      <c r="AN1" s="65"/>
-      <c r="AO1" s="65"/>
-      <c r="AP1" s="65"/>
-      <c r="AQ1" s="65"/>
-      <c r="AR1" s="65"/>
-      <c r="AS1" s="65"/>
-      <c r="AT1" s="65"/>
-      <c r="AU1" s="65"/>
-      <c r="AV1" s="65"/>
-      <c r="AW1" s="66"/>
-      <c r="AX1" s="67" t="s">
+      <c r="AI1" s="70"/>
+      <c r="AJ1" s="70"/>
+      <c r="AK1" s="70"/>
+      <c r="AL1" s="70"/>
+      <c r="AM1" s="70"/>
+      <c r="AN1" s="70"/>
+      <c r="AO1" s="70"/>
+      <c r="AP1" s="70"/>
+      <c r="AQ1" s="70"/>
+      <c r="AR1" s="70"/>
+      <c r="AS1" s="70"/>
+      <c r="AT1" s="70"/>
+      <c r="AU1" s="70"/>
+      <c r="AV1" s="70"/>
+      <c r="AW1" s="71"/>
+      <c r="AX1" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="AY1" s="67"/>
-      <c r="AZ1" s="67"/>
-      <c r="BA1" s="67"/>
-      <c r="BB1" s="67"/>
-      <c r="BC1" s="67"/>
-      <c r="BD1" s="67"/>
-      <c r="BE1" s="67"/>
-      <c r="BF1" s="67"/>
-      <c r="BG1" s="67"/>
-      <c r="BH1" s="67"/>
-      <c r="BI1" s="67"/>
-      <c r="BJ1" s="67"/>
-      <c r="BK1" s="67"/>
-      <c r="BL1" s="67"/>
-      <c r="BM1" s="68"/>
-      <c r="BN1" s="67" t="s">
+      <c r="AY1" s="72"/>
+      <c r="AZ1" s="72"/>
+      <c r="BA1" s="72"/>
+      <c r="BB1" s="72"/>
+      <c r="BC1" s="72"/>
+      <c r="BD1" s="72"/>
+      <c r="BE1" s="72"/>
+      <c r="BF1" s="72"/>
+      <c r="BG1" s="72"/>
+      <c r="BH1" s="72"/>
+      <c r="BI1" s="72"/>
+      <c r="BJ1" s="72"/>
+      <c r="BK1" s="72"/>
+      <c r="BL1" s="72"/>
+      <c r="BM1" s="73"/>
+      <c r="BN1" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="BO1" s="67"/>
-      <c r="BP1" s="67"/>
-      <c r="BQ1" s="67"/>
-      <c r="BR1" s="67"/>
-      <c r="BS1" s="67"/>
-      <c r="BT1" s="67"/>
-      <c r="BU1" s="67"/>
-      <c r="BV1" s="67"/>
-      <c r="BW1" s="67"/>
-      <c r="BX1" s="67"/>
-      <c r="BY1" s="67"/>
-      <c r="BZ1" s="67"/>
-      <c r="CA1" s="67"/>
-      <c r="CB1" s="67"/>
-      <c r="CC1" s="68"/>
-      <c r="CD1" s="67" t="s">
+      <c r="BO1" s="72"/>
+      <c r="BP1" s="72"/>
+      <c r="BQ1" s="72"/>
+      <c r="BR1" s="72"/>
+      <c r="BS1" s="72"/>
+      <c r="BT1" s="72"/>
+      <c r="BU1" s="72"/>
+      <c r="BV1" s="72"/>
+      <c r="BW1" s="72"/>
+      <c r="BX1" s="72"/>
+      <c r="BY1" s="72"/>
+      <c r="BZ1" s="72"/>
+      <c r="CA1" s="72"/>
+      <c r="CB1" s="72"/>
+      <c r="CC1" s="73"/>
+      <c r="CD1" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="CE1" s="67"/>
-      <c r="CF1" s="67"/>
-      <c r="CG1" s="67"/>
-      <c r="CH1" s="67"/>
-      <c r="CI1" s="67"/>
-      <c r="CJ1" s="67"/>
-      <c r="CK1" s="67"/>
-      <c r="CL1" s="67"/>
-      <c r="CM1" s="67"/>
-      <c r="CN1" s="67"/>
-      <c r="CO1" s="67"/>
-      <c r="CP1" s="67"/>
-      <c r="CQ1" s="67"/>
-      <c r="CR1" s="67"/>
-      <c r="CS1" s="68"/>
+      <c r="CE1" s="72"/>
+      <c r="CF1" s="72"/>
+      <c r="CG1" s="72"/>
+      <c r="CH1" s="72"/>
+      <c r="CI1" s="72"/>
+      <c r="CJ1" s="72"/>
+      <c r="CK1" s="72"/>
+      <c r="CL1" s="72"/>
+      <c r="CM1" s="72"/>
+      <c r="CN1" s="72"/>
+      <c r="CO1" s="72"/>
+      <c r="CP1" s="72"/>
+      <c r="CQ1" s="72"/>
+      <c r="CR1" s="72"/>
+      <c r="CS1" s="73"/>
     </row>
     <row r="2" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A2" s="40"/>
@@ -55177,7 +56409,7 @@
       <c r="CP2" s="41"/>
       <c r="CQ2" s="41"/>
       <c r="CR2" s="41"/>
-      <c r="CS2" s="57"/>
+      <c r="CS2" s="56"/>
     </row>
     <row r="3" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
